--- a/Batch/14/In_Class/Day_6.xlsx
+++ b/Batch/14/In_Class/Day_6.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\14\In_Class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A459B38E-497B-4704-BBCA-C7CA96944001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84DB005-3B24-4A2D-87A8-E795C621E84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E4FAC7A2-194B-4DBE-ACA1-546198A701A9}"/>
+    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E4FAC7A2-194B-4DBE-ACA1-546198A701A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="3" r:id="rId1"/>
     <sheet name="Recap" sheetId="1" r:id="rId2"/>
     <sheet name="Agenda" sheetId="2" r:id="rId3"/>
-    <sheet name="Data Visual" sheetId="4" r:id="rId4"/>
-    <sheet name="Questions" sheetId="5" r:id="rId5"/>
+    <sheet name="Questions" sheetId="5" r:id="rId4"/>
+    <sheet name="Discussion" sheetId="6" r:id="rId5"/>
+    <sheet name="Visuals" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4158" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="336">
   <si>
     <t>Intro To excel</t>
   </si>
@@ -711,55 +712,7 @@
     <t>Github Link</t>
   </si>
   <si>
-    <t>https://github.com/starlordali4444/Acciojob-Excel/blob/main/notes/Day6_Charts.xlsx</t>
-  </si>
-  <si>
-    <t>Anil</t>
-  </si>
-  <si>
-    <t>Presenting Data In graphical format</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Srinath</t>
-  </si>
-  <si>
     <t>Easy to understand</t>
-  </si>
-  <si>
-    <t>Shivani</t>
-  </si>
-  <si>
-    <t>Easy To Analyse</t>
-  </si>
-  <si>
-    <t>Easy interaction</t>
-  </si>
-  <si>
-    <t>Easy to Explain</t>
-  </si>
-  <si>
-    <t>Understand Visual Better than Text</t>
-  </si>
-  <si>
-    <t>Chart Element</t>
-  </si>
-  <si>
-    <t>Chart Style</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <t>Navigate to Insert Menu</t>
-  </si>
-  <si>
-    <t>Look for Chart Group</t>
-  </si>
-  <si>
-    <t>Select desired Chart</t>
   </si>
   <si>
     <t>Pie Chart Problem</t>
@@ -4127,12 +4080,186 @@
       <t xml:space="preserve"> for years of experience across the countries.</t>
     </r>
   </si>
+  <si>
+    <t>https://github.com/starlordali4444/Acciojob-Excel/blob/master/Batch/14/Curriculum/Day_6_Charts.xlsx</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Chart</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Arpit</t>
+  </si>
+  <si>
+    <t>Even a illiterate can also understand the picture</t>
+  </si>
+  <si>
+    <t>cause the Hogwarts world and the creatures are beautiful and we can see all the details</t>
+  </si>
+  <si>
+    <t>visual has a great effect. it stays in our mind . so i choose dvd</t>
+  </si>
+  <si>
+    <t>visual is better than text</t>
+  </si>
+  <si>
+    <t>easy to explain &amp; understand</t>
+  </si>
+  <si>
+    <t>less time to understand</t>
+  </si>
+  <si>
+    <t>Time saving</t>
+  </si>
+  <si>
+    <t>we can Properly imagine the thing</t>
+  </si>
+  <si>
+    <t>Movie: Gets me involved in that virtual world and understand the story better</t>
+  </si>
+  <si>
+    <t>visual in more time in our mind</t>
+  </si>
+  <si>
+    <t>WHAT WE SEE IT IS EASY TKEEP IT IN OUR MIND</t>
+  </si>
+  <si>
+    <t>Watching movie because visual is more understandable and attractive..</t>
+  </si>
+  <si>
+    <t>visuals are realistic and we can visualize each charcters perfectly</t>
+  </si>
+  <si>
+    <t>we can properly imagine the thing</t>
+  </si>
+  <si>
+    <t>it depends on time if I get more time then I prefer read book other wise movie</t>
+  </si>
+  <si>
+    <t>video has a disadvantage cause people will not be able to understand so many details at same time</t>
+  </si>
+  <si>
+    <t>Charts</t>
+  </si>
+  <si>
+    <t>Chart Title</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Chart Area</t>
+  </si>
+  <si>
+    <t>Legends</t>
+  </si>
+  <si>
+    <t>Data Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractional Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doughnut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar </t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Trends</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Age Height</t>
+  </si>
+  <si>
+    <t>Tree Map</t>
+  </si>
+  <si>
+    <t>Sun Burst</t>
+  </si>
+  <si>
+    <t>Hierarchical</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Scatter Plot</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Sumif</t>
+  </si>
+  <si>
+    <t>Sumifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean </t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Percentile</t>
+  </si>
+  <si>
+    <t>Quartile</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Skew</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4172,8 +4299,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4198,6 +4331,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4212,7 +4351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4228,6 +4367,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4250,25 +4394,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>274318</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30726</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>334430</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>16815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>49249</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85377</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493888</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1834</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="10" name="Ink 9">
+            <xdr14:cNvPr id="54" name="Ink 53">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5637ECD5-B098-7581-6328-83695E25AF68}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE68433-621E-7F54-51E8-CF9B6BB63854}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4276,18 +4420,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="3581722" y="213120"/>
-            <a:ext cx="423442" cy="237044"/>
+            <a:off x="4956562" y="5340789"/>
+            <a:ext cx="4039642" cy="1609282"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="10" name="Ink 9">
+            <xdr:cNvPr id="54" name="Ink 53">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5637ECD5-B098-7581-6328-83695E25AF68}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE68433-621E-7F54-51E8-CF9B6BB63854}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4301,8 +4445,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3575538" y="206872"/>
-              <a:ext cx="435811" cy="249539"/>
+              <a:off x="4950435" y="5334649"/>
+              <a:ext cx="4051896" cy="1621561"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4315,25 +4459,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>144207</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9019</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11874</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>601047</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>27398</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>36882</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76430</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="27" name="Ink 26">
+            <xdr14:cNvPr id="62" name="Ink 61">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADAD3B3E-AF3F-4A8A-B992-1514E4A0A661}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79FCE54-311E-9CBB-42F8-2FFE992F4F0C}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4341,18 +4485,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="4100122" y="556200"/>
-            <a:ext cx="456840" cy="565560"/>
+            <a:off x="5927400" y="5581269"/>
+            <a:ext cx="1318402" cy="180082"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="27" name="Ink 26">
+            <xdr:cNvPr id="62" name="Ink 61">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADAD3B3E-AF3F-4A8A-B992-1514E4A0A661}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79FCE54-311E-9CBB-42F8-2FFE992F4F0C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4366,8 +4510,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4094002" y="550080"/>
-              <a:ext cx="469080" cy="577800"/>
+              <a:off x="5921256" y="5574983"/>
+              <a:ext cx="1330690" cy="192654"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4380,25 +4524,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>341974</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19288</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>516065</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>102742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>563073</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>121649</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>379380</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>151462</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="34" name="Ink 33">
+            <xdr14:cNvPr id="80" name="Ink 79">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033FCCD5-5C32-FCEA-DD4E-8B2DB91C4DD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361436CE-DE74-8FB0-CD37-6A269572FC3D}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4406,18 +4550,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="4946400" y="201682"/>
-            <a:ext cx="1518120" cy="1196722"/>
+            <a:off x="5794920" y="5607189"/>
+            <a:ext cx="3096802" cy="1131562"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="34" name="Ink 33">
+            <xdr:cNvPr id="80" name="Ink 79">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033FCCD5-5C32-FCEA-DD4E-8B2DB91C4DD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361436CE-DE74-8FB0-CD37-6A269572FC3D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4431,8 +4575,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4940280" y="195538"/>
-              <a:ext cx="1530360" cy="1209011"/>
+              <a:off x="5788791" y="5601045"/>
+              <a:ext cx="3109061" cy="1143850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4445,25 +4589,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>258176</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104015</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523985</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>325915</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>140925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190295</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>48369</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="50" name="Ink 49">
+            <xdr14:cNvPr id="95" name="Ink 94">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A8EABD-C88A-76D0-8862-34886C3C8061}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754976BD-1ACE-AC96-A611-B889A61AAAD6}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4471,18 +4615,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="4862602" y="468802"/>
-            <a:ext cx="1364760" cy="948878"/>
+            <a:off x="5802840" y="5686749"/>
+            <a:ext cx="1606402" cy="587962"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="50" name="Ink 49">
+            <xdr:cNvPr id="95" name="Ink 94">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A8EABD-C88A-76D0-8862-34886C3C8061}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754976BD-1ACE-AC96-A611-B889A61AAAD6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4496,8 +4640,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4856461" y="462680"/>
-              <a:ext cx="1377042" cy="961122"/>
+              <a:off x="5796720" y="5680624"/>
+              <a:ext cx="1618643" cy="600211"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4510,25 +4654,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304024</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>145693</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583334</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>327784</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>173413</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292179</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30616</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="51" name="Ink 50">
+            <xdr14:cNvPr id="103" name="Ink 102">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3DF29D-B0BE-0420-A9D0-B87A9704AF97}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695EC5B2-E52D-1037-57AF-DB493A8FC27F}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4536,18 +4680,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5556960" y="510480"/>
-            <a:ext cx="23760" cy="27720"/>
+            <a:off x="5501242" y="7606295"/>
+            <a:ext cx="1002240" cy="455400"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="51" name="Ink 50">
+            <xdr:cNvPr id="103" name="Ink 102">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3DF29D-B0BE-0420-A9D0-B87A9704AF97}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695EC5B2-E52D-1037-57AF-DB493A8FC27F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4561,8 +4705,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5550840" y="504360"/>
-              <a:ext cx="36000" cy="39960"/>
+              <a:off x="5495122" y="7600180"/>
+              <a:ext cx="1014480" cy="467630"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4575,25 +4719,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>297393</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>173306</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>318633</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>11072</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333943</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>173763</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="52" name="Ink 51">
+            <xdr14:cNvPr id="112" name="Ink 111">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EAEFCA-8D76-EBFA-4B56-1F552F4A34DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720DE20F-3A73-0E14-3E77-46B766702BBF}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4601,18 +4745,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="6198840" y="902880"/>
-            <a:ext cx="21240" cy="20160"/>
+            <a:off x="6979680" y="7520533"/>
+            <a:ext cx="858960" cy="323362"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="52" name="Ink 51">
+            <xdr:cNvPr id="112" name="Ink 111">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EAEFCA-8D76-EBFA-4B56-1F552F4A34DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720DE20F-3A73-0E14-3E77-46B766702BBF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4626,8 +4770,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6192720" y="896760"/>
-              <a:ext cx="33480" cy="32400"/>
+              <a:off x="6973560" y="7514418"/>
+              <a:ext cx="871200" cy="335591"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4640,25 +4784,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>87746</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171973</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259475</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>315393</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19712</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372155</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>14107</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="55" name="Ink 54">
+            <xdr14:cNvPr id="113" name="Ink 112">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2CBE81-F7C2-A7CA-BE2C-00775796F5FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57667F9-2C01-7532-1227-29F807CE4D97}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4666,18 +4810,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5340682" y="536760"/>
-            <a:ext cx="876158" cy="394920"/>
+            <a:off x="5824080" y="8211733"/>
+            <a:ext cx="112680" cy="194400"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="55" name="Ink 54">
+            <xdr:cNvPr id="113" name="Ink 112">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2CBE81-F7C2-A7CA-BE2C-00775796F5FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57667F9-2C01-7532-1227-29F807CE4D97}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4691,8 +4835,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5334563" y="530640"/>
-              <a:ext cx="888397" cy="407160"/>
+              <a:off x="5817960" y="8205613"/>
+              <a:ext cx="124920" cy="206640"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4705,25 +4849,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>493616</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>74451</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>155814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>129506</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>29066</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>640800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="63" name="Ink 62">
+            <xdr14:cNvPr id="114" name="Ink 113">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3D8E58-DD1E-1BD0-B927-79A9C3647862}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF42D509-B159-DD0C-C6D1-E73CD7CFC8D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4731,18 +4875,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5098042" y="1533600"/>
-            <a:ext cx="284400" cy="319402"/>
+            <a:off x="7486200" y="8186893"/>
+            <a:ext cx="12600" cy="145800"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="63" name="Ink 62">
+            <xdr:cNvPr id="114" name="Ink 113">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3D8E58-DD1E-1BD0-B927-79A9C3647862}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF42D509-B159-DD0C-C6D1-E73CD7CFC8D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4756,8 +4900,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5091922" y="1527380"/>
-              <a:ext cx="296640" cy="331841"/>
+              <a:off x="7480080" y="8180773"/>
+              <a:ext cx="24840" cy="158040"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4770,25 +4914,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>582094</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>153752</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289355</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>173587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>158306</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121479</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>67879</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="99" name="Ink 98">
+            <xdr14:cNvPr id="115" name="Ink 114">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D170D40-A886-7B9D-A503-3F0ED73F253C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F68F442-BD3E-5BF4-037A-4BC6F7B4BB95}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4796,18 +4940,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5186520" y="2160082"/>
-            <a:ext cx="224722" cy="150120"/>
+            <a:off x="5853960" y="8565613"/>
+            <a:ext cx="130320" cy="255240"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="99" name="Ink 98">
+            <xdr:cNvPr id="115" name="Ink 114">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D170D40-A886-7B9D-A503-3F0ED73F253C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F68F442-BD3E-5BF4-037A-4BC6F7B4BB95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4821,8 +4965,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5180398" y="2153962"/>
-              <a:ext cx="236966" cy="162360"/>
+              <a:off x="5847840" y="8559493"/>
+              <a:ext cx="142560" cy="267480"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4835,25 +4979,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>370706</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38659</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582120</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495407</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>113792</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90223</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>6679</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="100" name="Ink 99">
+            <xdr14:cNvPr id="116" name="Ink 115">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21009FD-1E9A-DC43-C804-E334802CE56E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C7A6FE-E63E-C243-5638-A79BE7E95332}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4861,18 +5005,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="5623642" y="1680202"/>
-            <a:ext cx="1421722" cy="439920"/>
+            <a:off x="7440120" y="8582533"/>
+            <a:ext cx="154800" cy="177120"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="100" name="Ink 99">
+            <xdr:cNvPr id="116" name="Ink 115">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21009FD-1E9A-DC43-C804-E334802CE56E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C7A6FE-E63E-C243-5638-A79BE7E95332}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4886,8 +5030,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5617501" y="1674016"/>
-              <a:ext cx="1434003" cy="452292"/>
+              <a:off x="7434000" y="8576413"/>
+              <a:ext cx="167040" cy="189360"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4900,90 +5044,262 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>137808</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>77011</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>296915</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>26726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>556966</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88513</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>417875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109772</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Picture 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1126212A-5B43-FDAC-3340-ECFC793DDED8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2796702" y="2448128"/>
-          <a:ext cx="419158" cy="376289"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="117" name="Ink 116">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB3D330-B226-EFDD-2D69-6B2F743563DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5861520" y="8960173"/>
+            <a:ext cx="120960" cy="263520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="117" name="Ink 116">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB3D330-B226-EFDD-2D69-6B2F743563DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5855400" y="8954053"/>
+              <a:ext cx="133200" cy="275760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>174287</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>4053</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591840</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>62726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>545814</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>155082</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>192103</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>141812</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Picture 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DE4E93-149F-FD14-9FD2-C48428391256}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2833181" y="2922351"/>
-          <a:ext cx="371527" cy="333422"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="118" name="Ink 117">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A87917-56BC-C04A-ECA3-95385EB61198}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7449840" y="8996173"/>
+            <a:ext cx="246960" cy="259560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="118" name="Ink 117">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A87917-56BC-C04A-ECA3-95385EB61198}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7443720" y="8990053"/>
+              <a:ext cx="259200" cy="271800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>193955</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>80138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371795</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>127905</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="119" name="Ink 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8439B851-2F0C-ED11-1B19-E1D49CAD7873}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5758560" y="9374533"/>
+            <a:ext cx="177840" cy="228240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="119" name="Ink 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8439B851-2F0C-ED11-1B19-E1D49CAD7873}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5752440" y="9368413"/>
+              <a:ext cx="190080" cy="240480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66823</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>398105</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>115747</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="124" name="Ink 123">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF98104-1393-939E-CAFE-F8FEFDAC10C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7571520" y="9398735"/>
+            <a:ext cx="331282" cy="191880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="124" name="Ink 123">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF98104-1393-939E-CAFE-F8FEFDAC10C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7565318" y="9392462"/>
+              <a:ext cx="343687" cy="204426"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5005,19 +5321,57 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:46:00.414"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T15:06:50.011"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">138 188 7828,'0'0'5696,"5"-6"-5110,12-20-124,-12 20 64,-4 4-438,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 1 0,-1-1 0,5 1 0,50-3-339,-52 3 325,-4 0-81,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 1 1,0-1-1,1 2 0,0 2-22,-1 0-1,1 0 1,-1 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-2 6 1,0 1-74,0 0 0,-1 0 1,-1-1-1,0 1 0,0-1 0,-1 1 0,-1-1 0,-9 18 0,-2 5-340,23-48-64,2 0 1,0 0-1,16-20 0,-14 21 406,-1 0 0,0-1 0,-1-1 0,9-20 1,-13 10 199,-9 23 15,-3 15-111,2 1 108,0 1 1,1 0-1,0 0 1,1 0 0,1 0-1,-1 23 1,3-33-83,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,1-1-1,3 7 1,-3-9-32,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 1,-1 1-1,4-1 0,3 1-117,-1-1 0,0 0 0,1-1-1,-1 0 1,0 0 0,0-1 0,0 0 0,0 0 0,10-5 0,38-23-4746,-35 13-239</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1561.94">633 321 3249,'0'0'11614,"-1"-13"-12017,1 14 411,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-3-1 0,4-24-331,2 16 8,-1 25 230,-4-3 213,-4-14 64,6 0-215,0-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,0-2-1,0-3-56,0 5 67,-1 1 0,1-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1-1 0,1 1 1,0 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,1 1 1,-1-1 3,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,-1-1-1,1 0 1,-1 0 0,0 0 0,1 1-1,-1-1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,-1 2 1,0 38 42,-1-32-233,-1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,-1 0 0,0 0 0,-1-1 0,1 1-1,-12 10 1,13-13-407,-16 18-3310</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2084.77">725 254 6147,'0'0'7374,"-1"-3"-6118,1 1-1091,0 1-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,0 1-1,1-1 0,-2-1 1,1 2 19,28 19-542,-25-19 356,-1 1-1,1-1 0,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1-1 0,0 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 0 1,0-2-1,2-4-9,-1 0 0,0 0 0,-1 0 0,1 0 0,-2 0 0,1-13 1,1 34-131,0 0 1,0-1-1,7 18 1,-1 1-27,19 67 112,-15-63-331,-3 1-1,0 0 1,-3 0-1,4 57 1,-10-91 386,0 0-1,0 1 1,-1-1-1,1 1 1,-1-1-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,0 0 1,0-1 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0-1-1,-5 2 1,4-2 80,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0-1-1,0 1 0,0 0 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0-1 0,0 1 0,1 0 1,-1-1-1,0 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,0-1 1,-3-2-1,1-1-51,0-1 0,0 0 1,1 0-1,0 0 0,0-1 0,1 1 0,0-1 1,0 1-1,-1-16 0,2 19-170,1-1-1,0 1 0,0 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,1 0-1,-1 1 0,1-1 1,0 1-1,5-5 1,17-11-2804,-1 3-1501</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4151.96">1004 48 2353,'0'0'7497,"-2"-7"-6481,0-1-641,2 6-232,0-1 0,-1 1 1,1-1-1,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,-1 0 0,-1-2 0,67 49 932,-54-35-1066,-1-1-1,0 1 0,0 1 1,-1-1-1,0 2 1,0-1-1,-2 1 1,1 0-1,-2 0 0,7 19 1,-6-8-22,-1 0 0,-1 0 1,-1 0-1,-1 1 0,-1 27 0,-6 58-968,-10-39-4990,6-46 507</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4942.51">102 26 3249,'0'0'5005,"-2"-1"-4404,1 1-591,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 2 0,-1 0 41,-11 19 82,1 0 1,1 1-1,1 0 1,1 1 0,1 0-1,1 1 1,1-1-1,1 1 1,1 0 0,1 0-1,1 0 1,4 42-1,-2-63-117,-1 1 0,1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,5 1 0,7 2-664,1-2 1,-1 0-1,1 0 0,26-2 1,-25-1-1506,-11 1-985</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">561 611 4418,'0'0'6523,"-3"2"-6470,0 1-11,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 6 0,-7 67 310,6-41-254,-26 540 957,25-304-997,-78 930 51,-9-636-28,-10 116 420,99-495-383,3-109-1245,24-103-5828,-1-23 1403</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2830.99">459 619 4274,'0'0'4117,"-8"0"-3421,321-16 1366,10-1-1659,733 36 507,-962-19-904,1144 13-148,-691-24-136,-2-35 600,12 0 266,271 35-124,-497 14-413,183-4 15,891 7 529,-1203 3 798,-202 27-1492,21 573 540,-70 324-148,5-678 424,-80 257 1,53-239-355,33-127-241,4-19-47,-25 191 0,48-225-26,6 1 1,3-1-1,4 1 0,27 171 0,-17-183 188,-12-82 137,-34 5-30,-11-5-339,-395-17 102,147-11-267,-288-42-371,-287-52-632,-1037 9-491,1608 96 1623,-534-15 80,34 42-49,741-8-14,-107 21-1,38-4-28,-725 23 1487,804-39-1432,0 1 1,-83 19 0,104-18-14,-60 8 237,-1-5 0,0-3 0,-115-7 0,198 1-237,-1 1-1,0 0 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,-4-3 0,8 4-15,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1-1 0,0 1 0,0 0-1,0 0 1,-1-1 0,1 1 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,-1 1 0,1 0-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,1-1 0,-1 1 0,0 0-1,0-1 1,20-13-1480,26-3-1592,13-7-1313</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4195.21">7386 48 5042,'0'0'7783,"16"-4"-2915,-21 2-4827,0 0-1,1 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 1 0,0 1 0,0-1 0,-6 2 0,-5-2-47,2 1-28,-1 0 1,1 1-1,0 0 0,0 1 0,0 1 0,0 0 0,-15 8 0,22-9 18,0 0 0,0 0 0,0 1 1,1 0-1,-1 0 0,1 1 0,0 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 0 0,1 0 1,-1 1-1,-2 7 0,5-11 1,1-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 3 0,1-3-100,-1-1-1,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,1 1 1,-1-1-1,0 0 0,0 1 1,1-1-1,-1 0 1,3 1-1,10 1-914,0 1-1,0-2 1,0 0 0,0-1-1,23-1 1,-28 0 402,44-1-2656,3-3-732</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4912.65">7522 137 1201,'0'0'8988,"-4"-13"-7862,-14-40-275,18 52-825,0 0 1,-1 1 0,1-1 0,0 0 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 0 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 0 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 1 0,1 0 0,-1-1-1,0 1 1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 1-1,-1-1 1,-19 15 11,19-14 2,-5 5-15,-1 2 0,1-1 0,0 1 0,0 0 0,1 0 0,0 1 1,1 0-1,0 0 0,0 0 0,1 1 0,0-1 0,1 1 0,0 0 0,0 0 0,1 0 1,-1 15-1,4-24-62,0 0 1,-1 0 0,1 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,0 0 0,1 1-1,-1-1 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,1-1 0,38-5-535,-37 5 535,0-1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,0-1 0,0-4 0,-8 41 485,6-28-385,0 0 1,0-1-1,0 1 0,0 0 0,1 0 0,-1-1 1,1 9-1,1-11-84,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,-1 0-1,1-1 1,0 1-1,0 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,1 0-1,-1 0 0,0 0 1,0 0-1,2 0 1,2 0 3,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,-1 0 0,1 0 0,0 0 0,5-5 0,-1 1 202,-1-2-1,1 1 1,-2-1-1,1 0 1,-1-1-1,7-12 1,-13 21 812,-1 30-1353,-1-13 485,0-11-78,1 1 0,-1-1 0,1 1 0,0-1 0,1 0 0,-1 1 0,1-1 1,0 0-1,0 1 0,1-1 0,3 8 0,-5-13-67,1 1 1,-1-1 0,1 1-1,0-1 1,-1 0-1,1 1 1,-1-1 0,1 1-1,0-1 1,-1 0 0,1 0-1,0 1 1,0-1-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,-1-1 1,1 1-1,0 0 1,-1 0 0,1-1-1,0 1 1,-1 0-1,1-1 1,-1 1 0,1-1-1,0 1 1,-1-1-1,1 1 1,-1-1 0,1 0-1,21-27 588,-17 21-592,-3 6 7,0-3 84,1 1 0,-1-1 0,1 1 0,0 0 1,0 0-1,1 1 0,6-5 0,-9 6-68,0 1 0,0 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1-1,-1 0 1,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,1 2 0,0 1-72,1-2 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 0,6 1 0,24 2-7322,-17-5 3233</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5153.51">7920 166 1393,'0'0'11306,"1"-6"-10599,3-12-688,2 20-39,8 36 77,-2-3 322,-11-31-347,1-1 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,0 0 0,1 0 0,4 4-1,-5-6-3,-1-1 1,0 1-1,1 0 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 1,-1-1-1,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1-1 0,7-6 54,-1 0 1,0-1-1,-1 0 0,0 0 1,0 0-1,-1-1 0,8-17 1,-12 24-951</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5773.05">8182 75 6227,'0'0'7128,"-16"2"-6405,-49 8-290,62-9-406,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 3 0,-2 6 28,2 0 1,-1 0 0,2 20 0,0-28-64,-1-1-39,1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,1-1-1,-1 1 1,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1-1,1-1 1,2 4 0,-3-6 9,0 1 0,1 0 0,-1 0 1,0-1-1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 1,1-1-1,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1-1 0,1-1 65,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,3-5 0,-4 6 93,1-1 0,-1 1 0,1 0 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 1 0,6-5 0,-7 7-102,-1-1-1,1 1 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 0-1,0 0 1,-1 1 0,1-1 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1 0,-1-1-1,1 1 1,-1-1 0,0 1 0,1-1 0,0 1-1,17 22 219,-5-6-43,-10-16-178,0 1-1,0 0 1,0-1-1,0 1 1,1-1-1,-1 0 1,1 0 0,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1-1 1,0 1-1,-1-1 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1-1 1,0 1-1,0-1 1,0 0-1,5-3 1,3-2 28,0-1 1,-1-1-1,0 0 1,0 0-1,14-19 1,-20 21 90,0 0 0,0 0 0,-1 0 0,0-1 1,-1 1-1,1-1 0,-2 0 0,1 0 0,-1 1 0,0-1 1,-1 0-1,1 0 0,-2 0 0,-1-13 0,2-8 63,-1 41-406,0-8 197,0 0 0,1 1 0,0-1 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,1-1 0,0 0 0,1 0 0,1 5 0,32 41-653,-27-41 562,0 1 1,-1 0-1,0 1 1,-1-1-1,7 17 1,-13-26 82,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0-1 0,-1 1 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,0 0 0,1-1 0,-1 1-1,0 0 1,0-1 0,-1 2 0,-27 15-161,22-14 93,-89 40-3687,43-21-1020</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8646.76">1759 1585 3185,'0'0'6710,"0"-6"-5504,-2-15 677,-2 52-13,-3 18-1701,-6 49 118,5 1-1,6 158 1,2-23-147,-2-187-100,0 41 78,-3-1 1,-31 153-1,-37 137 740,55-273-630,17-98-200,-6 66 1326,233-88-1257,-2 1-93,-134 15-20,154 21 0,-183-11 31,73 12 32,233 10 1,811-32 13,-745-27-53,-122 4-19,1178 37 1930,-425 125-1127,-1075-137-4024,-23-2 568,-9 0-3381</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10179.71">2240 3274 5234,'0'0'8514,"1"-13"-7991,62-400 1712,-29 44-2227,-34 320 1105,0 49-1167,18 16-567,-11-11 620,0 0 0,0-1 0,0 0 0,1 0 0,0 0 1,0-1-1,-1 0 0,2-1 0,-1 0 0,0 0 0,12 1 0,12-1-240,54-2 0,-38-1 144,-47 2 80,0 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,-1-1-1,1 0 1,0 0 0,-1 0-1,1 1 1,-1-1 0,0 0-1,1 1 1,-1-1 0,0 0-1,0 1 1,0-1 0,1 0 0,-2 2-1,5 44-82,-3-43 142,16 484 1250,-5-271-1055,-12-217-272,0 0-1,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1-1 0,0 1-1,0 0 1,0 0 0,0 0 0,10-11-5959,-2-11-1175</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10684.8">3454 1852 3362,'0'0'9959,"-3"-12"-9391,-2-3-488,-3-8 0,3 69 43,-11 240 1752,-4 169-933,18-353-590,-4 0-1,-4-1 1,-30 129-1,37-215-271,1 1 1,-1 29-1,3-13-2503,0-22 843</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11243.16">3302 2118 7523,'0'0'5291,"24"-14"-5150,-2 1-90,3-2-25,0 2 1,1 0-1,1 1 0,34-9 0,28-4-13,-46 14 21,0-1 0,-1-3 0,72-34 0,-114 50 69,1-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 1 0,0 32-765,0-24 957,1 228 586,-3 289-409,-38-3-182,35-487-59,1-4 204,-12 51 1,25-115-4587,7-3-729</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11601.97">4435 2644 8180,'0'0'7376,"-4"21"-6791,-53 409 2253,51-374-2549,-1 12-3123,9-72-1160,8-13-2411</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11994.05">4382 2691 8468,'0'0'5893,"14"-12"-5610,-3 2-261,-4 3-13,1 0 1,0 0 0,1 1 0,-1 0 0,1 0 0,0 1 0,1 0 0,-1 1 0,1 0 0,14-4 0,189-57 102,-146 42 237,-66 23-299,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 1,-1 0-1,1-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,6 50 142,-5-41 83,15 341 1986,-8-112-1939,-7-166-395,-1-47-2850</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13871.56">5383 3215 7860,'0'0'9772,"0"-13"-9889,4 64-1122,4-30-3336,-4-8 9765,-7-28 1387,3 0-9262,37-205 3209,-5 37-523,-6-63-51,-7-308-1,-2 170-579,22 383-18,35-9 66,-1-3-1,128-40 1,-186 47 398,-8 5 645,-6 14-204,-1-7-324,-8 710 597,-18-372-477,16-249 12,-1 323 448,13-271-90,-2-39 356,15-122-5517,-6-9-1707</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15529.19">7817 2814 2497,'0'0'12430,"16"-2"-12326,72-6 279,135 6 0,106 22-161,94 3-148,-344-23-154,20-1-58,-34 2-7034</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15750.02">9102 2723 1905,'0'0'9652,"-25"98"-8963,17-62-129,4-1-368,0-2 80,4-5-16,0-3-160,0-3-64,0-6-32,0-2-464,0-2-1889,8-8-1537</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16667.65">8921 2745 1281,'0'0'7694,"-7"-6"-6283,-3-4-796,-11-13 612,6 11 3078,41 37-2587,-3-12-1708,1-1 0,1-1 0,0-1 1,0-2-1,1 0 0,0-2 0,0 0 0,0-2 0,28 0 0,-54-3-5,0-1 0,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0 0,1 0-1,-1 1 1,0-1-1,0 0 1,0 0-1,1 1 1,-1-1 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,1 0 1,-1 1 0,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 1 0,0-1-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 0 0,0 1-1,0-1 1,-1 0-1,-11 18 13,-20 26 120,-35 61 1,-17 25-59,58-92 1040,19-23-2877,16-21-9645,10-15 4866</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18267.89">9545 2752 1008,'0'0'14506,"-38"-9"-11700,32 10-2818,1-1 0,-1 2-1,0-1 1,1 1-1,-1 0 1,1 0-1,0 0 1,0 1 0,0-1-1,0 1 1,0 1-1,1-1 1,-1 1-1,1-1 1,0 1 0,0 1-1,0-1 1,0 0-1,-5 11 1,5-10-9,0 1 0,1 0-1,0 0 1,0 1 0,0-1 0,1 1 0,0-1 0,0 1-1,1 0 1,0 0 0,0-1 0,0 1 0,1 0 0,0 0-1,0 0 1,3 11 0,-2-15 7,0 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-2 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1-1 0,1 0 0,0 0 0,-1 0 0,6 0 0,2-1 54,0 1 1,0-2 0,-1 1-1,1-1 1,-1-1-1,1 0 1,-1-1-1,19-9 1,-8 1-14,0-2 0,-1-1 0,0 0 0,-2-1 1,0-1-1,-1-1 0,0-1 0,20-29 0,-26 32-89,-2 0 0,0-1 0,0 0 0,-2-1-1,0 1 1,-1-1 0,-1-1 0,0 1 0,-2-1 0,0 0-1,0-29 1,-7 20-92,4 28 150,0-1-1,-1 1 0,1 0 0,0 0 0,0 0 0,0-1 1,-1 1-1,1 0 0,0 0 0,0 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 1 0,0-1 0,0 0 0,-1 1 0,-2 3-15,-1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,-3 10 0,-4 13 78,1 1 0,2 0 0,1 1 0,1 0 0,2 0 0,1 0 0,1 0-1,2 0 1,4 34 0,-4-60-42,0 1 1,0 0-1,0-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 1,1 0-1,-1 0 0,1 0 0,0-1 0,1 1 0,-1-1 0,0 0 1,1 1-1,0-1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,1-1-1,-1 1 0,1 0 0,-1-1 0,1 0 0,0 0 1,-1 0-1,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 1,0 0-1,8-2 0,-8 1 15,-1 0 1,1 0-1,-1 0 1,0 0-1,0-1 1,0 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,-1 1 1,0-1 0,0 0-1,0 0 1,0 0-1,3-7 1,4-10 66,-1 1 1,8-28-1,-11 31-67,-4 39-1440,-3-7 1497,2 1-1,-1-1 1,2 0 0,0 0-1,1 0 1,6 17 0,-8-31-86,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,2-1 0,1 1 54,1-2 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,5-6 0,1-4 38,-1 0 0,0 0 0,15-32 0,-29 67-99,1 1-1,0-1 1,2 1 0,1 28-1,0-49 4,0 0 0,1 0-1,-1-1 1,0 1 0,0 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,0 0 0,1-1-1,-1 1 1,1-1 0,0 1-1,-1 0 1,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1-1,1 0 1,0 1 0,0-1-1,-1 0 1,1 1 0,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,-1-1 1,1 1 0,0 0-1,0 0 1,-1-1 0,2 0-1,2 0 46,0 0-1,0 0 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,3-3 1,-1-2-10,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 0-1,0 0 1,-1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,-1 1 0,0-17 0,0 24-73,1 37-1040,0-29 1051,0 0 0,1 0 0,0-1 1,0 1-1,1-1 0,0 1 0,0-1 1,0 0-1,1 0 0,7 9 0,3 2-73,1-1-1,18 16 0,-33-32 107,1 0 0,-1 1-1,1-1 1,-1 0 0,0 0-1,1 1 1,-1-1 0,0 1 0,1-1-1,-1 0 1,0 1 0,0-1-1,1 0 1,-1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,1 1 0,-1-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,0-1-1,0 1 1,0-1 0,-1 1-1,1-1 1,0 0 0,0 1-1,-1-1 1,1 0 0,0 1 0,0-1-1,-1 1 1,1-1 0,-1 0-1,1 0 1,0 1 0,-1-1-1,1 0 1,-1 0 0,1 1-1,0-1 1,-1 0 0,0 0 0,-39 13 191,36-13-269,0 1 0,0 0 0,-1 0-1,1 1 1,0-1 0,1 1 0,-7 3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18478.16">10596 2642 8020,'0'0'5506,"-4"82"-3873,-4-40-705,3 3-287,1-3-97,0-2-368,0-3-112,0-1-64,0-4 0,0-1-896,-4-1-1377,4-8-2674</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19089.62">10587 2938 5907,'0'0'8292,"18"-11"-8060,91-56 291,-106 66-449,0-1 0,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0-1 0,-1 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0-3 0,-1 5-68,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 1,0-1-1,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-2 1 1,-24 8 126,21-4-135,1-1 0,0 1 0,0 1 0,0-1 0,0 1 0,1-1 1,0 1-1,0 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,0 1 0,1-1 1,0 1-1,0-1 0,0 1 0,2 8 0,-2-14-6,0 0-1,1 0 1,-1 0 0,1 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 0-1,2 0 1,33 2-63,-29-2 100,2-1 30,0 1 1,-1-1-1,1-1 1,0 0-1,-1 0 1,1 0-1,-1-1 1,10-5-1,-13 6-24,0-1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,0-1-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1-1 1,0 1-1,0-1 0,4-9 1,-4 7 13,-1 2-46,-1-1 1,2 1-1,-1-1 1,0 1-1,1 0 1,0-1-1,1 1 1,-1 1-1,1-1 1,0 1-1,7-8 1,-10 12-140,7 29-916,-3 5 876,-5-26 210,1 0 0,0 0 1,0 0-1,1 0 0,0-1 1,1 1-1,0 0 0,0-1 1,0 0-1,1 0 0,0 0 1,5 7-1,-7-13-14,0 1 1,0-1 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1-1-1,-1 1 1,0 0 0,1-1-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0-1-1,1 0 1,3-1-1,49-20 761,-54 21-780,13-5-55,37-22 411,-47 26-474,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 0 0,1 1 0,-1-1-1,0 0 1,1 0 0,-1 0-1,1-4 1,-2 6-569,-1-1 351</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20458.88">9512 3419 7395,'0'0'9805,"-6"-12"-9458,-21-36-246,26 47-103,1 0 0,-1 1 0,1-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,0 0 1,1-1 0,-1 1 0,0 0 0,0 0 0,1-1 0,-1 1-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 2-1,-24 26-37,22-24 63,-5 8 6,-1 0-1,1 1 1,1 0 0,0 0 0,1 0 0,1 1 0,0 0 0,1 0 0,0 1-1,1-1 1,1 1 0,0 0 0,1 0 0,0 0 0,2 0 0,1 17 0,-1-29-28,-1 1 0,0 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,3 2 0,-1-2-6,0 1 0,0-2 1,0 1-1,1-1 0,-1 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,10-1 0,-3 0 16,0-1 0,0 0-1,1-1 1,-1-1 0,0 0-1,0-1 1,0 0 0,-1-1 0,21-9-1,-26 10 34,-1 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 1,1-1-1,-1 1 0,-1-1 0,1 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,0-7 0,-1 12 828,0 37-1157,0-34 287,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 1 0,0-1 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 0,0-1 1,-1 1-1,1 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,0 0-1,2 1 0,1 0 27,0-1 0,0 1 0,0-1 0,0 0 0,0-1-1,0 1 1,-1 0 0,6-2 0,-7 1-16,-1 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1-1 0,0 1 0,0 0 0,0 0 0,1 0 1,-1-1-1,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 1,0 0-1,-1-2 0,0 1-17,1-1 0,0 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-2 1 0,1-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1-1,0 1 1,1-1 0,-1 1 0,0 0 0,-2-1 0,0 0-51,0 1 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 1 0,-1 0 0,-7 2 0,10-2 20,0 0 1,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0 2 0,1-4-1,-1 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0 0,0 0-1,0 0 1,3 0-1,43-1-282,-42 0 313,4 0-4,-1-1-1,1 0 1,-1 0-1,0-1 1,0 0-1,0 0 1,0-1-1,0 0 1,-1 0 0,0-1-1,0 0 1,0 0-1,0-1 1,-1 0-1,11-12 1,-11 10 10,0 0 0,0 0-1,-1 0 1,0-1 0,0 1 0,-1-1 0,0 0 0,-1 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,0-16 0,-2-49-55,0 74-5,0 36-864,-1-30 922,-4 48 395,4 99 0,1-149-383,-1 0 0,2 1-1,-1-1 1,0 0 0,1 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0-1 1,1 1 0,-1 0-1,1-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,1 0-1,0-1 1,-1 1 0,1-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,4 0 1,2-1 26,0-1-1,-1 1 1,0-1 0,1-1-1,-1 0 1,0 0 0,-1 0-1,1-1 1,-1 0 0,0-1-1,0 0 1,0 0 0,9-11 0,-13 12 106,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 1,-1-1-1,0 1 0,0 0 0,0-1 0,-1-11 0,-16 81-596,16-59 451,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1 0,1 0-1,-1 0 1,1 1 0,1 4-1,-1-8 0,0 1-1,0-1 0,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 0,0-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 1 0,1-1 0,0 1 1,-1-1-1,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,3-1 0,2 1 29,-1-1 1,0-1-1,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,-1-1 0,0 0 0,1-1 1,-1 1-1,0-1 0,-1 0 0,1 0 0,0 0 1,4-9-1,-2 6 5,-2 0-1,1 0 1,-1-1 0,0 1 0,-1-1 0,0 0-1,0 0 1,-1-1 0,0 1 0,0 0-1,0-11 1,-2 13 120,-1-9-1143,1 15 838,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 0-1,-1 0 1,1-1 0,0 1-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0-1,1 1 1,0-1 0,-1 0-1,1 0 1,0 0-1,-1 0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21019.87">10382 3464 9508,'0'0'3562,"0"14"-2239,0 135 1094,12-151-2710,44-92-716,-50 84 968,-5 8 32,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,3-2-1,1 34-551,-5 65 1641,0-95-1062,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 0 1,0 1-1,1-1 0,-1 1 0,0-1 1,0 1-1,0-1 0,1 0 0,-1 1 1,0-1-1,0 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,1 0 0,-1 0 0,1 1 1,-1-1-1,0 0 0,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 1-1,0-1 0,1-1 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,1-1 0,-1 1 0,23-17 333,1-11-113,-19 22-231,0-1-1,1 1 1,0 0 0,0 0 0,0 1-1,9-7 1,-14 13-31,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1-1,-1 2 1,7 32 79,-4-26-17,0 5-33,-2-7 5,1 0 0,0 0 1,1 1-1,-1-1 1,1 0-1,6 11 1,-7-16-58,0 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 0 0,0 0 0,3-2 0,18-12-2256,-1-3-2327</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21423.39">10826 3487 11381,'0'0'5760,"0"12"-5312,0 128 1444,0-140-1886,0 1-1,0-1 1,0 0-1,1 0 1,-1 1 0,0-1-1,0 0 1,1 0 0,-1 0-1,0 1 1,1-1-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 1 0,0-1-1,1 0 1,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1-1 1,0 1 0,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0 0,0-1-1,0 1 1,1 0 0,-1 0-1,0-1 1,0 1-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0 0,1-1-1,13-11 111,21-33 176,-25 31-306,0 1 1,1 0-1,16-16 1,-26 29 4,0 0 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 1 1,0-1-1,1 0 1,-1 1-1,1-1 0,-1 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 0,0 1 1,1 0-1,-1-1 1,0 1-1,0-1 0,0 1 1,0 0-1,7 27 65,-6-25-18,3 17 351,2-1 1,0 1-1,1-1 1,18 34 0,-23-50-358,1 1 0,-1-1 1,1 0-1,-1 1 1,1-1-1,0 0 0,0-1 1,0 1-1,1 0 1,-1-1-1,1 0 1,-1 0-1,7 3 0,-7-5-60,0 1 0,0 0 0,1-1-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0-1-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 0 0,0-1 0,0 1-1,-1-1 1,1 1 0,5-5-1,-1 1-656,-1-1 0,1 1-1,-1-1 1,0 0 0,-1-1-1,1 0 1,7-13 0,8-21-8373</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26962.09">7345 3273 3954,'0'0'11680,"-3"-3"-10637,-5-5-456,-2-1 1521,6 32-863,4-17-1267,1 1 0,0-1 1,0 1-1,1-1 0,-1 0 0,1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,5 6 0,48 58-462,-16-24 260,-29-34 89,-4-3 1119,-26 4-672,-38 17-315,-79 58 0,-1-1 174,136-85-224,1-1-350</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28324.24">1768 1509 2401,'0'0'4453,"-19"12"-3936,3-2-399,-32 20 812,-56 45-1,54-26 637,49-49-883,3-5-543,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 1 0,5-6 0,-1 0 50,62-92 2115,-69 101-2290,0 0 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1 0,-1 0-1,1-1 1,1 2 0,27 20 91,-27-20-59,17 16-448,54 42 1362,-66-55-2003,0-1 0,0 0 0,1 0 1,-1-1-1,11 4 0,-9-5-6983</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29910.29">5199 3909 6099,'0'0'7539,"0"-4"-6946,1 1-517,0 0 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1-1,1 1 1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0-1,0 1 1,1-1 0,-1 0 0,0 0 0,1 1 0,-1 0 0,1-1-1,0 1 1,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 1-1,1 0 1,0-1 0,5 2 0,-2-2-77,-3 1-7,1-1 1,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 1-1,-1-1 1,4 2 0,-6-1 3,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 0-1,0 1 1,-1-1 0,1 1 0,-1-1-1,0 0 1,1 1 0,-1-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,-1 3 0,0 3 16,-1 1 0,0-1 1,-1 0-1,1 0 0,-1-1 0,-1 1 0,1-1 1,-1 1-1,-1-1 0,1 0 0,-1 0 1,0-1-1,0 0 0,-11 9 0,68-81-1417,12-15 864,-62 78 563,-2 3 219,-17 159 90,17-156-324,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,2 0 0,53 1-1581,-40-1-881,4 0-2525</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30587.61">5551 4000 6627,'0'0'10568,"-4"-1"-9648,-1 0 757,13 0-744,31-1-542,42-4-535,-63 3 89,-10 3-44,0-1 0,-1 0 0,1-1 1,0 0-1,0 0 0,13-6 0,-21 7-120,0-1 233,0-1-1,-1 1 1,1 0-1,-1 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,-3-1 0,-5-3 652,9 5-407,27 17-1482,-15-9 1057,-8-7 117,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0-1 0,0 1 0,1 5 0,-5-4 102,-1-1-1,0 1 0,-1-1 0,1 0 0,-1-1 1,0 1-1,-7 4 0,-7 2-6834</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31942.08">6049 3872 5843,'0'0'10202,"0"-17"-8703,-1 45-1406,-1-1 1,-2 1-1,0-1 0,-12 40 0,-10 4-2835,29-86-5762,-4 0 7328,1 13 1698,0 0 0,-1 0 1,1-1-1,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,1 0 0,0 0 0,0 0 0,1-4 1,15-9-1130,56-21 995,4-3-355,-71 36 3,0-1 1,-1-1-1,0 1 0,0-1 1,0 0-1,-1 0 1,0 0-1,1 0 1,-2-1-1,6-10 1,-8 16-24,9-21 3235,-10 33-599,-2 8-3181,-10 51 1101,2-14-1547,8-19-3186,2-23-1601</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32301.11">6364 3969 1361,'0'0'16092,"-6"1"-15534,2-1-539,1 1 1,-1 0 0,1 0-1,0 0 1,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0 0-1,0 1 1,0-1-1,1 0 1,-1 1-1,1-1 1,0 1-1,-1 0 1,1 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,1 1 1,0-1-1,-1 1 1,1 0 0,1-1-1,-1 1 1,2 6-1,-2-9-19,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0-1,0-1 1,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0-1,0 0 1,2 0 0,28 0 2,-27-1-1,0 0 35,0 0 0,0 0-1,0 0 1,-1-1 0,1 0-1,-1 1 1,1-1 0,-1-1-1,0 1 1,0 0 0,0-1 0,0 1-1,0-1 1,0 0 0,-1 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,-1-1 0,1 1-1,0-1 1,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,-1 0-1,0 0 1,1 0 0,-2 0-1,1 0 1,0 0 0,-1 0-1,1 1 1,-3-7 0,2 8-26,0 1 1,0-1 0,0 0-1,-1 1 1,1-1-1,-1 1 1,1-1 0,-1 1-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 1-1,-2-1 1,2 1-202,0-1 1,0 0 0,0 0-1,1 1 1,-1-1 0,0 1-1,0 0 1,1-1-1,-1 1 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,1 0 1,-1-1 0,0 1-1,1 0 1,0 0 0,-1 2-1,1 10-5521,0-4-3017</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32441.02">6364 3969 6547</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32606.1">6364 3969 6547,'92'18'2561,"-81"-17"4333,-11-2-7960,12-3-13278</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33150.34">6491 3970 864,'0'0'14764,"5"-9"-10655,-4 9-4111,1-1-1,0 1 0,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,-1 1 1,1 0-1,-1-1 1,0 4-1,3 4 15,0 1 1,-1 0-1,0 0 0,-1 0 0,0 0 1,-1 0-1,0 0 0,-1 0 0,-3 19 1,3-27-1,0 0 1,-1 1 0,1-1 0,-1 0 0,0-1-1,1 1 1,-1 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 0 0,-1 1-1,1-1 1,0 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1-1 0,1 1-1,-5-1 1,6-27 198,1 21-232,1 0 1,-1-1-1,1 1 1,0 0-1,0 0 1,1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 1 1,1-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,0 0 1,0 1-1,1-1 1,0 1-1,0 0 1,0 1-1,1-1 1,-1 1-1,8-3 1,-5 3-1057,-1 0 1,1 1-1,0 0 1,0 0-1,0 1 1,0 0-1,12 0 0,-11 1-3706</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33310.89">6713 4016 6067,'0'0'10244,"-12"59"-9939,8-45-273,-4 2-32,8-4-289,-8 0-1839,3-5-3251</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33476.1">6762 3915 8580,'0'0'4578</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34102.82">6795 4020 480,'0'0'16378,"7"-2"-16009,2 1-350,-5 0-12,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,8 1 0,-11 0-9,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 1,0 0-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1 0 0,-1 5 5,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,0 1 0,0-2 0,-1 1 0,0 0 0,-7 6 0,6-5 337,-1 1 1,1-1 0,0 2 0,-8 14-1,14-23-371,0 1-1,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,21 3-1395,23-7-1253,-40 2 2506,-1 0 1,1 1 0,-1-1 0,0-1 0,1 1-1,-1-1 1,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1-1,0 1 1,1-1 0,3-6 0,4-15 1912,-7-2 3343,-29 69-4621,24-41-475,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1 0 0,1 1 1,24 1-600,-16-3 517,-8-1 94,1 1 1,0 0-1,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,0 0-1,1-1 0,-1 1 0,0-1 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1-4 0,0 2 100,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0-1,-1 1 1,1-1 0,-1 0 0,0 1 0,0-1 0,-1 0 0,-1-6 0,2 10-99,-1 0 1,0 1 0,0-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,-2 0-1,-27 7-1654,14 13-5707,11-12-475</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34469.81">7079 4091 8292,'0'0'7849,"0"9"-7182,-4 62 723,36-83-1281,42-44-544,-74 56 915,0 41 478,0-40-979,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,0 0 0,-1 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,3 0 0,29 1-4877,-22-2 2230,10 0-3135</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35251.62">7378 3935 4690,'0'0'12139,"4"5"-11320,-4 5-622,0 0 0,-1 0 0,0 0 0,-1 0 0,0 0 0,-5 17 0,3-13-1016,0 0 0,1 0 0,-1 25 0,4-39 741,0 1 0,0-1-1,0 0 1,0 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 1 0,1-1-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,-1-1 0,-17-4 1014,-15-12 3725,31 16-4570,2 1-57,0 0 0,0 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,15-10 121,34-5-1350,-40 13 1036,57-27-22,-80 39 616,13-8-422,-18 25 75,18-25-83,0-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 1 0,0-1-1,-1 0 1,1 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0 0,0 1-1,1-1 1,-1 0 0,1 2-1,4-2-15,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1-1,0-1 1,0 0-1,-1 0 1,8-2-1,4 1-38,-9 1 46,0-1 0,0-1 0,0 1-1,-1-1 1,1 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,8-11 0,-4 6 22,-1-1 1,-1-1-1,1 1 1,-2-1-1,1-1 0,-2 1 1,1-1-1,3-15 0,-4 8 105,-2 1-1,0-1 0,-2 0 0,0-31 1,0 49-127,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 1,-1-1-1,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-2 0 0,-1 1-19,0 0-1,0 0 1,0 1-1,0 0 1,1-1-1,-1 1 1,1 0-1,0 0 1,-3 5-1,-2 7 9,1 1-1,1 0 1,1 0-1,0 0 1,1 0-1,-1 18 0,2 102-46,3-80-128,6-7-806,5-28-735,-11-20 1415,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1 0,0-1-1,1 0 1,-1 1-1,0-1 1,0 0 0,1 0-1,0 0 1,3 0-3423</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37855.62">1288 1616 7507,'0'0'6798,"-3"9"-6299,2-6-507,-3 8 286,1-1 0,1 1-1,-3 19 1,4-29-251,1 1 0,0 0 0,0-1-1,-1 1 1,1-1 0,0 1-1,0 0 1,0-1 0,1 1-1,-1-1 1,0 1 0,1 0 0,-1-1-1,1 1 1,-1-1 0,1 1-1,-1-1 1,1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,-1-1-1,3 1 1,-1-1-6,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,0 0 0,0 0 1,0 0-1,3-4 1,-3 3 40,0-1 0,-1-1 1,1 1-1,-1 0 0,0 0 1,-1-1-1,1 1 0,-1-1 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 0 0,-1-8 1,0 108 1325,0 116-3639,0-210 2233,0 1-1,0-1 1,1 1 0,-1-1-1,0 1 1,0-1-1,0 1 1,0-1 0,-1 0-1,1 1 1,0-1-1,-1 1 1,1-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,-2-1-1,2 0 39,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0-3 0,1-33 154,-1 31-100,1-2-29,0 0 1,0 0 0,1 1-1,0-1 1,1 1-1,-1-1 1,2 1 0,-1 0-1,1 0 1,0 0 0,0 1-1,10-12 1,-9 12-188,1 0 0,0 0 0,0 1 0,0 0 1,10-7-1,-12 10-343,0-1-1,0 1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 1 0,7-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38718.4">996 2343 9444,'0'0'9429,"0"-11"-8834,2 59-476,11 55 1,-7-61-90,-6-42-29,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,2-1 0,0 0 5,-1-1-1,1 0 1,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,1-1-1,28-58 196,-28 58-181,14-40 222,-13 32-271,0 1 0,1 0 0,1-1 0,-1 1 0,2 1 1,10-16-1,-16 25-138,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,3 0-3058</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39465.29">1206 2424 4258,'0'0'7881,"7"-9"-7606,3 0-208,-7 6-39,0 0 0,1 0 0,-1 0-1,0-1 1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0-1,2-6 1,-3 9 5,-1 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,-1 0 1,1 0-1,-1-2 1,0 3-33,1-1 1,-1 1-1,1-1 0,-1 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1 0-1,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,-3 0-17,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,-4 5 0,4-1 9,-1 0 1,2 0-1,-1 0 0,1 1 1,0-1-1,1 1 1,0-1-1,0 1 1,0 0-1,1-1 1,0 1-1,3 14 0,-3-20 14,0-1 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,1-1 1,-1 0 0,0 0-1,0 1 1,0-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0-1-1,1 1 1,-1 0 0,0 0-1,2-1 1,0 0 20,1 0 1,0 0 0,-1 0-1,1-1 1,-1 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0 0-1,3-3 1,-2 0-5,0-1 0,0 0 0,-1 1-1,0-1 1,0 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,0-1-1,0 1 1,0-11 0,0 16-32,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,0 0 1,0 0-1,0-1 1,0 1 0,1 0-1,-1 0 1,0 0-1,3 1 1,34-1-208,-32 0 95,-4 4 135,-1 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,0 1-1,1 0 1,-2-1 0,0 9 0,1-5 242,0 1-84,2 20 66,-2-28-234,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,4-4 17,0 0 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0-14 0,-1 21-81,0 23-7841</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39950.6">1518 2175 6275,'0'0'6944,"-1"17"-5330,-17 58 429,14-61-1826,0 0 0,1 0 0,0 0-1,-1 28 1,3-22-139,2 19 41,-1-37-114,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,2-1 7,0 1-1,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 1,-1 0-1,1 0 0,-1-1 0,1 0 0,-1 1 0,0-2 0,0 1 1,0 0-1,-1-1 0,1 0 0,-1 1 0,0-2 0,0 1 0,0 0 1,0 0-1,-1-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,-1 0 0,0-7 0,0 11 112,0 27-283,0 8-22,0 13 130,0-16-8323</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40122.35">1533 2225 7764,'0'0'6290,"41"-21"-9667,-20 16-2562</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40388.67">1776 2198 3906,'0'0'14743,"-66"32"-14151,54-13-224,3 0-160,5-3-208,4-2 64,0-4-128,0 1-32,8-6-768,9 0-417,7-5-624,1 0-1632,0 0-1778</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40906.46">1789 2198 2769,'71'30'3746,"-89"-21"5545,14-6-9242,0 0 0,1 1 0,-1-1 0,1 1 1,0 0-1,-1 0 0,2 0 0,-1 0 0,0 1 0,1-1 0,0 1 0,0-1 0,0 1 0,1 0 1,-2 9-1,24-16-1602,-17 1 1305,0-1 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1 0,0 0-1,0 0 1,-1-1-1,1 1 1,-1 0-1,0-1 1,0 0-1,3-5 1,27-12 2626,-23 14-2347,-2-1-1,1 0 0,-1 0 1,0-1-1,-1 0 0,0 0 0,0 0 1,-1-1-1,0 0 0,4-15 1,-4 7 284,0 1 1,-2-1-1,0 0 1,-1-1 0,0-26-1,-23 95-489,14-20 150,1-1 0,2 1 0,0 0 0,2 0 0,2 0 0,3 41 1,5-48-953,0 3-5798,-8-21 1320</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5037,47 +5391,130 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:47:17.537"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T16:40:39.490"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 153 2865,'0'0'8674,"6"-3"-4795,24-7-3767,-27 9-118,0 1 0,0-1-1,1 1 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0-1,-1 0 1,0 0 0,3 2 0,-3 0-7,0-1 0,0 1 0,-1 0 0,1 0 1,-1 0-1,0 0 0,0 1 0,0-1 0,-1 0 0,0 0 0,1 1 0,-2-1 0,1 0 0,0 0 0,-1 0 1,-1 7-1,0-6-12,0 0-1,0 0 1,-1 0 0,1-1 0,-1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,0-1 0,0 1 0,0-1 0,0 1 0,-7 3-1,11-7-28,0 0 0,-1-1-1,1 1 1,0 0-1,0 0 1,-1-1 0,1 1-1,0 0 1,0 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,1 0 1,-1-1 0,0 1-1,0 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,1-1 1,7-19-807,10-4 418,0 1 0,2 0 0,1 2 0,23-20 1,-39 37 417,-11 6 3118,-36 24-3128,37-20 72,0-1 0,0 1 1,1 0-1,0 1 1,0-1-1,-6 13 0,9-16-39,-1 0 0,1 0-1,0 1 1,0-1-1,0 0 1,0 1 0,1-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,0 1 0,0-1-1,1 0 1,0 1-1,1 6 1,0-9 2,-1 1 1,0-1-1,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,0 1-1,4-1 0,46 1 204,-38-2-96,33 1-1226</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="574.72">532 150 5298,'0'0'4333,"-7"-5"-4098,4 3-222,0 0 1,0 0-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1 1 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,1-1-1,-5 5 1,3-1-8,0-1 0,1 1 0,-1 0 0,1 0 0,1 1 0,-4 10 0,5-16-13,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,0 1-1,-1-1 1,1 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,1-1-1,-1 1 1,0-1-1,0 1 1,2-1 0,4 1-27,1 0 0,-1-1 0,0 0 0,1 0 0,-1-1 1,0 0-1,1 0 0,-1-1 0,12-4 0,-16 5 71,0 0 0,-1 0 0,1-1 0,-1 1-1,1-1 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,-1 0 1,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1-4 1,-2-15 1375,-3 37-735,-2 37-656,7-50-39,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,4 3 0,-1-2-154,0-1-1,1 1 1,-1-1 0,0 0 0,1 0 0,-1-1 0,0 1-1,1-1 1,7 0 0,-4 0-325,-1 0-1,1 0 1,-1 0 0,1-1 0,-1 0 0,1-1-1,-1 0 1,0 0 0,0 0 0,8-4-1,12-11-2440</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="929.33">764 132 4306,'0'0'7443,"-43"8"-7235,30 13-127,-4 2-49,4-2 0,-1-2-32,4-1 0,4-2-321,-1-5-703,1 0-625,2-5-1568</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1304.33">612 180 4930,'0'0'6787,"33"-4"-6515,-13 13 161,-4 3-17,4 1-64,-3 0-256,-1 1-80,-6 1-32,0 0 0,0 0-624,0-2-1153,0-1-576,3-5-1377</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1305.33">884 223 6099,'0'0'6131,"-30"42"-6259,27-25 64,3 0-577,0-2-1088,0-3-480,0-7-2881</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1306.33">917 83 10773,'0'0'2513,"-30"36"-7779,27-6-385</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1674.6">1070 167 5891,'0'0'5061,"-13"-1"-4445,-39-2-365,51 3-251,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,0-1 0,0 1 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 2 0,8 28-95,23-6 222,-28-23-108,0-1 0,0 1 0,0 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-2 1-1,2 4 1,-3-6 58,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-4 3 0,-19 9-700,5-7-3608</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2018.39">1275 252 8724,'0'0'7796,"73"-14"-7428,-40 9-48,4-1-16,-1 0-192,1 1-64,-11 1-48,-3 0-32,-9 4-656,-11 0-849,-13 8-10324</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2360.08">1355 326 4802,'0'0'10421,"36"-8"-10261,-9-1-16,-1 1-96,1 1-48,-7-1-80,-7 0-368,0 3-625,-6-1-1168,-1-1-1376</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2699.1">1431 109 9444,'0'0'4957,"6"0"-4978,5 1 26,-1 0 0,1 1-1,-1 0 1,0 0 0,1 1 0,-1 0 0,0 1 0,-1 0 0,1 1-1,11 6 1,-17-8 14,0 0 1,1 0-1,-1 0 0,0 0 0,0 1 1,0-1-1,-1 1 0,1 0 0,-1 0 1,0 0-1,0 1 0,-1-1 0,1 1 0,-1-1 1,0 1-1,0 0 0,0 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 1 1,-1 7-1,-1-9 45,0 0 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,-1 0 1,0 0-1,0 1 1,0-1-1,-1-1 0,-4 6 1,-41 34 126,16-14-374,-14 20-3659,29-30-646</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3058.07">2019 58 5394,'0'0'7073,"0"0"-6563,0 364-1,6-395-6821,-3 5-558</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3429.58">2042 235 5987,'0'0'8884,"0"-1"-8877,-1 1 0,1-1-1,0 1 1,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,1 0 0,5-2-30,1 0 1,-1 0-1,1 0 1,-1 1-1,1 0 1,0 0-1,0 1 0,13-1 1,5-3-485,1-1-259,-17 5-114,1-1 0,-1-1 0,1 0 0,12-5 0,-21 7 606,1 0-1,0 0 1,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,0-4 1,0 5 321,-3-47 4116,2 45-3461,1 1 0,-1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0 0-1,0 0 1,-3-3 0,4 44-566,1 35 252,-1 57 344,-11-46-3800,5-58-1358,5-6-3087</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3803.87">2430 218 9092,'0'0'5480,"-12"-8"-5453,10 9-15,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 1 1,1-1 0,-1 0-1,1 1 1,-1-1 0,1 1-1,0 0 1,0 0 0,0-1-1,-1 4 1,-17 29 257,18-30-279,0-1 0,-1 0 0,1 1 1,1-1-1,-1 1 0,0 0 0,1-1 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,2 7 0,-1-8-50,0-1-1,1 1 0,-1 0 1,0-1-1,1 0 0,-1 1 1,1-1-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,2-1 0,-1 0 78,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0-1,0 1 1,0-5 0,0 4 4,0 0-1,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,-1 1 1,1-1-1,-1 0 0,0 0 1,1 1-1,-2-1 1,1 1-1,0-1 0,0 1 1,-1-1-1,1 1 1,-1 0-1,0 0 1,0-1-1,1 1 0,-1 1 1,-1-1-1,1 0 1,0 0-1,0 1 0,-1-1 1,1 1-1,-1 0 1,1 0-1,-6-2 0,6 3-249,-1-1 0,0 1-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 1-1,0-1 1,0 1 0,0 0-1,1 0 1,-1 0-1,0 0 1,1 0 0,-1 0-1,1 1 1,0-1-1,-1 1 1,1 0 0,0 0-1,0-1 1,0 1-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 1 0,1-1-1,-1 1 1,1-1-1,0 1 1,-1 3 0,-2 11-5532</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4787.89">2549 248 5314,'0'0'8994,"39"5"-8778,-36-2-222,-2-1-1,1 1 1,0 0 0,0 0-1,-1 0 1,0 0 0,1 0-1,-1 1 1,-1-1-1,1 0 1,0 0 0,-1 1-1,1-1 1,-1 0 0,0 1-1,0-1 1,-1 5 0,1-2 44,-1 0-1,1-1 1,-1 1 0,-1 0 0,1 0 0,-1-1 0,0 1-1,0 0 1,-3 4 0,2-6-707,3-7 158,6-15-189,15-24-523,-15 30 1045,2 1-1,-1 0 0,1 1 0,1-1 1,0 2-1,13-12 0,-19 67 3469,2 7-2271,-1-29-1910,-3 0-4840</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5143.79">2735 121 4946,'0'0'5315,"7"0"-8965,-4 11 1153</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5487.12">2841 239 6931,'0'0'6867,"3"-1"-6768,80-6-8,-82 8-104,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 1,-1 0-1,1-1 0,-1 2 0,-6 25 169,-2-11-48,-1 0 0,0-1 0,-20 22 1,4-4 207,26-33-306,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,27-1-517,28-8-3416,-31 3 508,-1 0-2059</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5861.05">3097 307 6195,'0'0'11096,"-13"33"-10960,13-32-158,0-1 1,-1 1-1,1-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,1-1-1,-1 1 1,0-1-1,0 0 1,0 1-1,1-1 1,-1 1-1,0-1 1,1 0 0,-1 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,18-1-277,-16 0 270,1-1 1,0 1-1,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,4-2 0,-6 4 28,1 0-1,-1-1 1,0 1-1,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,-1-1-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 1 0,0-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,-1 0 0,1 0 1,0-1-1,-1 1 1,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 0,1 1 1,-1-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1 0 1,-3 0-1,2 0-148,0 0-1,0 0 1,0 1 0,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 1 1,1-1 0,-1 1-1,-2 3 1,-20 26-6000,12-11-377</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6432.49">3216 307 2817,'0'0'7681,"1"0"-7659,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0 1-1,-13 89 1081,46-115-1123,-12-2-104,-18 22 46,0 0 1,1 1 0,-1-1-1,1 1 1,0 0-1,0 0 1,9-7 0,-12 11 141,-1 0-1,1 0 1,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1-1,-1 0 1,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1-1,-1-1 1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 2 0,11 23-70,-6-13 191,-4-10-184,0-1-1,0 0 1,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1-1-1,1 1 1,0 0 0,0-1-1,-1 1 1,1-1 0,0 0-1,0 0 1,-1 1 0,1-1-1,0 0 1,0 0 0,0-1-1,-1 1 1,1 0-1,0-1 1,0 1 0,-1-1-1,1 1 1,2-2 0,4-1-39,0 0 0,-1 0 0,1-1 0,12-7 0,-11 4-47,0 0 0,0 0 0,0-1 0,-1 0 0,0-1 0,0 0 0,-1 0 1,-1 0-1,1-1 0,-2 0 0,1 0 0,-1-1 0,3-11 0,-5 13 400,0-1 0,-1-1 0,0 1-1,-1 0 1,0-14 0,-1 24-279,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 1,0 0-1,-1 1 0,1-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 1,0 1-1,-1 0 0,-4 11-17,1 0 1,1 1 0,0-1-1,0 1 1,2 0-1,-1 0 1,1 0-1,3 25 1,-2-18-2077,0 0-1,-6 33 1,3-39-2374</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7242.03">3505 238 5090,'0'0'3749,"7"-1"-3819,24-2-712,0 1-1,49 4 0,-7 1 3558,-76-3-2720,-1 1-1,1-1 1,0 1-1,-1 0 1,1 1-1,0-1 1,0 0 0,-4 3-1,3-2-26,0 0-1,0 0 1,1 0 0,-1 1-1,1-1 1,-1 1-1,1 0 1,0 0 0,0 0-1,0 0 1,1 0-1,-1 1 1,1-1 0,0 1-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,0 0-1,-1 7 1,4-11-133,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0-1,-1-1 1,-1 1 0,1-1-1,0 0 1,3-1-1,13-24-130,-18 26 304,0-1 0,0 0 1,1 1-1,-1-1 0,0 0 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 1 1,0-1-1,1 0 0,-1 1 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1 0 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,0 0 1,-1 0-1,1 0 0,0-1 1,0 3-67,-1-1-1,1 1 1,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,1-1 0,-1-1 0,0 1 0,0 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1-1,1 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1-1 1,4 0 0,2 0 39,0-1 0,0 1 0,-1-1 0,1-1 0,0 0 0,7-4 0,-5 2-10,-2 0-1,1-1 1,-1 0 0,0 0 0,0-1-1,0 0 1,-1 0 0,0-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,-1-1-1,-1 0 1,4-9 0,-2-5 361,0 0 0,-1 0 0,-1 0 0,-1-47 0,-10 97-649,2 42 230,2-36-25,2 0 0,0 0 0,5 36 1,-2-65-69,0 1 0,0-1-1,0 0 1,1 1 0,0-1 0,0 0 0,2 4 0,-3-6-132,0 0-1,0-1 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0 0,1 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,0-1 1,0 1 0,2 0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8709.08">97 686 2401,'0'0'9247,"0"-17"-4005,-4 32-5257,1 0-1,0-1 1,2 1 0,-1 19-1,2-33 5,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 0,-1 1 0,1-1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,32 7-435,-27-8 313,-1 0 0,1-1 0,0 1 0,-1-1 0,1-1 0,-1 1 0,1-1 0,7-4 0,-9 4 21,-1-1-1,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,-1-1 1,0 0-1,0 0 0,0-1 0,0 1 1,-1-1-1,0 1 0,0-1 0,0 0 1,2-9-1,1-29 1656,-18 90-1466,4 16-88,4 1 0,3 86 0,0 5-596,-9-109 468,11-45 146,0 1 0,-1-1 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1 0 1,0 0-1,0 0 1,1-1-1,-1 1 0,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,-2-1 0,1-1 6,0 0-1,0 0 1,0 0-1,0-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0-5 1,-6-44-10,6 38-131,1 1 0,0-1 0,1 0 0,0 1 0,1-1 0,1 1 0,4-17 0,-4 25-130,-1-1-1,0 1 1,1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,4-4-1,-3 5-566,1 0-1,-1-1 1,1 2 0,0-1-1,0 1 1,0 0-1,12-5 1,5 1-3396</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9193.98">562 760 4594,'0'0'3829,"-1"-1"-3730,0-1 1,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-2-1 0,-2 3-69,1 0 1,0 0 0,0 0-1,-1 1 1,1 0 0,0 0-1,0 0 1,0 0 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1 0,0 1 0,0 0-1,1 0 1,0 1 0,-1-1-1,1 1 1,1-1 0,-1 1-1,1 0 1,0 0 0,0 0-1,0 0 1,1 1 0,0-1-1,0 0 1,-1 10 0,2-14-41,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,2 1 0,24-2-191,-22 0 144,1 0 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,4-3 0,-5 0 12,0 1 1,0 0-1,0-1 1,-1 1 0,0-1-1,0 0 1,0 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,-1-12-1,1 18 367,0 1-308,-1-1-1,0 1 0,0-1 0,1 1 1,-1 0-1,0-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,1 0 0,-1 2 0,-1 32 301,1-30-296,0-3-121,-1 1-1,1-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0-1,1-1 1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0-1,6-1 1,14 1-2288,-1-1-449</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9560.19">737 720 6707,'0'0'4034,"-66"80"-3906,56-56-128,3-3-64,1 0 64,3-4-272,-1-4-593,1-7-335</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9964.49">668 715 3426,'0'0'4652,"7"8"-4326,11 15-124,-9-10-125,0-1 0,1 0 0,0-1-1,0 1 1,2-2 0,-1 0-1,22 14 1,-31-23-65,-1 0 1,1-1-1,0 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 0 1,0-1-1,0 1 0,-1 0 0,1 0 1,-1-1-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 1 1,0-1-1,-1 0 0,1 0 0,0 0 1,0-3-1,3-5 118,-1 0 0,-1 0 0,1 0 0,-2 0 0,1-1 0,-1-12 1755,-1 55-1666,-1-24-206,1 0 0,0-1 0,1 1 0,0 0 1,0-1-1,0 1 0,5 11 0,-5-17-15,0 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 1,1 0-1,0 0-12,-1 0 1,0 0 0,0 0-1,1-1 1,-1 1-1,0-1 1,0 1-1,-1-1 1,1 0 0,0 0-1,0-1 1,-1 1-1,0 0 1,1-1 0,-1 0-1,0 1 1,0-1-1,0 0 1,-1 0-1,1 0 1,-1 0 0,2-6-1,1 0 104,-1-1 0,-1 0 0,0 0-1,0 0 1,-1 0 0,0-14 0,21 40-207,-17-11 133,-1-1 13,0 0-1,0 0 1,0 0-1,-1 1 1,1 0-1,-1 0 1,0 0-1,0 0 1,-1 0-1,0 0 1,1 1-1,-2-1 1,1 1 0,-1 0-1,0-1 1,1 11-1,-2-15-92,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 1,-1 0-1,-28 7-3716,0-5-2244</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10307.15">907 557 7347,'0'0'1169,"76"27"-5363</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10668.7">1381 667 272,'0'0'3511,"15"1"4540,4 0-5748,67 5-1730,-5 0-6410,-66-3 2294</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11025.55">1491 794 896,'0'0'8692,"17"0"-7523,2 0 416,1-8-785,4 1-560,-5 1-192,-2 0-48,-4-3-800,4 1-1409,-7 3-1249,0-5-3153</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11026.55">1514 585 6067,'0'0'7139,"11"2"-7200,11 0 204,-1 2 1,1 1 0,-1 1 0,0 0-1,0 2 1,-1 0 0,28 16 0,-46-23-125,-1 1 1,0-1 0,1 0 0,-1 1 0,0-1-1,0 1 1,0-1 0,1 1 0,-2 0 0,1 0-1,0-1 1,0 1 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,0-1 0,0 1 0,0-1-1,-1 1 1,1-1 0,-2 3 0,-7 7 129,0 0 0,-1 0 0,-20 16 0,22-20-157,-58 47-1043,23-20-3855,16-14-2471</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11577.65">2171 692 9060,'0'0'3074,"26"60"-2626,-16-35-96,-3-2-192,3-3-96,0-2-64,-3-3-192,3-6-865,-1-5-1296,1-4-416,4 0-1521</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11945.69">2350 688 4402,'0'0'7940,"-53"62"-7620,33-33-32,0 1-208,4-1-80,6-5-144,6-3-929,4-4-1120,0-9-1824</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12861.49">2463 796 5250,'0'0'6051,"6"-1"-5965,0 1-93,0-1 0,0-1 0,0 1 1,0-1-1,0 0 0,10-5 0,-14 6-38,0 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 0,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1 1 1,0-3-1,0 3 47,0 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 0,0 1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-2 1 1,-26 5-156,25-2 145,0 0 0,0 0 0,1 1-1,-1-1 1,1 1 0,0 0 0,0 0 0,0 0 0,1 0-1,0 0 1,0 1 0,0-1 0,1 1 0,0-1 0,0 1-1,0-1 1,1 1 0,0 0 0,0 0 0,1 6 0,-1-11 13,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,0-1 0,0 1 1,0-1-1,1 1 0,-1-1 1,0 0-1,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,-1 0 1,2 0-1,39-3 211,-32 0-253,1 0-1,-1-1 1,0 0-1,0 0 1,0-1-1,0-1 1,-1 1-1,0-2 1,0 1-1,-1-1 1,0-1-1,0 1 1,0-1-1,-1-1 1,7-9-1,-9-8 148,-5 25-94,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-2 0 1,2 0-33,0 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 0,-1 1 1,1-1-1,0 0 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 0,0 0 1,0 1-1,1-1 0,6 13-655,35 9 502,-34-19 320,0 0 0,0 1 0,-1 0 0,1 0 0,6 6-1,-13-8-13,1-1-1,-1 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,0 0-1,-1-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 1,0 0-1,0 0 1,-1 2-1,1-2-118,-1-1-1,1 0 0,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 1 0,0-1 1,1 0-1,-1 0 1,0 0-1,1 1 1,0-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,2 0-1,3-1-39,-1 0 0,1-1 0,-1 1 0,0-1-1,1 0 1,-1-1 0,0 1 0,0-1 0,0 0 0,0 0-1,-1 0 1,1-1 0,-1 0 0,0 1 0,0-2 0,0 1-1,-1 0 1,0-1 0,6-8 0,1-3-199,-1-1 0,0 0 1,-1 0-1,9-30 0,-6 1-474,-10 44 799,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0-1,-1 0 1,0 0 0,1 1 0,-1-1 0,0 0 0,-2-2-1,2 4-60,0 0 0,0 1-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1 0 0,0-1-1,1 1 1,-1 0-1,0-1 1,1 1 0,-1 0-1,1 0 1,0-1 0,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 1 1,-8 23-130,5-12 63,1 0 0,1 0 0,0 0 0,0 1 0,2-1 1,-1 0-1,5 19 0,-5-29-16,0 0 1,1-1 0,0 1-1,-1 0 1,1-1 0,0 1-1,0-1 1,1 1 0,-1-1-1,0 1 1,1-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1-1 0,0 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1-1 1,0 1 0,0-1 0,-1 1-1,1-1 1,0 0 0,0 0-1,-1 0 1,1-1 0,0 1-1,0-1 1,-1 1 0,1-1-1,-1 0 1,4-1 0,-2-1 107,0 1 1,0 0-1,-1-1 1,1 0 0,-1 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0-1 0,-1 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0-1-1,-1 1 1,0 0 0,0 0-1,0-1 1,0 1-1,-1-1 1,0 1 0,0-6 610,0 41-305,-2-13-346,0-7-66,1 1-1,0-1 1,1 0-1,0 1 1,3 21-1,-2-32-88,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,0 1 0,-1-1 1,1 0-1,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 0,0 0 1,0-1-1,21-6-4187,-14-1 713</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13215.14">2861 669 3490,'0'0'4722,"93"-23"-5571,-60 16-1744,-3 1-272</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13557.11">3064 593 6915,'0'0'6035,"6"-4"-8820,-2 4-945</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14298.07">3263 760 4786,'0'0'3783,"-8"11"-3713,-23 39-78,29-48 1,1 1 0,0-1-1,-1 1 1,1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,1 5 0,-1-6 16,0-1 1,1 1-1,-1-1 0,1 0 1,-1 0-1,1 1 0,0-1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,1 1 0,0 0 1,1 0 7,-1 0 1,1 0-1,0 0 1,0-1-1,-1 1 1,1-1-1,0 0 1,0 0-1,-1 0 1,1 0 0,0-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,0-1 1,5-2 0,32-39-182,7-6-406,-43 46 517,0 1-1,0 0 1,0-1-1,0 1 1,0 1-1,1-1 0,-1 0 1,0 1-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,4 1 1,-7 0 46,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 2 0,4 23 195,-4-25 170,-8-23 333,6 20-678,1 0 1,-1 1-1,0-1 1,1 1-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 1-1,1-1 1,0 1-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,0 1 1,-1 0-1,1 0 1,0-1-1,0 1 1,0 1-1,0-1 1,0 0-1,1 0 1,-4 3-1,2-1-25,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,1 0 1,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 7 0,23-16 54,-16-1-17,1-1-1,-1 0 0,0 0 0,11-15 1,-1 4 2577,-16 19-2605,-1 1 0,1-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,1-1 0,-1 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,3 1 0,-1-1 18,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,6-2 1,5-3 80,0-1 1,-1-1-1,15-9 1,-26 15-84,4-2-2,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 0-1,-1-1 1,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,-1-1 0,1 1 0,-2-11 0,-13 28 67,7 0-70,0-1 0,1 1 0,1 0 0,-1 0 0,1 1 0,1 0 1,0 0-1,0 0 0,-3 16 0,2-4-44,2 1-1,0-1 1,0 35 0,3-55-26,1 0 1,-1 1-1,0-1 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,1 1 0,-1 0-1,0 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,4 0 0,-1 1-171,1-1 1,-1 1 0,1-2 0,0 1 0,-1-1-1,1 1 1,-1-1 0,1-1 0,-1 1 0,1-1-1,-1 0 1,5-3 0,5-6-3141</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">113 40 6819,'0'0'6368,"-4"-4"-5789,-8-13-345,12 17-223,0-1 1,-1 1-1,1-1 1,0 1 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,0 0 1,0-1 0,1 1-1,-1 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,1 1-1,2-2 36,1 1-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 1 0,0-1 1,0 1-1,7 0 1,-6 1-33,-1-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 1-1,0 0 0,1 0 1,-1 0-1,0 0 1,-1 1-1,1-1 0,0 1 1,-1 0-1,1 0 1,-1 1-1,0-1 0,0 0 1,0 1-1,-1 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 1,-1 1-1,1-1 1,0 9-1,1-4 16,-1 0 1,-1 1-1,0-1 1,0 1-1,-1 0 1,0-1-1,-1 1 1,0-1-1,0 1 1,-1-1-1,-1 1 1,1-1-1,-8 16 1,-1-5-64,-1 0 0,0-1 0,-2 0 0,0-1 0,-1-1 0,-1 0 0,0-1 0,-1-1 0,-1-1 0,-24 15 0,41-28-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,-1-1-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0-1-1,-1 1 0,1-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,1 0-1,-1 0 0,0 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,0 0 1,0-1-1,0-1-101,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,0-1-1,-1 0 1,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,2-5 0,-1 7 132,0 1 0,0-1 0,0 0 0,-1 1 0,1-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,2-1 0,28 8 152,40 27 644,-54-24-708,2-2-1,-1 0 1,1-1-1,0-1 1,1 0-1,0-2 1,0 0-1,0-1 1,30 2-1,-43-6-112,34-4-1267,-20-9-2715,-15 1-2326</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T16:40:41.108"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">259 7 6515,'0'0'9583,"-6"-2"-8668,-3 1-510,0-1 0,1 1-1,-1 1 1,-17 0 0,22 1-366,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 1 0,1-1 0,-3 4 0,-11 17-21,1 1 0,1 0 0,2 0 1,0 1-1,2 1 0,0 0 0,-9 46 1,10-28 12,3 1-1,1 0 1,2 87 0,3-123-43,1-1-1,1 0 1,-1 0-1,1 0 1,0 0 0,1 0-1,0-1 1,0 1-1,1-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,2-1 0,-1 0-1,1 0 1,-1 0-1,2-1 1,8 7-1,-11-9-54,1 0-1,0 0 1,0-1-1,1 0 1,-1 1-1,0-2 1,1 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,-1-1 0,1 0 1,0 0-1,-1 0 1,1-1-1,0 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1-1 1,-1 1-1,0-1 1,0 0-1,7-6 1,1-1-125,0-1 1,-1 0-1,16-20 1,-25 28 176,0-1 0,0 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 1,0 1-1,0-1 0,0 1 0,0-1 0,-1 1 1,0-1-1,0-5 0,0 9 43,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0-1 0,-1 1 0,1 0 0,0 0 1,0 0-1,0 0 0,-2 0 0,-36 0 248,28 0-243,5 1-1,0-1 0,1 1 0,-1 0 0,1 1 0,0-1 1,-1 1-1,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 1 0,1-1 1,0 1-1,0 0 0,0 0 0,0 0 0,1 0 0,0 1 0,-4 6 0,2-3-271,1 0 0,0 0 0,0 0 0,1 0 0,-3 14-1,4-14-847,1-1 0,0 0-1,0 1 1,1-1 0,0 1-1,1 11 1,2-7-4910</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T16:40:42.353"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">238 146 5731,'0'0'5677,"-16"0"-3700,12-2 1870,5-1-3828,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1 0 0,5-3 0,44-31 77,-47 33-92,7-5 24,1 1-1,0-1 1,1 2 0,0 0 0,0 1-1,0 0 1,1 1 0,0 0 0,0 1 0,0 0-1,14 0 1,-26 4-19,-1-1 0,0 1 0,1-1-1,-1 1 1,1 0 0,-1-1 0,0 1 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 1 0,1-1 0,0 0-1,0 0 1,-1 1 0,1-1 0,-1 1 0,1-1-1,-1 0 1,0 1 0,0-1 0,1 1 0,-1-1 0,0 3-1,2 56 184,-2-50-118,-1 13-2,-2 0 1,0-1-1,-6 23 0,3-23-78,2 1 1,1-1-1,-1 25 1,4-46-15,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 0 0,0 1-1,1-1 1,-1 0-1,1 0 1,40 6-362,-36-5 313,24 0-262,-22-1 273,1 0 0,-1 0 0,1 1 0,0 0 0,-1 0 1,1 1-1,-1 0 0,0 1 0,11 4 0,-17-5 67,-1-1 1,0 1-1,1 0 0,-1 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,0 4 0,0 0 46,-1 0 0,0 0 0,0-1-1,0 1 1,0 0 0,-7 9 0,-4 0 47,0 0 1,-1-2 0,0 1 0,-1-2 0,-1 0 0,0-1-1,0 0 1,-34 15 0,-7-1-125,-86 24-1,110-39-669,-68 11 0,10-16-4116,54-10 483,3-13-2024</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T16:40:45.396"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">200 209 5346,'0'0'6892,"-3"-8"-5916,-18-38 1329,19 36 43,0 2-727,1 25-1692,1-16 111,0-1-43,0 2 14,0-2 122,-8 41 163,-3 3-170,2 1-1,2 0 1,1 1-1,2 73 0,4-113-124,0-1 0,1 1 0,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,0 0 0,0 1 0,0-1 0,1 0-1,0-1 1,0 1 0,0 0 0,0-1 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 0 0,1 0 0,0 0-1,0 0 1,0-1 0,0 0 0,9 3 0,-5-3-5,0 0 0,0 0-1,0 0 1,1-1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-2 0,0 1 0,1-1 0,-1 0-1,0-1 1,0 0 0,0 0 0,10-7 0,-9 5 15,43-28 40,-49 30-39,0 1 1,-1-1-1,1 0 0,-1 0 1,0-1-1,0 1 0,0-1 1,0 1-1,-1-1 0,5-8 0,-7 10-3,1 1-1,-1-1 1,1 1-1,-1-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 0 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,-1-2-1,-1-1-5,0 1 0,0 0 1,0 0-1,0 0 0,-1 0 0,0 1 0,1 0 0,-5-3 1,-10-3-41,0 1 0,-35-10 0,43 14 30,-107-25-89,-60-21-25,174 48 99,0 0 0,0 0-1,-1 0 1,2 0-1,-1-1 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,-1-1-1,1 1 1,0-1 0,0 1-1,1-1 1,-1 0-1,0 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,1 0 0,0-1-1,-1 1 1,1 0-1,1 0 1,-1-1-1,0 1 1,1 0 0,-1 0-1,3-6 1,1-2-69,1 0 0,-1 1 0,2-1 0,-1 1 0,2 1 0,-1-1 0,1 1 0,1 0 0,9-8 0,5-5-66,2 2-1,50-34 1,-64 48 142,0-1 0,1 2 0,0-1 0,1 2 0,-1-1 0,1 1 0,-1 1-1,1 0 1,0 1 0,15-1 0,-26 3 7,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 0,0 1 1,-1 0-1,1-1 1,0 1-1,-1 0 0,1 0 1,0 0-1,-1-1 1,1 1-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 2-1,1 39 16,-2-26 12,-1 10 53,-1-1 0,-1 1 1,-2-1-1,0 0 0,-20 47 1,16-47-398,2 0 0,0 0 0,1 1 0,2 0 0,-4 53 0,10-20-6483,6-35 1840</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T16:40:46.881"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7 137 4898,'0'0'9138,"-7"-13"-7536,8 8 2897,8 2-4473,0 0 0,0 0 0,1 1 0,-1 1 0,1 0 0,-1 0-1,1 1 1,18 1 0,-6 0-3,-16-1-26,0 0 0,0 0 0,0 1-1,0 0 1,-1 1 0,1-1 0,0 1-1,-1 0 1,1 0 0,-1 1 0,1-1 0,7 7-1,-10-6 3,0-1-1,0 1 1,0 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,0 0-1,1 0 1,-1-1-1,-1 1 1,1 0-1,-1 0 1,1 7-1,-1-8 4,1 8 1,-1-1 1,0 1-1,-1-1 1,0 1-1,0-1 1,-1 1-1,-1-1 1,0 0-1,0 0 1,-8 16-1,10-24-69,0-1 1,0 0-1,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 0 0,-1 1 1,2-1-1,0 3 0,4-1-3,-1 0 0,1-1 0,-1 1 0,1-1-1,0 0 1,0 0 0,10 1 0,-12-3 20,1 1 0,-1-1 0,0 1 0,0 0-1,0 0 1,0 1 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,-1 1 0,1-1 0,-1 1 0,0 0-1,0 0 1,5 5 0,-8-6 78,0-1 0,1 0 0,-1 1 1,0-1-1,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 1,0-1-1,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 1,-1-1-1,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 1,-2-1-1,-55 17 561,52-15-530,-24 3-21,1-2 0,-1 0 1,-31-3-1,60 0-112,1 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,1 0-1,-1-1 1,0 1 0,1-1 0,0 1 0,-1-1-1,1 1 1,-1-1 0,1 1 0,0-1-1,-1 1 1,1-1 0,0 0 0,-1 1 0,1-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0-1-1,5-25-4625,17 6 1143,6-2-582</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="188.57">393 287 4066,'0'0'12037,"4"5"-13109,12 0 175,5-1-1792,3-4-240,5 0-1169</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="554.72">692 183 1249,'0'0'10690,"-9"1"-9364,6-1-1249,0-1 0,0 1 1,0 1-1,0-1 0,1 0 0,-1 1 1,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,1 1 1,-1-1-1,1 0 0,-1 1 0,1 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,1 0-1,-1 1 0,1-1 1,-1 1-1,1-1 0,0 1 0,0 0 1,1 0-1,-1-1 0,0 6 1,-1-3-13,2-1 1,-1 1 0,0 0 0,1-1 0,0 1 0,0 0-1,1 0 1,-1-1 0,1 1 0,2 9 0,-2-12-49,1 1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,0-1 0,-1 0 0,1 1-1,4 0 1,12 4 121,1-1-1,36 5 0,22 5 54,-77-13-108,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,0 5 0,-3-1-44,1-1 0,-1 0 0,-1 1 0,1-1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0-1 0,-10 5 0,11-6-401,1 1-1,-1-1 0,-1-1 1,1 1-1,0-1 1,0 0-1,-1 0 0,1 0 1,-8-1-1,3-5-3180,2-15-1494</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="792.47">581 183 7780,'0'0'8515,"12"-12"-8122,-8 7-364,6-5-3,1-1 0,-1 1 1,1 1-1,1 0 0,0 1 1,25-14-1,19-4 58,-20 8 1,72-24 0,-107 42-190,-1 0 1,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1-1,-1-1 1,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,-1 17-4167,-2-8-1550</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5097,31 +5534,21 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:46:09.317"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T15:07:38.087"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">354 200 2145,'0'0'2340,"-4"-20"6343,5 11-8632,3 4-25,0 1 0,0-1 0,1 0 0,-1 1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0 0-1,0 0 1,0 1 0,12-2 0,-17 4-36,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0 0,-1 2 0,-1 34 4,0-30 12,0 0 0,0-1-1,-1 1 1,0 0 0,0-1-1,-1 0 1,0 0 0,0 0-1,-8 9 1,-52 47-127,10-10-1060,57-55-1784,30-24 2349,-31 26 684,1-1 0,0 1-1,0-1 1,0 1 0,0 0-1,0 0 1,1 0-1,-1 1 1,0-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0 0,-1 1-1,0-1 1,0 1 0,4 1-1,-1 2-119,1 0-1,0 0 1,-1 1 0,0 0-1,0 0 1,7 9-1,-7-8-316,8 5-1675,2-3-1408</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="404.38">679 253 4562,'0'0'4338,"0"70"-3906,0-38-352,0 3 96,-3-5-144,3-2-32,-3-7-224,3-6-1136,0-5-2162</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="763.37">918 122 4594,'0'0'4117,"-8"-1"-4003,-26-4-114,34 5-3,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 1 1,1 0-1,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,10 24-3,5-2 78,-10-15 5,0-1 1,-1 1 0,0-1 0,-1 1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-2 1 0,0 0 0,0 0 0,0 0 0,0 15 0,-4-16-1045,-3-9-2425,2-4-295</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="764.37">895 134 2545,'0'0'7043,"76"-61"-6482,-56 53-49,-3 5-304,-4-1-176,0 4-32,0 0-336,-3 0-1073,4 0-1520,-4 0-1777</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1107.48">1110 1 4594,'0'0'4354,"63"66"-4242,-46-34-64,-7 1-32,-3 5-16,-7 5-32,0 1-96,-10-1-320,-10 5-593,-3-1-1360,-11-9-1200</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1459.95">188 56 2561,'0'0'1115,"-11"13"-437,0 0-421,0 0-1,1 1 1,1 0 0,1 1 0,-1 0-1,2 0 1,0 1 0,-5 21-1,8-23-42,2 0-1,0 0 1,0 1-1,1-1 1,1 0-1,0 1 1,1-1-1,5 21 1,-5-28-216,1-1 1,1 1-1,-1-1 0,1 0 1,0 0-1,0 0 0,1 0 1,0 0-1,0-1 1,0 1-1,1-1 0,0 0 1,0-1-1,0 1 0,1-1 1,-1 0-1,1 0 1,0-1-1,11 6 0,-5-5-479,0 1-1,0-2 1,0 1-1,0-2 0,16 2 1,-7-3-3918</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2229.58">457 655 768,'0'0'10635,"-5"-3"-10273,3 2-361,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-2 3-1,-5 4-6,0 1-1,1 0 0,0 0 1,1 1-1,0 0 0,-8 19 1,12-23-10,-1-1-1,1 1 1,1-1 0,-1 1 0,1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,1 0 0,-1 0-1,1 0 1,4 12 0,-3-16-2,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0-1,0-1 1,0 1 0,0 0 0,5-1 0,-9 0 38,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-11-11 277,11 11-320,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 1,1 1-1,-1 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,-1 0 0,1 0-468,1 0 0,-1 1 1,0-1-1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 3 0,0 3-4154</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2612.91">586 858 3698,'0'0'6629,"4"9"-6650,-2 2 108,1 0-1,-2 0 1,0 0-1,0 1 1,-1-1 0,0 0-1,-3 17 1,3-24-236,-1 0 1,0 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-2-1 1,1 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,-6 1-1,6-2-4272</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3251.27">832 750 5346,'0'0'6814,"6"-20"-5725,-5 20-1101,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 1,1 1-1,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,0 1 0,-1-1 0,0 0 0,1 1 0,-1-1 1,1 1-1,0 2 2,1-1 0,-1 0 0,-1 1 1,1-1-1,0 1 0,-1 0 0,1-1 1,-1 1-1,0-1 0,0 4 0,0 3 26,0 0-1,0-1 0,-1 1 0,-1 0 1,-4 15-1,2-15 10,-1-1 0,-1 1 0,0-1 0,-7 9-1,-15 20 97,80-36-174,-42-2-226,28-6 925,-16 0-4753,-12 1 596</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3610.43">1037 615 2849,'0'0'6819,"30"12"-7011,-10 7 480,0 1-95,-3 1-161,-4 4 16,-10 3-48,-3 5-176,-3 1-1121,-20 2 657,-14-2-1297,1-2-897,-7-3-319</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4006.36">68 721 3410,'0'0'6066,"-3"0"-5831,0 2-219,1-1 1,-1 0-1,0 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,1 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,1 1 0,0 0 0,0 0 1,0 0-1,0-1 0,-1 5 1,-3 9 66,0 1 0,-3 28 0,6-31-73,1 1-1,0-1 1,1 1-1,1 0 1,0-1-1,1 1 1,7 25-1,-6-29-410,1-1-1,1 0 0,0 0 0,0-1 0,1 0 0,0 0 0,0 0 1,1 0-1,0-1 0,1 0 0,9 7 0,6 3-2482</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4812.28">182 1254 3185,'0'0'9501,"-31"2"-8792,24 1-730,1 1 0,0 0-1,-1 1 1,1-1-1,1 1 1,-1 0-1,1 1 1,0-1 0,0 1-1,0 0 1,1 0-1,0 1 1,0-1-1,1 1 1,-1 0 0,2 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,1 1 1,0-1 0,0 1-1,1-1 1,0 1-1,0-1 1,1 1-1,0-1 1,2 10 0,-1-15-94,-1 0-1,0 1 1,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 0 0,-1 0 0,5 0 0,0 1-450,0-1 0,1-1-1,-1 1 1,0-1 0,0 0-1,0-1 1,0 1-1,10-5 1,7-10-3309</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5185.25">430 1254 4946,'0'0'2823,"0"29"-1406,-6 122 736,5-149-2426,1-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,2 1 0,4 1-4241</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5548.16">702 1379 6611,'0'0'3586,"-13"80"-3106,3-59-304,0 1-80,-3-3-96,3 0-96,0-6-945,3-7-1808</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5976.28">905 1205 464,'0'0'6729,"-8"-1"-6049,6 1-628,0-1 1,0 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,1 1 1,-1-1-1,0 1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 1 1,1-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,1-1-1,0 1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,1 4-1,-1-4-28,0 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1-1 1,1 1-1,-1-1 1,1 1-1,0-1 1,2 2-1,47 21 678,-8-4-345,-42-19-354,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,0 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,-1 1 1,-1 2-11,0 0 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,-5 3 0,-21 8-1275,8-11-2456,11-3-1499</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6329.41">895 1194 5122,'0'0'7940,"43"-37"-7636,-33 36-272,3-5-32,1 6-16,6 0-416,-1 0-913,5 0-1104,-1 0-2001</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6674.87">1140 1102 4978,'0'0'5656,"17"-6"-5125,-14 5-529,0 1 1,1-1-1,-1 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 1,0 1-1,0-1 0,-1 1 1,1-1-1,3 4 0,-2-2 11,0 1-1,-1 0 0,0 0 1,0 0-1,0 0 1,0 1-1,-1-1 0,1 1 1,-1 0-1,3 9 0,-2 0 27,1 0 1,-2 0-1,0 0 0,-1 0 0,0 0 0,-1 0 0,-4 28 0,1-31-18,0 1 0,0-1-1,-2 0 1,1-1 0,-1 1-1,-1-1 1,-12 17-1,-59 69-616,36-47-2139,29-32-350</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">84 144 4498,'0'0'8198,"12"-11"-4612,-6-56-1291,-3 52-1655,-4 46-728,-4 14 253,-3-1 1,-15 55-1,-2 6 75,22-93-156,0 0 0,-1-1 1,-1 1-1,-8 16 0,1-1-83,11-25-394,0 6-1703</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1622.03">55 1 1665,'0'0'9025,"-3"6"-4092,4 0-4890,7-2-25,0 0 0,0 0 0,0 0 0,0-1-1,0 0 1,1-1 0,-1 0 0,1 0 0,0-1 0,0 0 0,10-1 0,-3 2-6,690 23-324,32 2-353,82 52 302,159-46-90,-767-33 338,-209 0 128,7 3 1408,-12 16-964,1-17-595,-46 224 880,47-224-787,0-2 96,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 1,0 0-1,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,-7 1 7,-281 3-159,-312-7-833,294-29 1068,118 9-164,-348-16-169,180 16 91,-298 11-862,444 15 1188,-68 12 569,275-13-1998</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2112.2">819 303 3169,'0'0'4165,"-1"-1"-3891,1-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1-1,2-1 1,16-2-180,1 1 1,0 0-1,0 2 0,22 0 1,34-5-1548,-29-5-3131,-39 7-555</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2386.24">1036 214 3073,'0'0'5987,"-12"68"-5427,8-49-143,0-5-65,-5 5 336,1-3-368,4-2-112,-4 2-208,0-1 0,4-1-864,4-5-1649</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2618.25">1159 289 4690,'0'0'8996,"0"9"-9268,0 8 272,0-1 80,0 1-64,0-1-32,0-2-496,0-2-2065,-4-7-1809</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2771.78">1159 289 688,'91'-110'7172</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3410.52">1349 155 6771,'0'0'4493,"1"18"-3802,2 5-597,1 13-189,0 66 0,-5-103 222,1 1 1,-1-1 0,0 1-1,1 0 1,-1-1 0,1 1-1,-1-1 1,0 1-1,1-1 1,-1 0 0,1 1-1,-1-1 1,1 1 0,0-1-1,-1 0 1,1 1-1,0-1 1,-1 0 0,1 0-1,0 1 1,0-1-1,0 0 1,0 0 0,-1 1-1,1-1 1,0 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 0-1,0 1 1,1-1 0,0-1-1,9-28 124,51-19-1486,-49 42 1138,-1-1 0,-1 0 0,1 0 0,-2-1 0,1-1 0,-1 0 0,0 0 0,7-13 0,-14 40 720,-5 13-720,-11 8 370,10-31-204,1 0 1,0 0-1,0 0 1,1 1-1,0-1 1,0 1-1,1 0 1,0-1-1,0 1 1,1 0-1,0-1 1,1 12-1,-1-18-61,1 0-1,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,0 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 0,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,0 0 1,2 0-1,28 0 92,-22 0-20,-3-1-75,0 1 1,0-1-1,0 0 0,0 0 1,0-1-1,0 0 1,-1 0-1,1 0 0,0-1 1,-1 0-1,10-6 1,-12 7-8,0-1-1,0 1 1,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-8 0,-1 11 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,-9 7 21,4 0-4,0 0 0,1 0 1,0 0-1,0 1 1,0 0-1,-2 9 1,4-13-11,1-1 0,0 1 0,-1 0 1,2 0-1,-1 0 0,0 0 0,1 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,1 5 1,0-7-65,-1-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 1,0 0-1,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,4 0 0,48-1-2641,-35 0 1221,10 1-2817</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5141,19 +5568,30 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:46:20.631"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T15:08:05.552"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">498 639 4018,'0'0'3428,"-7"44"-1747,-8 12-778,7-29-731,1 2 0,1-1-1,-3 45 1,-8 351 588,9-250-614,-34 188-1,1 88 2,25-195-22,-8-33-79,22-180 170,-2-1 1,-2-1 0,-11 42 0,17-82-210,0 0 0,1-1 1,-1 1-1,1 0 1,-1 0-1,0 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 0,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,0 0 0,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,0 1-1,1-1 0,-1 0 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 0,0 1 1,-1-1-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 1 0,20-2 82,9-1-40,0-1 0,0-1 0,32-9 0,25-4-21,-2 4-7,322-33 6,395 45 414,-358 5-132,701 19 342,-1103-21-646,0-1-1,0-2 1,0-2 0,0-2 0,52-12 0,-92 17-130,0 0 1,1-1-1,-1 1 1,0-1-1,0 1 0,1 0 1,-1-1-1,0 1 1,0-1-1,1 1 1,-1 0-1,0-1 0,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 0,-1 0 1,-7-4-3425</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1545.02">3597 3136 9204,'0'0'3789,"-11"-2"-2199,14 1-1615,1 0 1,-1 1-1,1-1 1,0 1 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0 0,-1 0-1,5 3 1,-6-2-15,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 1 0,-1 0 0,0-1 0,1 1 1,-1 0-1,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,0 0 0,0 0 0,0 0 1,0 3-1,-1 0 36,1 1 1,-1-1 0,0 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,-1 0-1,1 0 1,-1 0 0,0-1-1,-1 1 1,1-1 0,-1 0-1,0 0 1,0-1-1,-7 7 1,11-11-91,25-21-918,-16 15 907,8-8-226,-1-1 0,26-29 0,-38 39 419,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,-1 0 0,0 1 0,1-11 0,-33 18 73,28 2-173,-1 0 0,0 0-1,1 1 1,-1-1 0,1 1-1,0-1 1,0 1-1,0 0 1,1 0 0,0 1-1,-1-1 1,2 0 0,-1 1-1,0-1 1,-1 9-1,0 2-14,0-1-1,1 1 1,0 28-1,2-42 37,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 0,0 0 1,3-1-1,38-1-647,-3-12-4105,-19 3-294</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2149.69">3956 3155 5491,'0'0'7013,"34"0"-6564,-5 2-296,29-1 122,-55-1-281,0 0 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1-1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 1,3-1-1,-6 3-13,1-1 0,-1 1 0,0 0 1,1-1-1,-1 1 0,1 0 0,-1-1 1,0 1-1,0-1 0,1 1 0,-1 0 1,0-1-1,0 1 0,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,-1-1 1,-15-13-400,-34-5 81,46 18 387,3 0-82,41 6-466,8 1 530,-36-6-14,0 1 0,0 1 0,19 5 0,-31-7-18,1 0 1,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0-1,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,-1 1 0,1 0-1,0-1 1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1-1,-1-1 1,1 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,-17 19 612,-87 74-565,97-88-2308,-4-4-1507</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3760.34">1 574 5186,'0'0'5840,"2"8"-2698,13 29-3109,-12-33-47,1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,5-1 0,-7 1 18,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,1-1 1,-1 0 0,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,0-5 1,1 2 112,-1 0 0,0-1 0,-1 1 0,1 0 1,-1 0-1,-1 0 0,1 0 0,-1 0 0,0 0 0,-6-11 1,8 16-88,0 23-853,10 425-169,-10-445 994,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1-1 0,1 0-1,-1 1 1,1-1-1,-1 0 1,0 0-1,1 0 1,-4 1-1,3-2 36,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1-1,-1 1 1,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 0 0,0-2 0,-3-5-11,1 1 1,1-1-1,0 1 1,0-1-1,0 0 1,1 0-1,1 0 1,-1 0-1,2 0 1,-1 0-1,1 0 1,0 0 0,1 0-1,0 0 1,5-11-1,-4 10-648,1 0 0,1 0 0,0 0 0,0 1 0,1 0 0,0 0 0,11-12 0,-3 5-2135,-1-1-1049</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4504.49">239 153 5587,'0'0'4380,"0"3"-4204,10 181 1182,0-524-352,-18 346-1419,-4 6 425,0 1 0,1 1 1,1 0-1,-10 18 1,-29 37 135,48-68-121,21-32-222,-15 23 215,1 1-1,0 1 0,0-1 1,0 1-1,1 0 0,0 1 1,0-1-1,1 1 0,-1 1 1,1 0-1,16-7 0,-23 11-29,1 0 0,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,-1 1 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,2 3 0,23 40-1560,-10-16-1854,0-9-1205</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">141 2810 4866,'0'0'13284,"-13"7"-12305,-67 103-918,47-62-26,19-33 102,14-26-2,13-27-106,3 5-67,-9 14 3,2 1 0,0 0-1,1 0 1,1 1 0,0 0-1,26-28 1,-36 45 33,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0-1 0,1 2 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 0,1-1 1,-1 1-1,10 19-173,3 31-133,-11-45 300,2 20-89,-1 1 0,-1 0 0,-2 38 0,0-30-1484,0-32 1125,0 0 1,0-1 0,-1 1-1,1 0 1,-1 0 0,1 0-1,-1-1 1,0 1 0,0 0-1,0 0 1,-2 2 0,-5 6-4142</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="199.02">1 2951 8788,'0'0'7604,"37"-32"-7604,-1 20 16,5 2-16,9 3-1345,3 3-2465,0 1-1456</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="973.03">1339 2921 6275,'0'0'11835,"-1"-2"-11462,0 2-370,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,-8 27-50,6-23 89,-33 115 289,38-153 257,-3 22-577,0 0 0,1-1 0,4-20 0,3 7-16,1 1 0,1 0 0,17-30 0,-24 49-15,-1 0 0,1 0 1,0 0-1,1 0 0,-1 0 1,1 1-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,1 1 1,0 0-1,0 0 0,0 0 1,0 1-1,1 0 0,-1 0 0,1 0 1,-1 0-1,9 0 0,-13 2-100,-1 11-165,-1-3 309,-1 0 1,0-1-1,0 1 1,0 0 0,-1-1-1,0 1 1,-8 12-1,6-10-31,0-1-1,0 1 1,1 0 0,1 0-1,-3 12 1,6-19-23,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,4 3 0,-2-2-7,-1 0 1,0-1 0,1 1 0,-1 1 0,0-1-1,-1 0 1,5 6 0,-9 5 97,-18-1 445,19-13-504,-29 10 672,-46 11 1,66-19-1184,0-1 0,1 0 0,-1 0 1,0-1-1,-14-2 0,16-2-4488,4-8-4434</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1586.28">2475 2987 5442,'0'0'12537,"1"-11"-11526,1-34-232,-2 44-743,0 0 0,0 1 0,0-1-1,0 0 1,-1 0 0,1 0 0,0 1 0,0-1-1,-1 0 1,1 1 0,0-1 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 0 0,0 1 0,1-1-1,-1 1 1,0 0 0,1-1 0,-1 1 0,0-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,1 0 0,-1 0 0,0 0-1,0 0 1,-1 0 0,-26 1 122,23-1-137,0 1-31,-1 0 1,1 1-1,-1-1 1,1 1-1,0 0 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 1,1 1-1,-1-1 1,1 1-1,0 0 1,0 0-1,1 0 1,-1 1-1,-4 7 1,3-4-13,0-1 0,1 1 0,0 1 0,0-1 0,1 0 0,0 1 1,0 0-1,1 0 0,0-1 0,-1 19 0,3-26 21,0 1-1,0-1 0,0 1 1,1-1-1,-1 1 1,0-1-1,1 0 0,-1 1 1,1-1-1,0 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 0,3 1 1,0 0-14,1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,6 0-1,8 0-339,-1-1 0,0-1 0,18-2 0,-25 0-1058,0 1 1,-1-2 0,20-8 0,-22 8-631,6-3-3351</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2019.31">3181 2831 4434,'0'0'10109,"0"4"-9418,-1 13 39,-1 0 0,-1-1 1,0 1-1,-7 18 0,-7 37-625,16-54-4260,1-13-1756</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2349.12">3148 2878 11477,'0'0'7534,"0"-5"-7304,0 4-237,-1 0 0,1 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 1 0,0-1 0,0 0 1,1 0-1,3-1 9,-1 0-1,1 0 1,0 1 0,-1-1-1,1 1 1,9-1 0,11 1 2,46 1 0,-68 1-11,-1-1 0,0 0 0,1 0 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 1,0 0-1,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-2 0 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 1,0 5-1,0-3 46,1 0 1,-2 0-1,1 0 1,0 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,0 0 1,1 0-1,-2 0 1,1-1 0,0 1-1,-1-1 1,1 0-1,-5 5 1,-9 4 78,-1 1 1,-1-2-1,1-1 1,-2 0 0,-36 14-1,28-15-2298,-50 11-1,36-14-4089</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3972.08">4729 136 6947,'0'0'9738,"0"-5"-8767,0-10-438,0 15-251,-6 30-425,-62 269 27,53-216 102,-6 141 0,20 88 52,0-301 751,0-6-3408,1-21-4625,6-16 881</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4938.83">4749 233 4722,'0'0'9866,"-3"-2"-9159,3 1-703,-1 1-1,1 0 1,-1 0-1,1 0 1,0-1 0,-1 1-1,1 0 1,-1-1 0,1 1-1,0 0 1,-1-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 1-1,0 0 1,0-1 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,11-1-114,-9 2 102,729-93 507,-599 79 1588,-124 56-2010,-1 29 85,-4 1 0,-3-1-1,-3 0 1,-3 1 0,-26 119 0,-106 420 457,138-610-530,-1 0-1,1 0 1,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1 0 0,0-1 0,0 1-1,0-1 1,1 0 0,-1 1-1,0-1 1,0 0 0,0 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0-1 0,0 1 0,0 0-1,0-1 1,-1 0 0,-34-12 187,35 12-246,-72-29-126,-1 4 0,-1 2-1,-78-13 1,-236-19-610,371 55 683,3 0 28,0 0-1,0-1 0,0-1 0,1 0 0,-1-1 0,1 0 1,-18-9-1,31 12 1,0-1 1,0 1 0,0 0 0,1-1-1,-1 1 1,0-1 0,1 1 0,-1-1-1,1 1 1,0-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,1-1-1,5-30-39,6-11-145,6-19-590,0 27-7829</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6172.2">4873 368 0,'0'0'8377,"-2"-3"-7438,-3-4-1064,-4-1 4274,1 10-60,3 10-4321,-3 15 209,5-19 21,1-1 0,0 0 0,0 1 0,1 0 0,-1 10 1,2-17 422,0-37 553,0-47-1062,0 82 2,4 1-173,0-1 218,1 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,8 4 0,-7-4 23,14 4 43,1-1 0,-1 0 0,1-2 0,21 0 0,-41 30-281,0-22 267,-1 1 0,-1-1 0,0 1 0,-4 12-1,5-19 2,0 0-1,0 0 0,-1 0 0,0 0 0,1-1 1,-1 1-1,-1 0 0,1-1 0,0 0 0,-1 1 1,0-1-1,1 0 0,-6 3 0,2-4-7,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 0 0,0-1 0,-1 1-1,1-1 1,0 0 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,-6-4 0,11 5-251,1 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 0,1 0 1,0 0-1,-1-1 1,1 1-1,1 0 1,-2 0 58,19-11-6412</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6687.3">5283 359 3105,'0'0'10021,"-3"7"-9626,-2 2-246,-6 10 384,0 0 0,-1-1 0,-24 27 0,37-86-104,2 28-468,0 0 0,1-1 0,0 2-1,1-1 1,1 0 0,9-15 0,-14 27 27,-1 1 1,1-1-1,-1 0 1,1 0-1,0 1 0,-1-1 1,1 0-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,1 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,-1 1-1,1-1 0,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,-1 1 1,1 0-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1 0 0,-1 0 1,1 1-1,24 43 64,-21-34-10,-1 1-1,0 0 1,0 0-1,-2 1 0,1-1 1,-2 14-1,-5 13-2446,-2-27-818,-5-7-1224</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6850.62">5222 444 5747,'0'0'6291,"37"-7"-6227,-5 5-64,-3-3-32,-4 5-2049,-9 0-1137,-8 0-1792</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8062.49">4811 637 3249,'0'0'13951,"-1"19"-13996,-1-8 62,-1-1 0,1 0 1,-2 1-1,1-2 0,-11 19 1,-10 33 56,23-73-18,0 1 0,0-1 0,1 1 0,3-18 0,0 12-57,-1 8-40,0 0 1,0 0-1,1 0 0,6-15 0,-8 22 5,0 0 1,0 0-1,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 1 1,1 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 1,0 0-1,4 0 0,-4 0 25,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,0 0 0,-1-1 0,1 1-1,-1 0 1,0-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0 2-1,1-1 27,-1 1 1,0-1-1,1 1 0,-1-1 0,0 0 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 0,0-1 1,0 0-1,-1 0 0,-1 5 0,0-5 16,-1 1-1,1-1 0,-1 0 1,1 0-1,-1-1 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,-1 0 0,1-1 1,-1 0-1,1 0 0,-6 1 1,10-2 196,15 0-805,2 0-1464</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8635.76">4815 687 4482,'0'0'7801,"0"-2"-7372,-2 6-335,-38 108 1178,41-138 1350,2-26-3003,-2 49 320,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 1 1,1-1 0,-1 0-1,1 1 1,0-1-1,0 1 1,0 0-1,1-1 1,1-1-1,1 3 12,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,0 1-1,-1-1 1,1 1 0,6 1-1,-8-1 49,2-1-15,0 1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1 0,0 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0 0 1,0 0-1,-1 1 1,1-1 0,-1 1-1,7 6 1,-9-7 16,1 0 1,-1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 1-1,1-1 1,-1 1 0,0-1 0,0 1-1,2 5 1,-3-6 17,0 0 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1-1,1 0 1,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1-1,0 1 1,-1-1 0,1 0 0,0 0 0,0 1 0,0-1-1,-1 0 1,1 0 0,-3 1 0,-19 13 197,0-2 0,-1-1 0,-31 11 0,1-4-3370</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9403.3">5541 634 192,'0'0'14076,"-5"0"-13158,-9-1-541,16-1-175,31-6-90,4-1-22,114-36 577,516-138 865,-411 120-577,-251 63-894,-4 0-192,-9 9-11236</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9696.05">6489 243 8644,'0'0'6619,"4"3"-6830,58 49 210,-43-39 76,-2 2-1,27 26 0,-42-39-60,0-1 1,-1 1-1,0 0 1,1 0-1,-1-1 1,0 1 0,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,-1 0 1,0 0-1,0 1 1,1-1 0,-1 0-1,0 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,0 1-1,0-1 1,1 0 0,-1 0-1,-1 0 1,1 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,-1-1 1,-1 2 0,-8 7 255,-1-1 0,0 0 1,0-1-1,-23 12 1,4-2-250,5 3-450,21-11-4070</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11843.58">6957 161 3954,'0'0'13019,"0"-9"-12379,-2 35-603,-2 0-1,-1-1 0,0 0 0,-2 0 0,-1-1 0,-1 0 0,-18 36 0,-15 43 110,41-102-142,0 0-1,1-1 1,-1 1 0,1 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 1-1,0-1 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,-1-1 0,1 1-1,0 0 1,-1 0-1,1 0 1,0-1 0,0 1-1,-1 0 1,1-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0-1-1,1 1 1,13-3 55,-1 0 0,0-1 0,20-8 0,-17 6-81,13-3 35,-7 3-304,0-1 0,0-1 1,-1-1-1,0-1 0,0-1 1,22-15-1,-43 25 295,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 1,0 0-1,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-2-2 0,-1 1 6,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 1 0,1 0 0,-5-1 1,7 2-18,-1-1 0,1 1 0,0 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,1 0 0,-1 1 0,0-1 1,1 1-1,-1-1 0,1 0 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 1 1,0 2-1,-3 44-179,3-47 174,0 1-12,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 1,-1-1-1,1 1 0,0-1 0,0 1 0,0-1 0,2 0 0,10 2-553,0 0 1,0-2-1,16 0 1,-17 0-42,2 0 156,0-1-1,0-1 1,0 0-1,0-1 0,20-6 1,-28 6 470,0 1 0,0-1-1,0 0 1,0-1 0,-1 0 0,0 0 0,1 0 0,-1-1 0,-1 0-1,1 0 1,-1 0 0,8-11 0,-11 14 146,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 1 1,0-1 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 1 0,-1-1-1,0 0 1,-2-4-1,2 5-89,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0 0 0,-4 1-1,3 0-65,-1 0-1,0 1 0,1-1 1,0 1-1,-1 0 0,1 0 1,0 0-1,0 0 0,1 1 1,-1-1-1,1 1 0,-3 5 1,3-7-93,1 1 0,-1-1 1,1 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,2 3 1,-1-5 12,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,2 0-1,-3 0 81,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 1 1,1-1-1,-1 0 0,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,1-1 0,-1 1 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,-1 0 0,0 0 1,1 1-1,-1-1 0,0 0 0,0 1 1,1 1-1,0 12 114,0 0 0,-1 0 0,-1 0 0,0 0 0,-1-1 0,0 1 0,-1 0 0,-1-1 0,-9 23 0,11-31 19,-1 0 1,0 0-1,0 0 1,-1-1-1,1 0 0,-1 1 1,0-1-1,0-1 0,-1 1 1,0-1-1,0 1 1,0-1-1,0-1 0,0 1 1,-1-1-1,0 0 0,0 0 1,1-1-1,-2 1 1,1-1-1,0-1 0,0 1 1,-1-1-1,-10 1 0,9-2-67,3 1 167,0-1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-6-3-1,10 3-198,-1-1 1,1 0-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 1 0,0-2 0,0 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,1-1-1,-1 1 0,0 0 1,2-2-1,-1-1-45,1 0-1,0 0 1,0 0 0,0 0-1,0 1 1,1-1 0,-1 1 0,1-1-1,0 1 1,0 0 0,0 0-1,6-4 1,49-31-624,-40 27 322,50-30-449,-29 20 423,-1-2 1,-1-2 0,-2-2-1,50-46 1,-82 69 403,1 0 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,-1 0 0,1 1 1,-1-1-1,0 0 0,0 0 0,-1 0 0,1 0 0,-1-5 0,0 9-44,-1 1 1,1-1-1,0 1 0,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,-1 1-1,1-1 0,0 1 1,-1 0-1,1-1 1,-1 1-1,0 0 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,-1 1-1,-23 6-6,21-3-25,0-1 0,0 1 0,0 0 0,1 0 0,0 0-1,-1 1 1,2-1 0,-1 1 0,0 0 0,1 0 0,0 0-1,-2 8 1,1-2-31,0 0-1,1 0 1,0 1-1,0 21 1,3-32 34,-1 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,1-1 0,-1 0-1,3 1 1,56 2-149,-48-3 94,-1-1-9,1 0 0,-1-1 0,0 0 0,0 0-1,0-1 1,-1-1 0,15-6 0,69-40-164,-70 36 347,-22 13 783,-4 28-678,-1-13-64,-9 46 216,13-59-386,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,30-5-178,3-10-21,-29 13 176,0 0 0,0 0 0,0 0-1,0 1 1,1 0 0,-1 0-1,1 0 1,-1 1 0,14-1-1,38 4 223,-20 0-1436,41-5 0,-69 3 793,0-2 1,0 1-1,0-1 0,-1-1 0,1 0 0,-1 0 1,1-1-1,-1 0 0,10-6 0,-16 7 404,-1 0-1,1 1 1,0-1-1,-1 0 1,1 0-1,-1-1 1,0 1-1,0 0 1,0-1-1,-1 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,1-4-1,-2 6 203,1 1 1,-1-1-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 1 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 1,-1 1-1,1 0 0,-4-1 0,0 1-27,0 0 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,0 1 0,0-1-1,0 1 1,0 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1-1,0 0 1,0 0 0,1 0 0,-4 6 0,2-3-119,1-1 0,0 1 0,0 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 1 0,1-1 0,-1 1 0,1 0 1,0 0-1,1 0 0,0-1 0,1 10 0,-1-16-4,0 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 1,0-1-1,1 0 0,5-1 75,-1 0 0,0 0 0,0 0 1,0-1-1,11-6 0,3-8-5,-1 0-1,0-1 1,-1-1 0,-1-1 0,0 0 0,-2-1-1,0-1 1,15-32 0,-16 26-23,-1-1 0,-2 0 0,-1-1 0,-1 0 0,-1-1 0,5-50 0,-14 76 368,-4 11-205,-12 32-190,-17 55-32,24-60 87,2 1-1,1 1 1,2 0 0,-2 68 0,7-100-70,0 0 1,0 0-1,0 1 1,0-1-1,1 0 0,-1 0 1,1 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1 0 1,0 0-1,0-1 0,0 1 1,0-1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,0 1 1,3 1-1,-2-2 8,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-2 0,0 1 0,0 0 0,0-1 0,0 0 1,-1 0-1,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,3-3 0,1-1 59,0-1 1,-1 0-1,0 0 0,0 0 0,-1-1 1,0 0-1,-1 0 0,0 0 1,0-1-1,-1 1 0,0-1 1,-1 0-1,0 0 0,0 0 0,-1 0 1,0 0-1,-1 0 0,0 0 1,-3-17-1,3 26-52,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,-1 1 0,-15 12-182,13-8 95,1 0 0,-1 1 1,1-1-1,0 0 0,1 1 1,-1-1-1,1 1 0,0 0 1,1 0-1,-1-1 0,1 1 1,0 0-1,2 10 0,0-5-184,1 0 0,0 0-1,1 0 1,0 0 0,11 19 0,-15-29 271,1 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,0 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,0 0 1,0 0-1,0 0 0,-2 1 1,-4 2 166,0 0 0,0-1 0,0 0 0,-1 0 0,-12 3 0,-5 2-248,-47 15-2372,29-14-2576</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5173,28 +5611,28 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:46:32.397"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T15:08:27.509"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">536 2525 3330,'0'0'5805,"0"-6"-5240,0-30 1044,-3 35-1473,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1-1,0 0 1,-1-1 0,1 1 0,0 0-1,0 1 1,-4-1 0,5 0-17,-1 0-130,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1-1,0 1 1,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0-1,1 0 1,0-1 0,-1 1 0,2 0 0,-1 4 0,0-2-29,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,3 6 0,-4-9 41,1 0 1,0 0-1,-1 0 0,1-1 1,0 1-1,0-1 1,1 1-1,-1-1 0,0 0 1,0 1-1,1-1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,1-1 1,-1 1-1,1-1 0,-1 0 1,1 0-1,0 0 1,3 0-1,-2 0 28,1-1-1,0 1 1,-1-1-1,1 0 1,0 0 0,-1 0-1,1-1 1,-1 0 0,1 0-1,-1 0 1,0 0-1,0-1 1,0 1 0,0-1-1,-1 0 1,1 0 0,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1 0,-1 0-1,4-7 1,-1 1-3,-1 0 1,0 0-1,0-1 0,-1 0 0,0 0 1,-1 0-1,0 0 0,-1 0 0,0-13 1,-1 23-17,0 0 1,0 0 0,-1 0-1,1 0 1,0 1 0,0-1-1,0 0 1,-1 0 0,1 0-1,0 1 1,-1-1-1,1 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 1-1,1-1 1,-1 0 0,0 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,1-1-1,-2 1 1,-28-5-51,22 6-6,0 0-1,1 0 1,-1 0-1,0 1 0,-10 4 1,14-4-90,0-1 1,1 1-1,0 0 1,-1 0 0,1 0-1,0 1 1,0-1-1,0 1 1,-5 5 0,7-6-365,0 0 0,-1 0 0,1 1 1,0-1-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 1,1 1-1,0-1 0,-1 1 0,1-1 1,0 1-1,1-1 0,-1 1 1,1 3-1,2 3-1456</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2332.54">1279 2377 5122,'0'0'5237,"-3"53"-3020,3 37-2742</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3059.12">1839 2428 4306,'0'0'4357,"-3"-3"-3824,2 2-525,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1-2 0,1 1-5,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1 1-1,5-1 0,-4 0-7,1 0 1,-1 1 0,1-1-1,0 1 1,-1 0-1,1 0 1,-1 0 0,1 0-1,4 1 1,-6 0-10,-1 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 1 0,-1-1-1,0 0 1,1 0 0,-1 1 0,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,-1 3 0,0 3-7,0 0 0,-1 0 0,0-1 1,-1 1-1,0 0 0,0-1 0,0 0 0,-1 1 0,1-1 1,-2 0-1,1-1 0,0 1 0,-1-1 0,0 0 0,-9 7 1,-9 12-19,22-23 1,31-1-310,-16-2 461,-1 0-1,1-1 1,-1 0 0,1-1 0,-1-1 0,-1 0 0,1-1-1,13-7 1,-25 12-130</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3756.38">2357 2385 5346,'0'0'4469,"10"-33"-3036,-7 30-1443,1 0-1,0 0 1,0 0 0,0 1 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 1 0,-1-1 0,1 1-1,0 0 1,-1 1 0,1-1 0,0 1 0,5 0-1,-9 2-31,-1 0-1,0 0 0,0 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1 1 0,-1-1 1,0 0-1,0 0 0,-1 2 0,-9 12 38,8-13-47,1 0-1,-1 1 1,1-1-1,0 1 1,-1-1-1,2 1 1,-1 0-1,-2 7 1,4-11-415,3 0-187,1 0 598,-1 0-1,0 0 1,1 0-1,-1 1 1,0 0 0,0-1-1,1 1 1,-1 0-1,0 0 1,3 2 0,-5-2 49,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 1,0 0-1,0 0 0,0-1 0,-1 4 0,1-4 20,-1 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1 0 1,-1-1-1,-1 1 1,-40 14 170,36-13-194,-13 3-244,11-4-2944</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4289.12">2908 2388 5122,'0'0'5496,"-4"-2"-4989,0 0-449,1 1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,0 1 0,1-1-1,-1 1 1,1 0 0,-1 0 0,0 0 0,-6 1-1,8 0-58,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,1 3 0,-1-4 0,0 1 1,1-1-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,1 1-1,-1 0 0,0-1 1,1 0-1,-1 1 1,2-1-1,46 11 25,-29-7-74,-20-4 46,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 1 1,-1-1-1,0 0 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 1-1,1-1 0,-1 0 1,-25 15 18,25-14 20,-38 16 112,-5 4-230,14-5-2990,28-16 240</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5067.32">3137 2326 2753,'0'0'6179,"-10"32"-4485,9-22-1548,0 1 0,0-1 0,1 0 0,1 1-1,1 13 1,-1-23-137,0 0-1,0 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 0,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,0 0-1,3 0 1,-2 0-23,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0-1 0,-1 1 1,3-3-1,7-15-25,-5 19-209,-3 29-264,-2 0 673,1-15-267,3 21 379,-5-35-325,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1-1,1-1 1,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,-1 0 0,-4 0-2797</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7725.11">2841 2375 1521,'0'0'6878,"4"-19"-1476,-5 25-5417,0 0 0,0 0-1,-1 0 1,1 0 0,-2 0 0,1 0 0,0 0-1,-7 10 1,5-10 31,1 0 0,0 0 0,0 1 1,0-1-1,1 1 0,0-1 0,1 1 0,-1 0 0,0 8 0,2-14-21,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1-1-1,0 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,0-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,0 0 1,1 1-1,34-4-23,-29 1 19,0-1 1,0 0-1,0 0 1,0 0-1,-1-1 0,1 0 1,-1 0-1,0-1 1,0 1-1,0-2 1,-1 1-1,0 0 0,0-1 1,0 0-1,-1 0 1,6-11-1,-12 36-99,1 1 0,1-1 0,4 29 0,-1 21 297,-3-66-171,0 3-1737,4-4-2468,2-2-398</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8365.09">3320 2314 1185,'0'0'5957,"-25"-9"-4066,18 10-1858,0 0 0,0 0 0,0 1-1,0 0 1,0 0 0,1 1 0,-1 0-1,1 0 1,-1 1 0,1-1 0,0 1-1,-9 8 1,12-10-26,1 0 1,0 0-1,-1 0 0,1 0 1,0 1-1,0-1 0,0 0 1,0 1-1,1-1 0,-1 1 0,1 0 1,-1 0-1,1-1 0,0 1 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 1-1,0-1 0,0 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,3 5 0,30 29 58,-27-31-50,-1-1 1,-1 1-1,1 1 0,7 11 1,-13-18-6,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-2 0 0,-18 7 379,19-6-360,-78 19 323,45-17-5877</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8945.32">3777 2299 3105,'0'0'5779,"-8"0"-5256,-2 1-403,0 1 0,0 0 0,0 1-1,1 0 1,0 0 0,-1 1 0,1 0 0,0 1 0,1 0-1,-1 0 1,1 1 0,-12 10 0,11-9 29,1 1 0,0 0 0,0 0 0,-12 19 0,17-23-163,1 0-1,0 0 1,0 0-1,0 0 0,1 1 1,-1-1-1,1 0 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 0,1 0 1,0 8-1,0-11 12,-1 0 0,1 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1-1,0 1 1,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 0 0,2 0 0,40-1-15,-36 0 24,-6 1 7,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0-1,1-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,-1-1 0,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,0-1 0,-1 1-1,1-1 1,-1 1-1,1 0 1,-1-1-1,0 1 1,0-1 0,1-1-1,-2 2 13,0 0-1,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 1-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,-31 0-48,28 0 50,-1 0-349,1 1-1,0-1 0,0 1 0,-1 1 0,1-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 1 1,-5 3-1,4-3-758,-4 2-2419</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9840.34">254 1666 5314,'0'0'5768,"-3"-3"-5546,3 3-225,0 0 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,-1 1 1,-1 22-216,1-1 270,-13 51 239,9-47-1091,0 0 1,-1 41 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10504.84">157 1251 3249,'0'0'4877,"5"-9"-4311,-1 2-460,1-1 0,0 1 1,1-1-1,11-10 0,-15 16-81,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,1-1-1,-1 1 1,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,-1 0-1,1 0 1,0 0 0,0 1-1,-1-1 1,1 0 0,3 2-1,-4 0-23,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 1,0 1-1,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 3 0,0 5 3,-1 0-1,0 0 1,-4 21 0,3-25 47,-1 1 0,0 0 1,0-1-1,-1 0 0,0 0 1,-1 0-1,-6 9 0,38-16 307,45-21 460,-37 2-1640,-34 18 523,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 1,0 0-1,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1-3 0,0-3-3839</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11385.73">77 699 2177,'0'0'4221,"18"-5"-3723,7-8 113,-21 11-483,0-1 0,0 1-1,0 0 1,1 0-1,-1 0 1,1 1-1,-1 0 1,1-1-1,6 1 1,-11 40-182,-1-34 69,0-1-1,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 1,-3 5-1,3-6-32,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 7 0,36 4-15,-14-8 84,-19-6-53,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0-1,0-1 1,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,-1 0 0,-8 6 27,0 0 0,0 0 0,-16 6 0,15-7-116,-26 15-2494,20-15-128</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12094.84">124 418 2657,'0'0'3581,"3"-11"-3133,17-52 832,-21 74-1227,0-1 0,1 1-1,0-1 1,1 1-1,0-1 1,3 16-1,-3-26-48,0 1 0,0 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 0-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,-1 0 0,2-1 0,26-35 68,-10-5-128,-16 42 48,-2 0-40,6 47-270,-4-41 220,-2 1-1,1-1 1,-1 1-1,0-1 0,0 0 1,-1 8-1,-13 17-3714,7-23 1567</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12688.84">94 1 2305,'0'0'2281,"-12"2"-2180,-38 10-2,48-11-94,1-1 1,-1 0-1,1 0 0,0 0 0,0 1 1,-1-1-1,1 1 0,0-1 0,-1 1 0,1-1 1,0 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 3 0,1-2 0,-1-1-1,1 0 1,0 1 0,0-1-1,-1 0 1,1 1 0,0-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-1-1-1,0 1 1,1 0 0,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1 0,1 0-1,1 0 1,25 1 70,-22-2-53,0 1 1,1 0-1,-1 0 0,0 0 1,0 1-1,1 0 1,-1 0-1,0 1 0,10 4 1,-15-4-31,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,-1 1 1,1-1-1,-1 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,-2 3 1,-4 3 135,-1-1-1,0-1 1,0 1 0,0-1 0,-1-1-1,0 1 1,0-2 0,0 1 0,-13 3 0,21-7-144,1-10-2826,3-3-42</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48 1469 5378,'0'0'4539,"-3"-1"-3645,-15-3 6925,15 3-8203,1-2 485,-1 0 0,1-1 0,0 1 0,-1-1 1,2 0-1,-1 1 0,0-1 0,1 0 0,-1 0 1,1 0-1,1 0 0,-1 0 0,0-1 0,1 1 1,0-6-1,0 1-79,2 0 1,-1 1-1,1-1 1,0 1-1,1 0 1,-1 0-1,6-10 1,6-8-76,1 1 0,1 1 0,28-34 0,-23 33 53,19-26 131,-40 65-12604</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="709.14">249 865 3794,'0'0'9391,"-9"-3"-8220,-30-10-272,25 3 1200,17 1-1495,16-3-807,-19 12 232,11-6-45,-1 1 0,1 1 0,1 0 0,-1 0 0,0 1 0,1 1 0,23-3 0,-34 5-75,-1 7-392,1 3 439,-2-1 0,1 1 0,-1 0-1,-1 0 1,0-1 0,0 1-1,-1-1 1,0 1 0,-8 15 0,9-22-41,-13 31-129,11-10-2742,36-23 2262,-30-2 699,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 3 0,-2-2 40,0-1 1,0 1-1,0 0 0,-1 0 0,1 0 1,-1 0-1,0-1 0,1 1 0,-1 0 1,-1 0-1,1-1 0,0 1 0,-1-1 1,1 1-1,-1-1 0,0 0 0,0 0 1,-3 4-1,2-2-117,0 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1-1,-7 3 1,12-4-32,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,0-17-5818</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1052.68">492 756 4114,'0'0'10813,"0"-3"-10570,0 5-310,0 7 63,-1-6-1,1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,1 3 1,0-5 2,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1-1,0 0 1,0-1 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,3-1 0,-2 1 13,0-1 1,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,-1-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,0 0-1,0-1 1,0 1 0,0-1-1,0 1 1,-1-1-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,0 0-1,1-6 1,-1 6 18,0 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,0-1 1,-1 1-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,-1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0 0-1,-5-3 1,4 3-20,0 0 0,0 1 0,-1-1 1,1 1-1,0 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 1 0,-1 0 0,1 0 1,-1 0-1,0 0 0,-4 1 0,6 0-92,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 1,1 1-1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 3 0,1-2-451,-1 1 1,1-1-1,0 1 1,-1-1-1,2 1 1,-1-1-1,0 1 1,1-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,3 6 0,21 13-5212</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1645.21">1375 1007 5282,'0'0'9599,"-6"2"-8473,-14 2-212,20-5-883,0 1 1,-1 0-1,1-1 0,0 1 1,0 0-1,0-1 0,-1 1 0,1-1 1,0 1-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0-1 1,0 1-1,1-1 0,30-45 708,145-163-275,-156 206-9823,-8 0 3482</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1973.52">1769 471 7796,'0'0'8881,"-11"-1"-8742,-34 1-131,43 1-14,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 1-1,0 0 1,1-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,1 1-1,-1 2-24,1-1 0,-1 1 0,1 0 0,0-1 0,0 1-1,0-1 1,0 1 0,1-1 0,3 7 0,0-6-53,1 0-1,0 0 1,0 0 0,0 0 0,0-1-1,8 3 1,-7-3 82,0 0 1,0 1-1,-1-1 0,0 1 1,8 7-1,-14-11 36,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1 0,-1 0-1,1 0 1,-1-1-1,0 1 1,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1-1,0-1 1,0 0 0,1 1-1,-1-1 1,-1 0 0,-2 2 52,-67 55-1275,58-46-1370</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2344.82">1944 451 6707,'0'0'8596,"-7"1"-8324,3 0-256,1 0 0,-1 1 0,1-1 0,-1 0 1,1 1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 0 1,1-1-1,0 1 0,-1 0 0,1 0 0,1 4 0,-2-7-20,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0-1,-1-1 1,0 1 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 1-1,0 0 1,0-1 0,1 2-1,0-2 11,0 0 0,0 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 0 0,0-1 0,0 1 0,0-1-1,-1 1 1,1-1 0,2 0 0,7-4 40,-1 0 0,-1 0 0,1-1 0,9-8 0,-15 11-7,0-1 0,-1 0 0,0 1-1,1-1 1,-2 0 0,1-1 0,0 1-1,-1 0 1,0-1 0,0 0 0,0 1-1,2-10 1,-4 13-24,1-1 1,-1 1-1,0-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,0 0 0,0 1 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 0,0 0 0,1-1 1,-1 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,0 1 0,-1-1 1,1 1-1,-1-1 0,0 1 0,1 0 1,-1 0-1,1 0 0,-3 0 0,2 0-86,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-5 2-1,-16 31-4872,20-30 4224,-14 23-6299</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2902.63">2199 1632 1617,'-1'-3'19164,"-1"-22"-18850,7 8-313,1 0 0,0 1 1,1 0-1,1 0 0,1 0 0,0 1 0,16-20 1,5-10-39,-24 35-37,-4 6-43,0-1 0,0 1 0,1 1 0,0-1 0,0 0-1,0 1 1,6-6 0,3 8-5559,-7 1-1256,3 0-469</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3392.96">2486 1072 6099,'0'0'9364,"-1"-4"-9001,1 3-359,0 0 0,1-1 0,-1 1 0,0 0 0,0 0-1,0-1 1,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1 0,1-2 0,45-17 31,-19 12 30,45-5 0,-73 13-66,1-1 0,0 0 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,-5 34 169,2-25-98,0 1-1,-1-1 0,-12 18 1,13-22-104,0 0 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,1 0 0,0 1 0,0-1 0,1 0 0,-1 9 0,2-15 27,0 0 0,0 0 0,1 0 0,-1 0 1,0-1-1,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,0-1 0,-1 1 1,1-1-1,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 1,-1 0-1,1 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,24 15 40,-25-15-18,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,-1 1-1,1-1 1,0 1 0,-1-1-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 1-1,-16 10 170,16-11-165,-82 46-2177</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3689.76">2773 1038 3954,'0'0'10834,"-8"-2"-10412,-28-6-334,35 8-90,1 1 0,-1-1 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 1,1 1-1,0-1 0,-1 0 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 1 1,-1 0-1,1-1 0,0 1 1,0-1-1,0 1 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0-1 1,0 1-1,1 0 0,-1-1 1,0 1-1,0-1 0,0 1 1,1-1-1,-1 1 0,0 0 1,1-1-1,-1 1 0,12 27-24,5-16-139,18 18 720,-33-29-703,-1 1 1,1-1 0,-1 1 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,-1 1 0,1 1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3858.2">2773 1025 480,'9'-14'5443,"-13"5"-2514,-1 2 176,5 0-751,0-2-1266,0-3-576,13-5-496,11 1-16,5-3 0,-4 5-160,-1 5-192,-3 4-1297,-9 5-1904,1 0-1137</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4381.75">3385 748 4818,'0'0'9655,"5"-15"-8665,21-46-272,-21 52-564,1 1 0,0-1-1,1 2 1,-1-1 0,2 1 0,-1 0 0,1 0 0,0 1 0,0 0 0,18-10 0,3-3 172,-12 6-650,22-13 926,-8 20-7037,-23 6 1739</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4705.45">3676 378 7459,'0'0'5971,"14"-6"-5893,9-4-60,0 0 0,1 2 0,0 1 1,1 1-1,0 1 0,47-4 1,-70 14 215,-1 0 1,0 0-1,-1 1 0,1-1 1,-1 0-1,0 0 1,0 0-1,-1 8 1,-1-3-37,0 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,-6 10 0,-14 40-1161,23-56 402,0 0 0,1 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,2 8 1,4-5-4475,12-6-1405</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5005.31">4079 341 4530,'0'0'12222,"-5"4"-11993,-1 0-181,1 1 1,0 0-1,1 1 0,-1-1 1,1 1-1,0 0 0,0 0 1,1 0-1,-4 9 0,4-10-36,1-1 0,1 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,3 9-1,-3-12-9,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,1 1 1,-1-1-1,0 1 1,1-1-1,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 1,0-1-1,2-1 0,1 1 27,-1 0-1,0-1 0,0 1 1,0-1-1,0 0 0,0 0 1,0-1-1,-1 1 0,1-1 1,-1 1-1,0-1 1,0 0-1,0-1 0,5-5 1,-5 4 40,0-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-11 1,-1 14-105,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0 0 0,-1-1 0,1 1 0,-4 0 0,5 0-64,-7-1-929,1 1 0,0 0 0,0 0 0,-1 0 0,-8 2 0,-2 8-5828</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5799.18">4239 148 5603,'0'0'7051,"-5"-14"-5941,-20-47-209,24 58-871,-1 1-1,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 1,1 1-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 1-1,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 1,1 1-1,-7 0 0,-2-1 16,-26-1-295,0 2 0,0 1 0,0 3 0,0 0 0,1 3 0,-1 0 1,2 3-1,-1 1 0,2 2 0,0 1 0,-60 36 0,72-38 191,0 1 1,2 2-1,0 0 1,0 1-1,-18 21 1,31-30 91,0 1 1,1 0 0,0 0 0,0 0 0,1 1 0,0 0 0,1 0 0,0 0 0,1 0 0,0 1 0,0-1 0,1 1 0,1 0 0,-1 17-1,2-13 55,0-1 0,1 1-1,1-1 1,1 0 0,5 20-1,-5-26 41,0 0 0,0-1 0,1 1-1,0-1 1,1 0 0,-1 0 0,1 0 0,1-1-1,-1 0 1,13 11 0,-1-4-4,0 0 0,0-2 0,2 0-1,-1 0 1,1-2 0,0-1 0,1 0 0,0-1 0,23 4 0,-6-4 10,1-2 0,0-2 1,0-1-1,45-4 0,-61 0-17,-1-1 0,1-1 0,-1-1 0,0-1 0,0-1 0,29-14 0,-8 1 177,-1-3-1,38-27 1,-64 39-211,-1-1 0,0-1 0,-1 0-1,-1-1 1,0 0 0,0-1 0,-2 0 0,0-1 0,0 0 0,-2 0 0,0-1 0,-1-1 0,-1 1 0,0-1 0,-1 0 0,-1 0 0,-1 0 0,-1-1 0,0 1 0,-1-1 0,-3-33-1,0 41-72,-1 1-1,1 0 1,-1 0-1,-1 0 1,0 0-1,-1 0 1,0 1-1,0 0 1,0 0-1,-2 0 1,1 1-1,-1 0 0,-14-13 1,10 10-75,0 1 0,-1 1 0,0 0-1,-1 0 1,0 1 0,-1 1 0,1 0 0,-28-9 0,38 15-267,0 1 0,0-1 0,0 0-1,0 1 1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0-1,-4 3 1,-17 12-5270</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5214,15 +5652,21 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:46:48.194"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T16:40:22.012"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">40 77 208,'0'0'2166,"11"-4"230,-9 1-2321,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,-1-1 0,1 1 0,0 0 0,-2-6 0,1 8-66,1 1 1,0-1 0,-1 1-1,1 0 1,-1-1-1,1 1 1,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1 0-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,1 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 0 0,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0 0,0 1-36,-1 0 1,0 0-1,1 0 0,0 0 1,-1 1-1,1-1 1,0 0-1,0 1 0,0-1 1,-1 4-1,7 10 110,5-20 130,-8 2-185,-1 1-1,1-1 0,-1 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,-1-1 1,1-2-1,-1 6-24,0 0 0,-1-1 1,1 1-1,0-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,0 0 1,-1 1-1,1-1 0,-1 0 0,0 1 1,1-1-1,-1 0 0,1 1 0,-1-1 1,1 0-1,-1 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1-1 0,1 1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1 0 0,1-1 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-1 1,0 1-1,0-1 0,-1 1 1,1-1-1,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 0-1,1 0 0,-4 3-33,1 1 0,-1 0 0,1-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,0 1 0,-1-1 0,1 0-1,-1 6 1,3-9 32,-1 1 0,0-1 0,0 0 0,1 0-1,-1 0 1,0 1 0,1-1 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1-1,0 1 1,0 0 0,1 0 0,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,0-1 0,0 1 0,1 0 0,-1 0-1,0-1 1,14-9 198,-4-11-2098</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50 33 6115,'0'0'8534,"-4"-3"-7765,4 2-700,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 1,0-1-1,1 1 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 1,-1 1-1,0 23 1017,2-9-1481,2 63 469,20 125 1,-19-187-77,3 22-12,-2-1 1,0 39-1,-5-87-21,-1 1-1,0 0 0,-1 0 0,0 0 0,-7-16 0,-5-17-77,10 22 67,-3-7 2,1 0 1,2 0-1,-3-56 0,8 84-39,1 2 52,1-1-1,-1 1 0,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 1 1,2 2-1,2 1-9,18 20 33,0 1 0,36 54 0,-38-49-107,1-1-1,30 32 0,-52-62 114,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,4-21 295,-1-25 83,-3-163-248,0 210-603,14 10-6381,4 4 3516,-1 2-1089</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="323.07">410 282 4738,'0'0'3845,"-5"14"-3587,-14 45-170,19-57-86,-1 0-1,1 1 0,0-1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1-1 0,0 0 1,0 1-1,0-1 0,0 0 1,-1 0-1,1 0 0,0-1 1,1 1-1,-1 0 0,0-1 1,4 1-1,-3 0-31,-1 0 1,1-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,0-1-1,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 0 1,0 0-1,1 0 1,1-3-1,-2 0 155,0 0 0,0 0-1,-1 0 1,1 0-1,-1 0 1,-1 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,0-1-1,-1 1 1,0 0-1,0 0 1,-2-8 0,2 10-29,0 0 0,0 0 1,-1 0-1,1 0 0,-1 1 0,1-1 1,-1 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0 0-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 1 1,0-1-1,0 1 0,0 0 1,0 0-1,1 0 0,-1 1 1,0-1-1,-1 1 0,-4-1 1,8 36-4137,10-14 1143,12-2-1278</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1094.42">784 302 7395,'0'0'3346,"-4"16"-3205,1-9-126,-13 53 98,15-56-101,0 0 0,0 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,3 6 0,-3-9-16,1 0 0,-1 1-1,0-1 1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,2-1 0,-3 1 6,0 0 0,0 0-1,1 0 1,-1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 1 0,0-1-1,0 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0-2-1,0-1 102,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-4-4 1,3 5 5,0 0 1,0 0 0,-1 1 0,1 0 0,0-1-1,-1 1 1,0 0 0,1 0 0,-1 0 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 1 0,0 0 0,-3 0 0,5 0-100,-56 3 599,56-3-604,-1 0 1,0 0-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,1 1-1,-1 0 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1 3 1,0-5-38,1 0 1,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,2-1 0,22-7-622,-14 3 589,-1-2 0,-1 1 1,1-2-1,-1 1 0,-1-1 0,1 0 0,-1 0 0,-1-1 1,1 0-1,-2 0 0,1-1 0,7-17 0,-7 11 488,0-1 0,-1 0 0,-1 0 0,0-1-1,-1 1 1,-1-1 0,0-20 0,-2 37-98,0 11-95,-1 104-346,18 402 165,-17-515-49,16 95-400,-15-88 245,2 0 0,-1-1 0,1 1 0,0-1 0,1 1 0,-1-1 0,1-1 0,1 1 0,9 11 0,-13-16 51,1 0 1,-1-1-1,1 0 1,0 1-1,-1-1 1,1 0-1,0 1 0,0-1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0-1 1,3 1-1,-4-1 49,1 0 1,-1 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,2-2 25,0-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,0-6-1,-1 3 83,0 0 1,0-1-1,-1 1 1,0 0-1,0 0 0,-1 0 1,0 0-1,0 0 1,-1 0-1,0 1 0,-1-1 1,1 1-1,-2 0 1,1 0-1,-1 0 0,1 1 1,-2 0-1,1-1 1,-1 2-1,0-1 0,0 1 1,-12-8-1,9 5 59,-1 1 0,0 0 1,-1 0-1,0 1 0,0 0 0,0 1 0,-1 0 0,1 1 0,-1 1 0,0-1 0,-1 2 1,1 0-1,0 0 0,-14 1 0,46-2-10523</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2189.76">1232 387 6627,'0'0'2356,"11"-17"-1764,-3 4-516,6-8 158,-1-1 1,-1 0-1,0-1 1,11-37 0,-19 45-50,-1 0 1,0 0 0,-1 0 0,-1 0 0,-1-1 0,0 1 0,-1 0 0,-4-22-1,5 35-102,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 1-1,0-1 1,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-4-1-1,5 29-367,1-15 285,0 22 4,1 1-1,7 37 1,-7-63-1,1-1-1,0 1 0,1-1 0,0 0 0,1 1 1,0-2-1,0 1 0,1 0 0,0-1 0,0 0 1,1 0-1,11 12 0,-15-19-22,0 1-1,0 0 1,0-1 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0-1,1 0 1,0-1 0,-1 1-1,1 0 1,-1-1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1-1 0,0 1-1,-1-1 1,1 0 0,-1 1-1,1-1 1,-1-1 0,1 1 0,-1 0-1,0 0 1,1-1 0,-1 0-1,0 1 1,2-4 0,10-6-42,-1-2-1,0 0 1,19-26 0,-22 26 185,-8 11-125,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 1 1,1-1-1,0 1 0,0-1 1,0 1-1,-1 0 1,1 0-1,1 0 1,2-1-1,-3 2 3,-1 0 0,0 0-1,0 0 1,1 0-1,-1 1 1,0-1 0,0 0-1,0 1 1,1-1-1,-1 1 1,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,0 2-1,6 9 61,1-1-1,0 0 1,0 0 0,16 14-1,-20-21-44,-1-1-1,2 0 0,-1 0 1,0-1-1,1 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1-1 1,0 0-1,0 0 1,0 0-1,0 0 0,7-1 1,-11 0-11,0-1-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0-1,0-2 1,8-35 168,-7 35-164,1-16 79,0 0 0,-1 0 0,-3-30 0,2 48-79,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-2 1 0,2 0-114,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,1-1-1,-1 1 1,1 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0-1 0,0 2-1,10 1-142,0 0 0,1 0-1,-1-2 1,13 2-1,-15-3 265,1 1 0,-1 1 0,0-1 0,0 1 0,0 1 0,0 0 0,16 7 0,-17-5-60,-3-2 110,0 0-1,1 0 0,0 0 0,0 0 1,-1-1-1,12 3 0,-16-5-42,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0-1,0-1 1,-1 1 0,1-1 0,-1 0 0,2 0 0,-1-1 19,0 0 1,0 0-1,0 0 0,0 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0-1 0,0 1 0,0-4 1,-1-24 289,0 4 88,1 26-471,-1 0 0,1-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,0 1 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,37 22-397,-26-16 188,0 1 0,0 0 1,17 14-1,-27-19 253,0-1 0,0 1 0,0 0 0,-1 0 0,1 0-1,-1-1 1,1 2 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,-1 1 0,0 2 0,-1-1 146,-1 0 1,1 0-1,-1-1 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,-1 0 0,0-1-1,1 1 1,-1-1-1,-6 3 1,3-1-478,1-1-1,-1 0 1,0 0 0,0-1-1,0 0 1,0 0 0,-12 1-1,14-3-3532</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3138.39">2295 402 5987,'0'0'6221,"-5"4"-6026,-19 16-107,28-25 93,0 0-1,0 0 1,0 0 0,-1-1-1,1 1 1,-1-1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1-8 0,0-3 65,-1 0-1,0-33 1,-3 62 555,1-7-782,-1-1 0,1 1 0,0 0-1,0-1 1,1 1 0,-1-1 0,3 7 0,-3-9-59,1-1 0,0 1-1,-1-1 1,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,1-1 0,0 1-2,-1 0 1,1 0-1,0-1 1,-1 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1-1-1,0 1 1,0-1-1,0 1 1,4-4-1,-4 2 71,1 1 0,0-1 0,0 1-1,0 0 1,0 1 0,0-1 0,0 0-1,6-1 1,-8 3-18,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 0,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 1,-1 0-1,1-1 0,-1 1 1,0 0-1,1 0 1,-1 0-1,0 0 0,13 29 82,-9-19-49,-3-10-55,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,2-2 17,0 0 0,-1-1 1,1 1-1,-1 0 0,0-1 1,0 1-1,0-1 0,-1 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,1-8 1,-2 12 11,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1 0 1,0 0-1,1-1 1,-1 1-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,28 16 589,-17-10-443,-10-6-204,0-1 0,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 0,2-2 1,0-1-743,-1-1 1,0 1-1,0 0 0,-1-1 0,1 0 1,-1 1-1,-1-7 0,1 5-120,0-18-4789</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3311.35">2491 0 4994,'0'0'8516,"-16"10"-9444,16 9-49,8 9-1744,-4 2-1649</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5056.4">2061 873 6355,'0'0'6336,"-7"-15"-5381,-22-46-301,28 58-531,0 0-1,-1 1 1,1-1 0,-1 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,0 0 0,-1 0-1,1 0 1,0 0 0,-6-2-1,7 3-94,0 1-1,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 1,0 1-1,-2 1 0,-1 0-35,1 1 0,0 0 0,1 0 0,-1-1 1,0 2-1,1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 1,-1-1-1,-1 7 0,2-6-20,0 1-1,1-1 1,-1 0 0,1 1-1,0-1 1,0 1 0,0-1-1,0 0 1,1 1 0,0-1 0,0 0-1,2 7 1,-2-9-30,1 0-1,-1 0 1,1-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,0-1-1,0 0 1,1 1 0,-1-1 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1-1,0-1 1,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,-1 0-1,3 0 1,-3-1 45,0 1 1,0-1-1,-1 1 0,1-1 1,0 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 0,0-1 1,0 1-1,1-1 1,-1 0-1,0 1 0,0-1 1,-1 0-1,1 1 0,0-1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1-2-1,3-69 1748,-4 65-1242,0 7 115,22 46-701,-2 1 0,22 80 0,-36-103 83,0 1 0,-2 0 0,-1 0-1,-1 0 1,-1 0 0,-1 1 0,-5 37 0,5-61 12,0 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,0-1 0,-1 1-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 1 0,-1-1 0,0 1-1,0-1 1,-1 0 0,1 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1 0,0 0 0,1 0-1,-1 0 1,-2 0 0,2 0 3,0-1 0,0 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,1-1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0-3 1,-1-6-64,0-1 0,1 0 0,0 1 0,1-1 0,0 0 0,1 0 0,1 0 0,0 1 0,1-1 0,0 1 0,7-19 0,6-5-309,2 0-1,30-45 0,-14 25 35,-33 53 371,1-1 1,-1 1-1,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 1,-1 0-1,0 0 0,0-6 0,0 2 1581,0 12-1654,0 0 1,0-1 0,1 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,1-1 0,1 5-1,-2-7 9,0 1-1,1 0 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,2-2-1,-1 0 10,1 0 0,-1 0-1,0 0 1,1 0 0,-1-1 0,0 1-1,-1-1 1,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,0 0-1,3-8 1,-3 6 146,-1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,0-9 0,0 5 573,0 8-484,1 28-379,9 17 125,17 52 1,-16-64 52,-1 1 0,-2 0 0,6 60 0,-13-82 15,0-3-58,-1 1 1,1-1-1,-2 1 0,1 0 1,-1-1-1,-3 14 0,3-21 73,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0-1 0,1 1 1,-1 0-1,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,-3 0 0,4 1-44,-1-1-1,0 1 1,0-1-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1 0,1 0-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0 0,-1-4-1,-3-58-693,5 55 536,-1-7-484,1 0 1,0 0-1,2 1 1,0-1-1,0 0 1,9-20-1,-3 15-1265,0 1-1,2 0 1,0 1 0,15-20-1,-5-1-274,-18 25 4691,-2 0 9427,8 33-11761,-7-15-129,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0-1 1,1 1 0,-1-1-1,1 0 1,0 0-1,0 0 1,5 2 0,-7-3-23,0 0 1,0-1 0,1 0 0,-1 1-1,0-1 1,1 0 0,-1 1 0,0-1-1,1 0 1,-1 0 0,0 0 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0-1,0-1 1,1 1 0,-1-1 0,0 1-1,0-1 1,0 0 0,1 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,1-2 1,-2 3 3,1-1 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,0 1 0,-1-1-1,1 0 1,0 0 0,0 1-1,-1-1 1,1 1 0,0-1-1,0 0 1,0 1 0,0 0-1,0-1 1,0 1 0,0-1-1,0 1 1,-1 0 0,3 0-1,8 18 150,-11-16-175,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,3 1 0,-3-2-19,-1 0-1,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1-1 0,-1 1 0,1-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 0 0,0-2 0,17-58 152,-16 53-116,-2 8-25,0 1 1,1-1 0,-1 1-1,0 0 1,0-1 0,0 1-1,1 0 1,-1 0-1,0-1 1,0 1 0,1 0-1,-1-1 1,0 1 0,1 0-1,-1 0 1,0 0 0,1-1-1,-1 1 1,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 1-1,23 10 146,8 1 11,-26-12-237,-1 0 0,1-1 1,-1 0-1,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,6-4 0,26-22-8289,-28 19 30</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5242,15 +5686,22 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:46:52.193"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T16:40:28.809"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">59 35 3554,'0'0'4730,"-7"-4"-2102,4 6-2626,3-2-23,3-3-142,-3 1 152,0 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,1 1 1,-1-1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,-2 2 0,1-1-13,1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1-1,1 1 1,0-1 0,-1 0 0,1 1 0,0-1 0,0 1-1,0-1 1,0 3 0,0-3 12,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,2 0 0,0 0 7,24-4 246,-26 4-231,-1-1 1,1 1-1,0-1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,-1 0-1,1 1 0,-1-1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,-1-1-1,0 2-17,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 7,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,-1 1 0,5-12 288</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9 203 4722,'0'0'10528,"0"0"-10520,0 0 0,0 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 0,0 0 1,0 1-1,-1 25 48,1 1 0,2-1 0,0 1 0,2-1 0,1 0 0,16 49 0,-21-74-54,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,1 0 1,5-21 149,0-29 302,-6 49-431,0-9 16,1-19 276,2 24-219,2 15-160,0 1 47,-1 0 1,1-1 0,1 1-1,0-1 1,0-1 0,1 1-1,12 12 1,-15-17-4,1-1 1,-1 0 0,1 0-1,-1 0 1,1-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,1-1 0,0 0-1,-1 0 1,1 0-1,0-1 1,0 0 0,7 1-1,-10-3 7,0 1-1,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 1,0-1-1,1 1 0,-1-1 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,-1 1 0,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,-1 1 0,1-1 1,0 0-1,-1 0 0,0-3 1,4-12 213,-2 0 1,-1-1-1,0-19 1,-1 34-106,0-19 347,0 0 0,-7-36 0,5 50-399,0 1 0,-1 0 0,0 0-1,0 0 1,0 1 0,-1-1-1,0 1 1,-1 0 0,0 0-1,-6-7 1,10 12-730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="643.38">396 330 6371,'0'0'7235,"3"-10"-6752,-1 6-407,13-43 155,-14 44-153,0-1 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0 0,-1 0-1,1 0 1,-1 1-1,1-1 1,-3-6 0,3 9-48,-1 1 1,1-1 0,-1 0 0,1 1 0,-1-1-1,1 0 1,-1 1 0,0-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,0 1 0,0-1-1,1 1 1,-1 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,1 0 0,-1 0 0,0 1-1,0-1 1,1 1 0,-1-1 0,0 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1 0,-1-1 0,1 1-1,-1 0 1,1 0 0,0-1 0,-1 1-1,1 1 1,-2 15-89,1-1 0,0 1 0,1 0 0,1 0 1,1-1-1,4 22 0,-5-34 11,0-1 0,-1 0-1,1 1 1,1-1 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,1-1 0,-1 0 0,0 1 0,4-3 0,-3 1 15,1 0 0,-1 0-1,1 0 1,-1-1 0,0 0-1,0 0 1,0 0 0,-1-1 0,1 1-1,-1-1 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,3-7-1,1 0 135,-1-1 0,0 0 0,-1 0 0,0 0 0,2-17 0,-1 12 1413,-1 32-677,-1-3-1111,6 30 294,-8-31-3,1-1-1,1 1 1,-1 0 0,2-1-1,0 0 1,0 1-1,9 14 1,-12-24-33,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0-1 0,5-4-13,0-1 0,-1 0 0,0-1 0,0 1 1,4-10-1,-5 6 41,-1 0 1,0 0-1,-1 0 1,0 0-1,0-1 0,-2 1 1,0-17-1,-4-16-4144,0 36 1110,-4 4-1700</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="871.03">589 72 9973,'0'0'4754,"16"-5"-9813,5 19 2466,-5 3-2481</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1869.83">834 217 6147,'0'0'8369,"-16"-1"-7988,-48 1-172,62 1-206,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,1 1 0,-1 0 1,1-1-1,-1 1 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,0 0 0,0 1 1,0-1-1,0 4 0,0-1-4,-1 1-16,1 0-1,0 0 1,0 0-1,0 0 1,0 0 0,1 0-1,0-1 1,1 1-1,1 6 1,-2-11 16,0 1 0,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,0 0 0,-1-1 1,1 0-1,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1-1 0,1 1 1,0-1-1,-1 1 1,4-2-1,-4 2 15,1-1 1,-1 1-1,1 0 1,0 1-1,-1-1 1,1 0 0,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 1-1,0 1 1,23 47-56,-20-37 114,10 20 28,-2 1-1,-1 0 0,12 66 1,-21-84-86,0-1 0,-1 1 0,0-1 1,-2 1-1,0 0 0,0-1 0,-1 1 1,-1-1-1,-1 0 0,0 1 0,-8 16 1,9-27 27,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 1-1,-6 3 1,10-6-23,-1 0 0,1-1-1,-1 1 1,0-1 0,1 1-1,-1 0 1,0-1-1,0 1 1,1-1 0,-1 0-1,0 1 1,0-1 0,0 0-1,0 1 1,1-1 0,-1 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0-1 1,0 1 0,1 0-1,-1-1 1,0 1 0,0 0-1,0-1 1,1 1-1,-1-1 1,0 1 0,1-1-1,-1 0 1,0 1 0,1-1-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 1-1,1-1 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1 0,0 0-1,0 0 1,0-1 0,-2-15-68,0 0 1,1 0 0,1 0-1,1-1 1,0 1 0,1 0 0,6-22-1,42-120-1192,-10 41 172,-29 77 1062,-3 1 0,0-1 1,-3 0-1,0-50 0,-5 91 36,0 0 0,0-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,0 0 0,-1 0 1,1 0-1,0 0 0,-10 16 556,6 6-628,0 1 0,2-1 0,1 1 0,0 0 0,4 22 0,-2 12 43,-1-48-12,0 2 26,0 0 0,1 0-1,3 21 1,-3-30-26,-1 0 0,0-1-1,1 1 1,-1 0 0,1 0-1,0-1 1,-1 1 0,1 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,1 0 1,-1 1 0,0-1-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0-1-1,-1 1 1,1-1 0,0 1 0,0-1-1,-1 1 1,5-1 0,-4 0-31,-1-1 0,1 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 1,-1-1-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,0 0 0,1-3 0,17-42-640,-12 19 686,-6 21-2,1 1 0,0-1-1,0 0 1,0 1 0,1-1-1,3-6 1,-5 12-3,-1 1-1,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 1,1 0-1,-1-1 1,0 1 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,0-1 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0-1,0 1 1,1-1 0,-1 0-1,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 0-1,0 1 1,0-1 0,1 1-1,-1 0 1,17 24-40,-14-20 76,5 7 44,0-1 1,2 0-1,-1 0 0,1-1 1,0-1-1,13 9 1,-20-15-71,0-1 0,0 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,6 2 0,-8-3-1,1 1 1,-1 0-1,0-1 1,1 1-1,-1-1 0,0 0 1,0 1-1,0-1 0,1 0 1,-1-1-1,0 1 1,0 0-1,-1 0 0,1-1 1,0 1-1,0-1 0,-1 0 1,1 1-1,-1-1 1,1 0-1,0-2 0,7-11 23,-1 0 0,-1 0-1,0-1 1,-1 1-1,-1-2 1,-1 1 0,0 0-1,-1-1 1,-1 0-1,0 1 1,-1-20 0,-1 12 15,-1 0 1,-2 1 0,0-1 0,-1 1 0,-1 0-1,-1 0 1,-13-30 0,19 53-19,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,-2 17 183,2 23-542,3-16 303,1-2 1,1 1 0,1 0-1,1-1 1,1 0 0,21 39-1,11 33-7616</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2047.17">1253 227 6163,'0'0'6947,"61"-57"-8228,-24 46-159,-12 1-1954</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2758.05">1581 483 5763,'0'0'12581,"-5"-1"-12466,5 1-112,-1 0-1,0 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,0 0-1,1 0 1,-1 0-1,1-1 1,-1 1 0,0 0-1,1-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,1 0-1,17-27 27,-11 20-20,10-13 30,0-1 0,-2-1 0,17-31 0,-27 41-38,1 0 0,-1 0 0,-1 0 0,-1-1 0,0 0 0,0 1 0,-2-1 0,1-23 0,-1 11 4,-3-51-365,2 73 353,0 0-1,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,0 1 0,-1-1-1,1 1 1,-5-5-1,6 8 12,0 1 1,1-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,0 0-1,1 0 0,-1-1 1,1 1-1,0 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,1 1-1,-6 32-105,0 13 109,3 87 0,2-122-118,1 1 1,0-1-1,1 0 1,1 0-1,0 0 1,0-1-1,1 1 0,1-1 1,0 1-1,0-2 1,1 1-1,12 16 0,-16-24-96,0-1 0,0 0 0,-1 0 0,2 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0-1 0,-1 0 0,1 1 0,0-1 0,4-1 0,-4 0-176,1 0 0,-1 0 1,0 0-1,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,-1 0 0,1 1 0,3-7 1,0 0 59,0 0 0,-1 0 1,0 0-1,0-1 1,3-10-1,-6 12 1431,1-1 0,-1 1 1,0-1-1,-1 0 0,1-11 3380,-1 53-3880,0-26-618,0 0 0,0 0 0,0 0 0,1 0 0,0 0 1,1 0-1,3 7 0,-5-12 1,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 1,0-1-1,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,4 1 0,-5-2-11,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 1,-1-1-1,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,2-4 1,10-50 401,-12 50-313,1 0 0,-1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,-2-7 0,3 11-51,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 1 0,-1-1 1,0 1-1,0-1 0,1 1 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 1,0 1-1,0-1 0,0 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,-4 1 0,4-1-199,1 1 0,-1 0 0,1-1-1,0 1 1,-1 0 0,1 0 0,0 0-1,0-1 1,0 1 0,0 1-1,-1-1 1,2 0 0,-1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,1 0-1,-1 1 1,1-1 0,-1 1 0,1-1-1,-1 0 1,1 1 0,0-1 0,0 1-1,-1-1 1,1 1 0,1 1 0,-2 12-4761</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3104.85">2045 106 8756,'0'0'2414,"4"15"-2328,-1-1-72,-2-7-11,0-1-1,1 1 0,0 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,1 0 1,-1 0-1,1 0 0,1 0 1,8 9-1,20 13 98,-19-16-155,1 1 0,17 21 0,-29-31 148,0 1 1,0 1-1,0-1 1,0 0-1,-1 1 1,0-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,0 0 0,0 0 1,0 10-1,-1-14 61,0 0-113,1-1 1,-1 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,-1-1 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,0-1 0,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 0-1,-1 0 1,1 1 0,0-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1-25-2054,5-10-2360,10-8-2511</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3382.06">2308 21 8292,'0'0'5714,"-17"12"-4833,-50 37-377,65-47-496,-1 1 0,1-1 1,0 1-1,0-1 0,0 1 0,0 0 0,0-1 1,1 1-1,-1 0 0,1 0 0,0 0 0,-1 0 1,2 1-1,-1-1 0,0 0 0,1 0 1,-1 0-1,1 1 0,0-1 0,0 0 0,0 1 1,0-1-1,1 0 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,0-1 1,1 1-1,-1-1 0,5 3 0,3-1-135,0 0-1,0-1 1,1 0 0,0 0-1,0-1 1,16 0 0,26 6-260,-52-8 401,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 1-1,-1-1 1,1 1 0,-1-1 0,0 0-1,1 1 1,-1-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,1-1-1,-1 1 1,0-1 0,0 1-1,0-1 1,0 2 0,-11 15 987,-27 10 456,-49 15-5552,51-26-326</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5270,16 +5721,15 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:46:58.521"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T16:40:33.613"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">47 44 544,'0'0'3255,"-17"-21"-320,15 21-2939,1 1 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 2 0,-8 39-134,8-42 116,2 0 51,0 0 0,0-1 0,0 1 0,-1 0 0,1-1-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0-1,-1 0 1,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0-1,0 0 1,0 1 0,0-1 0,-1-2 0,1 2 5,0 2-37,1 0 0,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 1 0,1-1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 1 1,0-1 0,0 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 1,1 1 0,-1-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,0 1-1,-1-1 1,1 1-1,0-1 1,0 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,-1 0-1,1 0 1,-1 1-1,2-2 69,1 1 0,-1-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 0 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0-1 0,0 1-1,0-1 1,3-2-2879</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2378.69">70 61 80,'0'0'7025,"25"0"-7105,7-2 409,-1-2 0,45-9 0,15-3-159,-13 4-105,-52 7-22,0 1-1,1 1 1,49 1-1,57 6 1196,-100 4-1598,-10 5 364,-1 2 0,0 1-1,-1 0 1,-1 2 0,26 28 0,-23-22-13,2-1 1,52 39-1,-28-33 12,1-2 0,96 36-1,132 57 14,-227-95-3,-1 2 0,-1 3 0,-2 2-1,73 62 1,-44-42 7,-56-40-10,0 1-1,34 29 0,-43-32-3,0-2 1,1 0-1,1 0 0,-1-1 0,19 7 0,-17-8-9,1 2 0,-1-1 0,0 2 0,13 10 0,96 67 93,-81-60-118,-37-24 24,0 1 1,-1-1-1,1 1 1,-1-1-1,1 1 0,-1 0 1,0 1-1,0-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0 1 1,4 8-1,-7-13-60,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,1 0 1,-1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,1 0 1,-1 0-1,0 1 0,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1-1-1,0 1 0,1 0 1,2-5-3987</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">162 60 5795,'0'0'9649,"-5"0"-8651,4 0-919,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1-1,-1 0 1,0 0 0,1 1 0,-1-3 0,1 2-44,0 0-1,0 0 1,0-1 0,1 1-1,-1 0 1,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0-1 0,-1 1-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1 0,0-1-1,2 0 1,0-2-16,1 1-1,-1 0 1,1 0 0,-1 0 0,1 1-1,0-1 1,-1 1 0,1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 1-1,7 1 1,-8-1-16,0 1 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,-1 0 1,0 0 0,1 1 0,-1-1-1,-1 0 1,2 4 0,1 10-46,-1 0 0,0 1 0,-1-1 0,-1 0 0,-1 1 0,0-1 0,-1 0 0,-1 0 0,-1 0 0,0 0 0,-1 0 0,-1-1 0,-1 0 0,-13 24 0,15-30-288,-1 0-1,0 0 1,-1 0 0,0-1-1,-1-1 1,0 1 0,0-1-1,-1 0 1,0-1 0,0 0-1,0 0 1,-1-1 0,0-1 0,-1 1-1,1-2 1,-1 1 0,0-1-1,0-1 1,0 0 0,-1-1-1,1 0 1,-20 1 0,30-3 273,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 1 1,0 0-1,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 1,1 1-1,8-16-717,-6 13 813,1 0 1,0 0-1,0 1 1,0-1-1,0 1 0,0 0 1,0 1-1,1-1 1,-1 0-1,1 1 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 1 1,1 0-1,0 0 1,-1 0-1,1 1 1,-1 0-1,1 0 0,5 2 1,9 3 1075,0 2 0,-1 0 0,34 21 0,-2-1 802,-27-15-1630,-8-5-6137</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5299,20 +5749,15 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:47:12.099"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T16:40:35.701"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 570 7940,'0'0'8782,"21"0"-9155,85 17-463,-18-2-3600,-77-12 2013,-11-3 2268,0 0 0,0 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0-1,0 1 1,0-1 0,-1 0-1,1 0 1,0 0-1,0 1 1,0-1 0,-6 7-1809</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="335.2">57 702 1313,'0'0'6571,"28"0"-4602,4-6-2054,-1-1 1,51-18-1,-43 12-3567,-25 7 890</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="719.83">111 445 6851,'0'0'3839,"12"-3"-3676,24-1-116,-1 2 1,1 2-1,39 5 0,-72-5-53,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0-1,0 1 1,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,0 2 0,-2 7 41,0-1 1,0 0 0,-1 0 0,-1 0-1,0-1 1,-1 0 0,0 0 0,-14 20-1,-4 0-35,12-19-186,1 2 1,1 0-1,0 0 0,1 0 1,0 1-1,1 1 0,-8 23 0,9-15-2020,-2-3-1334</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1907.13">213 119 4530,'0'0'6905,"0"-5"-5753,-1-1-971,1 1 0,-1 0-1,1-1 1,1 1 0,-1-1-1,1 1 1,0 0 0,0-1-1,1 1 1,-1 0 0,1 0 0,4-7-1,-5 10-180,1-1-1,0 0 0,0 1 1,1-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,1 0-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 0,0 1 1,1 0-1,3 0 0,-6 0-16,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,-1-1 0,1 1 0,0 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 2-1,1 42-72,-2-32 69,0-3 10,0 1 1,-1-1 0,0 0 0,-1 0-1,0 0 1,0 0 0,-1 0 0,-9 16 0,-11 27-19,25-52 17,1 0-1,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 1,1 1-1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,3-1 0,33 0-175,14-11 335,-40 9-116,0 0-1,0 0 0,0 1 1,16 0-1,-26 2-41</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2586.49">612 35 5250,'0'0'6334,"0"48"-5867,0-28-248,1-5 28,-1 0 0,-1 0 0,0 1 0,0-1 0,-2 0 0,-6 23-1,4-32-872</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3090.38">615 67 4130,'0'0'7667,"27"-15"-6920,-14 10-663,1 2 0,0 0 1,0 0-1,0 1 0,0 1 0,0 0 0,20 2 0,-32 0-81,-1 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 1 0,-1-1 0,1 2 0,-6 41 363,2-37-309,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0-1 0,-1 1 0,-9 4 0,13-7-530,-1 0 1,0 0-1,1-1 1,-1 0-1,0 1 1,0-2 0,0 1-1,-7 1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">35 21 1825,'0'0'10949,"-4"-3"-9901,-1-2-1209,-11-7 2788,16 12-2602,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 1,0 0-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,-1 0 0,2 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1 296 295,0-203-8376,0-112 772</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5332,17 +5777,15 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:47:33.313"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-24T16:40:38.300"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 28 7187,'0'0'4490,"20"-12"-2313,-11 9-2179,1 0 0,-1 0-1,1 1 1,0 0-1,-1 1 1,1 0 0,0 1-1,19 1 1,-28 0-4,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-1 0-1,1 2 1,-1 5 56,0 0 1,0 0 0,-1-1-1,0 1 1,-4 11 0,1-8-8,-1 1 0,-1-1 0,0 0 0,0-1 1,-2 1-1,1-2 0,-1 1 0,-21 18 0,27-27-81,2-2-201,91-17-247,-86 17 434,0 0 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1 0,-1 0 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 1 0,0 0-1,5 4 1,-7-5 65,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 3 0,-1 0 127,1-1 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1-1 1,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0-1-1,0 0 1,0 0 0,0 0-1,-6 1 1,-9 0 135,-1 0 0,-29-1-1,37-1-568,12 0 132,-1 0-1,1 0 1,-1 0 0,0-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1-1-1,0 1 1,-1-1 0,1 1 0,-1-1-1,1 1 1,0-1 0,0 1-1,-1-1 1,1 1 0,0-1 0,0 1-1,-1-1 1,1 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0-1,1 1 1,-1-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0-1,1-1 1,0 1 0,17-12-5253</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="352.51">422 87 2113,'0'0'10197,"-10"74"-9397,3-46-416,4-1-80,0-4-240,-1-3 32,4-3-96,0-3-160,0-3-864,0-5-1041,0-2-976</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="694.91">402 58 9060,'0'0'5074,"3"-1"-5327,6 0 238,0 0 0,0 0 0,0 1 0,0 0 0,0 1 1,0-1-1,0 2 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1 0 0,10 5 0,-13-6 10,1 1 0,-1 0 0,0-1 0,0 1 1,0 1-1,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,0-1 0,2 9 1,-4-7 20,-1-1 0,1 0 0,-1 0 1,0 1-1,0-1 0,-1 0 1,1 0-1,-2 0 0,1 0 0,-1-1 1,1 1-1,-1-1 0,-1 1 1,1-1-1,-1 0 0,-9 9 0,-6 5-55,-1 0 0,-39 26 0,26-21-366,3-3-6097,19-18 983</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">29 104 5587,'0'0'6755,"-2"-12"-5918,1 6-664,0-6 438,-2 1 0,1-1 0,-1 0 0,-1 1 0,-8-16 0,12 77 219,0 324-611,1-373-250,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 0-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,3-1-1,29-5-436,-12-3-45,0-2 0,-1 0 0,-1-1 0,0 0 0,-1-2 0,0 0 0,-1-2 0,26-28 0,-39 39 424,-1 0-1,0 0 1,0-1-1,0 1 1,-1-1-1,1 0 0,-1 1 1,-1-1-1,3-10 1,-4 14 227,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 1-1,-2-1 0,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 0,0 1 1,0-1-1,1 0 1,-1 0-1,0 1 0,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 0,0 0 1,-2 0-1,4 15-75,1 41-33,2-1 0,13 76 1,-4-58-153,12 57 335,-19-113-989,0-1 0,0 0 0,10 18 0,-6-21-3059,-1-6-2195</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5668,8 +6111,8 @@
   </sheetPr>
   <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:M501"/>
+    <sheetView topLeftCell="A473" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26243,10 +26686,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:B78"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26316,134 +26759,182 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E45" t="s">
+        <v>323</v>
+      </c>
+      <c r="G45" t="s">
+        <v>326</v>
+      </c>
+      <c r="H45" t="s">
+        <v>328</v>
+      </c>
+      <c r="J45" t="s">
+        <v>330</v>
+      </c>
+      <c r="L45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" t="s">
+        <v>327</v>
+      </c>
+      <c r="H46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E47" t="s">
+        <v>325</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>38</v>
+      </c>
+      <c r="L48" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
@@ -26594,8 +27085,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26644,12 +27135,12 @@
         <v>222</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -26657,12 +27148,12 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="C12:G13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1" xr:uid="{AAAF79BF-3B25-4693-84E2-A916E960EF5E}"/>
@@ -26673,103 +27164,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C963D1AA-AE0B-4ED6-8E7D-C6E5D4001A7C}">
-  <dimension ref="A2:C24"/>
-  <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="28.1328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8864C287-2686-4A67-9E7E-246CBEEC566B}">
   <dimension ref="B2:B141"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
@@ -26777,272 +27175,4564 @@
   <sheetData>
     <row r="2" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B26" s="5" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="6" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B34" s="5" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="6" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B42" s="5" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="6" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="6" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B50" s="5" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" s="6" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" s="6" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B58" s="5" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" s="6" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" s="6" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B66" s="5" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" s="6" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" s="6" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B73" s="5" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B81" s="5" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B89" s="5" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B97" s="5" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" s="7" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B105" s="5" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" s="7" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" s="7" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B113" s="5" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B115" s="7" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B117" s="7" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B121" s="5" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B123" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B125" s="7" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B129" s="5" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B131" s="7" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B133" s="7" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="B137" s="5" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B139" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B141" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42777241-FDFE-4BCC-83D7-F2F9558053FF}">
+  <dimension ref="B2:I49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="E6" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="E7" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="E8" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="E9" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="E10" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="E11" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E12" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:9" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="E14" s="9" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="E15" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="E16" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="E17" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="E18" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E19" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E21" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="27" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>309</v>
+      </c>
+      <c r="E41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>318</v>
+      </c>
+      <c r="E49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="E12:I13"/>
+    <mergeCell ref="E19:I20"/>
+    <mergeCell ref="E21:I23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68764FFD-B17E-4E7D-B400-3C65F9D6BCF7}">
+  <dimension ref="B2:C503"/>
+  <sheetViews>
+    <sheetView topLeftCell="A483" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C503"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>174.49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>175.45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>178.53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>185.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>194.15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>163.33000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>175.34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>154.69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>188.25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>172.33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>181.28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>167.91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>152.01</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>150.78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>175.52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>165.01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>184.01</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>162.22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>182.71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>151.47999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>187.97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>196.58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>187.11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>190.07</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>184.69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>161.69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>189.09</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>184.67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>185.95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>175.67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>176.4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>176.49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>159.81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>198.9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>153.49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <v>190.1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>176.2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>198.15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>175.28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>150.68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>184.44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>174.92</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>172.46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>198.27</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <v>28</v>
+      </c>
+      <c r="C52">
+        <v>172.53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>39</v>
+      </c>
+      <c r="C53">
+        <v>199.45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <v>156.47</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>32</v>
+      </c>
+      <c r="C55">
+        <v>184.44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>150.61000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57">
+        <v>23</v>
+      </c>
+      <c r="C57">
+        <v>184.66</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58">
+        <v>39</v>
+      </c>
+      <c r="C58">
+        <v>182.76</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59">
+        <v>22</v>
+      </c>
+      <c r="C59">
+        <v>160.85</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>174.77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>158.81</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62">
+        <v>31</v>
+      </c>
+      <c r="C62">
+        <v>150.83000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63">
+        <v>32</v>
+      </c>
+      <c r="C63">
+        <v>170.65</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64">
+        <v>29</v>
+      </c>
+      <c r="C64">
+        <v>184.34</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65">
+        <v>29</v>
+      </c>
+      <c r="C65">
+        <v>197.97</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66">
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <v>169.13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67">
+        <v>36</v>
+      </c>
+      <c r="C67">
+        <v>159.88</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>160.34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69">
+        <v>39</v>
+      </c>
+      <c r="C69">
+        <v>152.26</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70">
+        <v>38</v>
+      </c>
+      <c r="C70">
+        <v>182.11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>164.05</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>174.09</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73">
+        <v>34</v>
+      </c>
+      <c r="C73">
+        <v>152.16999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74">
+        <v>31</v>
+      </c>
+      <c r="C74">
+        <v>155.54</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>199.82</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76">
+        <v>35</v>
+      </c>
+      <c r="C76">
+        <v>155.30000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>188.25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78">
+        <v>37</v>
+      </c>
+      <c r="C78">
+        <v>194.41</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>164.2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80">
+        <v>39</v>
+      </c>
+      <c r="C80">
+        <v>172.87</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81">
+        <v>23</v>
+      </c>
+      <c r="C81">
+        <v>182.52</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>172.86</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83">
+        <v>21</v>
+      </c>
+      <c r="C83">
+        <v>162.58000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84">
+        <v>32</v>
+      </c>
+      <c r="C84">
+        <v>185.17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>168.25</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86">
+        <v>21</v>
+      </c>
+      <c r="C86">
+        <v>193.93</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87">
+        <v>37</v>
+      </c>
+      <c r="C87">
+        <v>178.92</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>163.18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89">
+        <v>34</v>
+      </c>
+      <c r="C89">
+        <v>168.32</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90">
+        <v>39</v>
+      </c>
+      <c r="C90">
+        <v>184.71</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>195.68</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92">
+        <v>34</v>
+      </c>
+      <c r="C92">
+        <v>195.29</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93">
+        <v>24</v>
+      </c>
+      <c r="C93">
+        <v>156.51</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94">
+        <v>34</v>
+      </c>
+      <c r="C94">
+        <v>196.35</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95">
+        <v>39</v>
+      </c>
+      <c r="C95">
+        <v>172.06</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B96">
+        <v>39</v>
+      </c>
+      <c r="C96">
+        <v>190.02</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97">
+        <v>31</v>
+      </c>
+      <c r="C97">
+        <v>196.11</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98">
+        <v>34</v>
+      </c>
+      <c r="C98">
+        <v>192.72</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99">
+        <v>31</v>
+      </c>
+      <c r="C99">
+        <v>153.41999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>162.09</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101">
+        <v>35</v>
+      </c>
+      <c r="C101">
+        <v>180.2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102">
+        <v>31</v>
+      </c>
+      <c r="C102">
+        <v>170.11</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103">
+        <v>38</v>
+      </c>
+      <c r="C103">
+        <v>164.39</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104">
+        <v>29</v>
+      </c>
+      <c r="C104">
+        <v>161.09</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105">
+        <v>23</v>
+      </c>
+      <c r="C105">
+        <v>159.01</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>191.6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107">
+        <v>31</v>
+      </c>
+      <c r="C107">
+        <v>151.32</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B108">
+        <v>34</v>
+      </c>
+      <c r="C108">
+        <v>188.75</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109">
+        <v>32</v>
+      </c>
+      <c r="C109">
+        <v>168.98</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B110">
+        <v>22</v>
+      </c>
+      <c r="C110">
+        <v>162.08000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B111">
+        <v>35</v>
+      </c>
+      <c r="C111">
+        <v>165.41</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B112">
+        <v>25</v>
+      </c>
+      <c r="C112">
+        <v>190.16</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113">
+        <v>19</v>
+      </c>
+      <c r="C113">
+        <v>186.89</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114">
+        <v>18</v>
+      </c>
+      <c r="C114">
+        <v>198.24</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115">
+        <v>34</v>
+      </c>
+      <c r="C115">
+        <v>162.22999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116">
+        <v>35</v>
+      </c>
+      <c r="C116">
+        <v>176.35</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117">
+        <v>23</v>
+      </c>
+      <c r="C117">
+        <v>190.29</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118">
+        <v>29</v>
+      </c>
+      <c r="C118">
+        <v>178.33</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119">
+        <v>23</v>
+      </c>
+      <c r="C119">
+        <v>165.91</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120">
+        <v>19</v>
+      </c>
+      <c r="C120">
+        <v>183.85</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121">
+        <v>31</v>
+      </c>
+      <c r="C121">
+        <v>196.17</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122">
+        <v>35</v>
+      </c>
+      <c r="C122">
+        <v>188.85</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123">
+        <v>33</v>
+      </c>
+      <c r="C123">
+        <v>184.38</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B124">
+        <v>33</v>
+      </c>
+      <c r="C124">
+        <v>195.24</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125">
+        <v>21</v>
+      </c>
+      <c r="C125">
+        <v>178.11</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126">
+        <v>22</v>
+      </c>
+      <c r="C126">
+        <v>193.6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127">
+        <v>29</v>
+      </c>
+      <c r="C127">
+        <v>168.26</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128">
+        <v>29</v>
+      </c>
+      <c r="C128">
+        <v>168.73</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129">
+        <v>35</v>
+      </c>
+      <c r="C129">
+        <v>183.71</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130">
+        <v>38</v>
+      </c>
+      <c r="C130">
+        <v>165.68</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131">
+        <v>28</v>
+      </c>
+      <c r="C131">
+        <v>171.06</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132">
+        <v>40</v>
+      </c>
+      <c r="C132">
+        <v>178.61</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133">
+        <v>19</v>
+      </c>
+      <c r="C133">
+        <v>199.95</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B134">
+        <v>26</v>
+      </c>
+      <c r="C134">
+        <v>156.72</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135">
+        <v>36</v>
+      </c>
+      <c r="C135">
+        <v>196.34</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B136">
+        <v>18</v>
+      </c>
+      <c r="C136">
+        <v>180.88</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B137">
+        <v>39</v>
+      </c>
+      <c r="C137">
+        <v>196.86</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B138">
+        <v>19</v>
+      </c>
+      <c r="C138">
+        <v>196.68</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B139">
+        <v>31</v>
+      </c>
+      <c r="C139">
+        <v>182.95</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B140">
+        <v>27</v>
+      </c>
+      <c r="C140">
+        <v>170.34</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B141">
+        <v>23</v>
+      </c>
+      <c r="C141">
+        <v>173.23</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B142">
+        <v>28</v>
+      </c>
+      <c r="C142">
+        <v>177.06</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B143">
+        <v>37</v>
+      </c>
+      <c r="C143">
+        <v>151.33000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B144">
+        <v>24</v>
+      </c>
+      <c r="C144">
+        <v>164.39</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B145">
+        <v>39</v>
+      </c>
+      <c r="C145">
+        <v>157.22999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B146">
+        <v>39</v>
+      </c>
+      <c r="C146">
+        <v>150.72</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B147">
+        <v>34</v>
+      </c>
+      <c r="C147">
+        <v>172.47</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B148">
+        <v>20</v>
+      </c>
+      <c r="C148">
+        <v>180.93</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B149">
+        <v>19</v>
+      </c>
+      <c r="C149">
+        <v>172.01</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B150">
+        <v>26</v>
+      </c>
+      <c r="C150">
+        <v>194.61</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B151">
+        <v>32</v>
+      </c>
+      <c r="C151">
+        <v>157.66</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B152">
+        <v>33</v>
+      </c>
+      <c r="C152">
+        <v>181.18</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B153">
+        <v>37</v>
+      </c>
+      <c r="C153">
+        <v>157.88999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B154">
+        <v>34</v>
+      </c>
+      <c r="C154">
+        <v>153.54</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B155">
+        <v>30</v>
+      </c>
+      <c r="C155">
+        <v>161.01</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B156">
+        <v>21</v>
+      </c>
+      <c r="C156">
+        <v>195.38</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B157">
+        <v>30</v>
+      </c>
+      <c r="C157">
+        <v>174.98</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B158">
+        <v>37</v>
+      </c>
+      <c r="C158">
+        <v>194.09</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B159">
+        <v>30</v>
+      </c>
+      <c r="C159">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B160">
+        <v>23</v>
+      </c>
+      <c r="C160">
+        <v>178.34</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B161">
+        <v>22</v>
+      </c>
+      <c r="C161">
+        <v>188.32</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B162">
+        <v>30</v>
+      </c>
+      <c r="C162">
+        <v>194.33</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B163">
+        <v>36</v>
+      </c>
+      <c r="C163">
+        <v>153.24</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B164">
+        <v>27</v>
+      </c>
+      <c r="C164">
+        <v>178.25</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B165">
+        <v>21</v>
+      </c>
+      <c r="C165">
+        <v>184.92</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B166">
+        <v>37</v>
+      </c>
+      <c r="C166">
+        <v>185.4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B167">
+        <v>18</v>
+      </c>
+      <c r="C167">
+        <v>195.11</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B168">
+        <v>29</v>
+      </c>
+      <c r="C168">
+        <v>193.63</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B169">
+        <v>35</v>
+      </c>
+      <c r="C169">
+        <v>152.41999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B170">
+        <v>24</v>
+      </c>
+      <c r="C170">
+        <v>199.74</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B171">
+        <v>20</v>
+      </c>
+      <c r="C171">
+        <v>179.96</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B172">
+        <v>25</v>
+      </c>
+      <c r="C172">
+        <v>185.69</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B173">
+        <v>40</v>
+      </c>
+      <c r="C173">
+        <v>150.69</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B174">
+        <v>19</v>
+      </c>
+      <c r="C174">
+        <v>193.5</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B175">
+        <v>19</v>
+      </c>
+      <c r="C175">
+        <v>158.38999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B176">
+        <v>35</v>
+      </c>
+      <c r="C176">
+        <v>156.11000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B177">
+        <v>36</v>
+      </c>
+      <c r="C177">
+        <v>195.8</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B178">
+        <v>34</v>
+      </c>
+      <c r="C178">
+        <v>176.91</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B179">
+        <v>31</v>
+      </c>
+      <c r="C179">
+        <v>189.64</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B180">
+        <v>34</v>
+      </c>
+      <c r="C180">
+        <v>176.9</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B181">
+        <v>30</v>
+      </c>
+      <c r="C181">
+        <v>162.85</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B182">
+        <v>21</v>
+      </c>
+      <c r="C182">
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B183">
+        <v>23</v>
+      </c>
+      <c r="C183">
+        <v>176.08</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B184">
+        <v>28</v>
+      </c>
+      <c r="C184">
+        <v>181.71</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B185">
+        <v>32</v>
+      </c>
+      <c r="C185">
+        <v>162.80000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B186">
+        <v>38</v>
+      </c>
+      <c r="C186">
+        <v>176.86</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B187">
+        <v>37</v>
+      </c>
+      <c r="C187">
+        <v>171.04</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B188">
+        <v>38</v>
+      </c>
+      <c r="C188">
+        <v>184.27</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B189">
+        <v>39</v>
+      </c>
+      <c r="C189">
+        <v>184.54</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B190">
+        <v>33</v>
+      </c>
+      <c r="C190">
+        <v>169.62</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B191">
+        <v>33</v>
+      </c>
+      <c r="C191">
+        <v>168.77</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B192">
+        <v>26</v>
+      </c>
+      <c r="C192">
+        <v>167.66</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B193">
+        <v>28</v>
+      </c>
+      <c r="C193">
+        <v>172.24</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B194">
+        <v>21</v>
+      </c>
+      <c r="C194">
+        <v>176.44</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B195">
+        <v>24</v>
+      </c>
+      <c r="C195">
+        <v>161.91999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B196">
+        <v>24</v>
+      </c>
+      <c r="C196">
+        <v>197.86</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B197">
+        <v>19</v>
+      </c>
+      <c r="C197">
+        <v>196.86</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B198">
+        <v>29</v>
+      </c>
+      <c r="C198">
+        <v>192.18</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B199">
+        <v>30</v>
+      </c>
+      <c r="C199">
+        <v>171.19</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B200">
+        <v>28</v>
+      </c>
+      <c r="C200">
+        <v>164.01</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B201">
+        <v>38</v>
+      </c>
+      <c r="C201">
+        <v>182.65</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B202">
+        <v>26</v>
+      </c>
+      <c r="C202">
+        <v>178.66</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B203">
+        <v>30</v>
+      </c>
+      <c r="C203">
+        <v>196.91</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B204">
+        <v>26</v>
+      </c>
+      <c r="C204">
+        <v>197.3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B205">
+        <v>27</v>
+      </c>
+      <c r="C205">
+        <v>184.73</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B206">
+        <v>29</v>
+      </c>
+      <c r="C206">
+        <v>186.81</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B207">
+        <v>39</v>
+      </c>
+      <c r="C207">
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B208">
+        <v>28</v>
+      </c>
+      <c r="C208">
+        <v>194.11</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B209">
+        <v>19</v>
+      </c>
+      <c r="C209">
+        <v>160.41</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B210">
+        <v>18</v>
+      </c>
+      <c r="C210">
+        <v>154.69</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B211">
+        <v>23</v>
+      </c>
+      <c r="C211">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B212">
+        <v>27</v>
+      </c>
+      <c r="C212">
+        <v>180.37</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B213">
+        <v>38</v>
+      </c>
+      <c r="C213">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B214">
+        <v>29</v>
+      </c>
+      <c r="C214">
+        <v>163.32</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B215">
+        <v>25</v>
+      </c>
+      <c r="C215">
+        <v>163.22</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B216">
+        <v>30</v>
+      </c>
+      <c r="C216">
+        <v>198.37</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B217">
+        <v>34</v>
+      </c>
+      <c r="C217">
+        <v>199.43</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B218">
+        <v>18</v>
+      </c>
+      <c r="C218">
+        <v>167.6</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B219">
+        <v>29</v>
+      </c>
+      <c r="C219">
+        <v>189.79</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B220">
+        <v>39</v>
+      </c>
+      <c r="C220">
+        <v>158.19</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B221">
+        <v>19</v>
+      </c>
+      <c r="C221">
+        <v>160.61000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B222">
+        <v>24</v>
+      </c>
+      <c r="C222">
+        <v>191.75</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B223">
+        <v>22</v>
+      </c>
+      <c r="C223">
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B224">
+        <v>34</v>
+      </c>
+      <c r="C224">
+        <v>177.54</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B225">
+        <v>29</v>
+      </c>
+      <c r="C225">
+        <v>162.06</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B226">
+        <v>30</v>
+      </c>
+      <c r="C226">
+        <v>171.18</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B227">
+        <v>40</v>
+      </c>
+      <c r="C227">
+        <v>156.75</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B228">
+        <v>32</v>
+      </c>
+      <c r="C228">
+        <v>173.35</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B229">
+        <v>25</v>
+      </c>
+      <c r="C229">
+        <v>182.88</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B230">
+        <v>37</v>
+      </c>
+      <c r="C230">
+        <v>154.04</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B231">
+        <v>25</v>
+      </c>
+      <c r="C231">
+        <v>173.27</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B232">
+        <v>35</v>
+      </c>
+      <c r="C232">
+        <v>169.53</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B233">
+        <v>20</v>
+      </c>
+      <c r="C233">
+        <v>172.21</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B234">
+        <v>31</v>
+      </c>
+      <c r="C234">
+        <v>175.17</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B235">
+        <v>35</v>
+      </c>
+      <c r="C235">
+        <v>167.96</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B236">
+        <v>34</v>
+      </c>
+      <c r="C236">
+        <v>151.97999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B237">
+        <v>27</v>
+      </c>
+      <c r="C237">
+        <v>178.03</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B238">
+        <v>29</v>
+      </c>
+      <c r="C238">
+        <v>156.29</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B239">
+        <v>36</v>
+      </c>
+      <c r="C239">
+        <v>170.98</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B240">
+        <v>24</v>
+      </c>
+      <c r="C240">
+        <v>189.4</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B241">
+        <v>26</v>
+      </c>
+      <c r="C241">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B242">
+        <v>35</v>
+      </c>
+      <c r="C242">
+        <v>196.47</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B243">
+        <v>32</v>
+      </c>
+      <c r="C243">
+        <v>195.54</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B244">
+        <v>25</v>
+      </c>
+      <c r="C244">
+        <v>164.43</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B245">
+        <v>37</v>
+      </c>
+      <c r="C245">
+        <v>166.52</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B246">
+        <v>33</v>
+      </c>
+      <c r="C246">
+        <v>182.12</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B247">
+        <v>29</v>
+      </c>
+      <c r="C247">
+        <v>169.62</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B248">
+        <v>18</v>
+      </c>
+      <c r="C248">
+        <v>152.75</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B249">
+        <v>21</v>
+      </c>
+      <c r="C249">
+        <v>199.43</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B250">
+        <v>22</v>
+      </c>
+      <c r="C250">
+        <v>194.49</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B251">
+        <v>28</v>
+      </c>
+      <c r="C251">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B252">
+        <v>37</v>
+      </c>
+      <c r="C252">
+        <v>184.72</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B253">
+        <v>25</v>
+      </c>
+      <c r="C253">
+        <v>159.65</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B254">
+        <v>19</v>
+      </c>
+      <c r="C254">
+        <v>158.28</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B255">
+        <v>19</v>
+      </c>
+      <c r="C255">
+        <v>181.1</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B256">
+        <v>26</v>
+      </c>
+      <c r="C256">
+        <v>160.29</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B257">
+        <v>37</v>
+      </c>
+      <c r="C257">
+        <v>164.39</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B258">
+        <v>18</v>
+      </c>
+      <c r="C258">
+        <v>182.33</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B259">
+        <v>20</v>
+      </c>
+      <c r="C259">
+        <v>191.85</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B260">
+        <v>28</v>
+      </c>
+      <c r="C260">
+        <v>170.97</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B261">
+        <v>33</v>
+      </c>
+      <c r="C261">
+        <v>170.43</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B262">
+        <v>35</v>
+      </c>
+      <c r="C262">
+        <v>158.55000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B263">
+        <v>36</v>
+      </c>
+      <c r="C263">
+        <v>179.67</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B264">
+        <v>34</v>
+      </c>
+      <c r="C264">
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B265">
+        <v>33</v>
+      </c>
+      <c r="C265">
+        <v>177.99</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B266">
+        <v>24</v>
+      </c>
+      <c r="C266">
+        <v>157.08000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B267">
+        <v>29</v>
+      </c>
+      <c r="C267">
+        <v>155.24</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B268">
+        <v>18</v>
+      </c>
+      <c r="C268">
+        <v>155.1</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B269">
+        <v>25</v>
+      </c>
+      <c r="C269">
+        <v>155.32</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B270">
+        <v>32</v>
+      </c>
+      <c r="C270">
+        <v>193.16</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B271">
+        <v>20</v>
+      </c>
+      <c r="C271">
+        <v>190.71</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B272">
+        <v>35</v>
+      </c>
+      <c r="C272">
+        <v>179.01</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B273">
+        <v>36</v>
+      </c>
+      <c r="C273">
+        <v>197.47</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B274">
+        <v>23</v>
+      </c>
+      <c r="C274">
+        <v>152.58000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B275">
+        <v>25</v>
+      </c>
+      <c r="C275">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B276">
+        <v>28</v>
+      </c>
+      <c r="C276">
+        <v>168.71</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B277">
+        <v>27</v>
+      </c>
+      <c r="C277">
+        <v>186.74</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B278">
+        <v>24</v>
+      </c>
+      <c r="C278">
+        <v>174.35</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B279">
+        <v>34</v>
+      </c>
+      <c r="C279">
+        <v>196.86</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B280">
+        <v>24</v>
+      </c>
+      <c r="C280">
+        <v>164.15</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B281">
+        <v>37</v>
+      </c>
+      <c r="C281">
+        <v>154.82</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B282">
+        <v>21</v>
+      </c>
+      <c r="C282">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B283">
+        <v>23</v>
+      </c>
+      <c r="C283">
+        <v>186.5</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B284">
+        <v>18</v>
+      </c>
+      <c r="C284">
+        <v>159.01</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B285">
+        <v>30</v>
+      </c>
+      <c r="C285">
+        <v>160.35</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B286">
+        <v>21</v>
+      </c>
+      <c r="C286">
+        <v>197.99</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B287">
+        <v>22</v>
+      </c>
+      <c r="C287">
+        <v>176.78</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B288">
+        <v>22</v>
+      </c>
+      <c r="C288">
+        <v>187.69</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B289">
+        <v>36</v>
+      </c>
+      <c r="C289">
+        <v>168.39</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B290">
+        <v>22</v>
+      </c>
+      <c r="C290">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B291">
+        <v>39</v>
+      </c>
+      <c r="C291">
+        <v>163.63</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B292">
+        <v>38</v>
+      </c>
+      <c r="C292">
+        <v>179.86</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B293">
+        <v>18</v>
+      </c>
+      <c r="C293">
+        <v>194.52</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B294">
+        <v>18</v>
+      </c>
+      <c r="C294">
+        <v>198.06</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B295">
+        <v>20</v>
+      </c>
+      <c r="C295">
+        <v>151.94</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B296">
+        <v>19</v>
+      </c>
+      <c r="C296">
+        <v>196.37</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B297">
+        <v>37</v>
+      </c>
+      <c r="C297">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B298">
+        <v>33</v>
+      </c>
+      <c r="C298">
+        <v>178.29</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B299">
+        <v>21</v>
+      </c>
+      <c r="C299">
+        <v>177.97</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B300">
+        <v>32</v>
+      </c>
+      <c r="C300">
+        <v>195.14</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B301">
+        <v>20</v>
+      </c>
+      <c r="C301">
+        <v>178.57</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B302">
+        <v>36</v>
+      </c>
+      <c r="C302">
+        <v>198.17</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B303">
+        <v>25</v>
+      </c>
+      <c r="C303">
+        <v>172.61</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B304">
+        <v>34</v>
+      </c>
+      <c r="C304">
+        <v>169.85</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B305">
+        <v>33</v>
+      </c>
+      <c r="C305">
+        <v>166.18</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B306">
+        <v>30</v>
+      </c>
+      <c r="C306">
+        <v>169.39</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B307">
+        <v>29</v>
+      </c>
+      <c r="C307">
+        <v>190.47</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B308">
+        <v>26</v>
+      </c>
+      <c r="C308">
+        <v>166.93</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B309">
+        <v>21</v>
+      </c>
+      <c r="C309">
+        <v>162.02000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B310">
+        <v>27</v>
+      </c>
+      <c r="C310">
+        <v>167.72</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B311">
+        <v>21</v>
+      </c>
+      <c r="C311">
+        <v>190.16</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B312">
+        <v>38</v>
+      </c>
+      <c r="C312">
+        <v>178.74</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B313">
+        <v>37</v>
+      </c>
+      <c r="C313">
+        <v>151.77000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B314">
+        <v>22</v>
+      </c>
+      <c r="C314">
+        <v>192.12</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B315">
+        <v>18</v>
+      </c>
+      <c r="C315">
+        <v>170.26</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B316">
+        <v>21</v>
+      </c>
+      <c r="C316">
+        <v>158.63</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B317">
+        <v>20</v>
+      </c>
+      <c r="C317">
+        <v>171.24</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B318">
+        <v>23</v>
+      </c>
+      <c r="C318">
+        <v>151.08000000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B319">
+        <v>25</v>
+      </c>
+      <c r="C319">
+        <v>154.85</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B320">
+        <v>20</v>
+      </c>
+      <c r="C320">
+        <v>191.26</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B321">
+        <v>26</v>
+      </c>
+      <c r="C321">
+        <v>198.73</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B322">
+        <v>39</v>
+      </c>
+      <c r="C322">
+        <v>193.77</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B323">
+        <v>39</v>
+      </c>
+      <c r="C323">
+        <v>157.19</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B324">
+        <v>38</v>
+      </c>
+      <c r="C324">
+        <v>156.08000000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B325">
+        <v>32</v>
+      </c>
+      <c r="C325">
+        <v>196.79</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B326">
+        <v>34</v>
+      </c>
+      <c r="C326">
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B327">
+        <v>31</v>
+      </c>
+      <c r="C327">
+        <v>197.11</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B328">
+        <v>18</v>
+      </c>
+      <c r="C328">
+        <v>182.11</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B329">
+        <v>37</v>
+      </c>
+      <c r="C329">
+        <v>178.02</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B330">
+        <v>34</v>
+      </c>
+      <c r="C330">
+        <v>162.88999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B331">
+        <v>24</v>
+      </c>
+      <c r="C331">
+        <v>162.03</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B332">
+        <v>20</v>
+      </c>
+      <c r="C332">
+        <v>161.38</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B333">
+        <v>32</v>
+      </c>
+      <c r="C333">
+        <v>167.32</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B334">
+        <v>32</v>
+      </c>
+      <c r="C334">
+        <v>157.52000000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B335">
+        <v>23</v>
+      </c>
+      <c r="C335">
+        <v>181.55</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B336">
+        <v>22</v>
+      </c>
+      <c r="C336">
+        <v>170.49</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B337">
+        <v>28</v>
+      </c>
+      <c r="C337">
+        <v>190.16</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B338">
+        <v>36</v>
+      </c>
+      <c r="C338">
+        <v>179.12</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B339">
+        <v>31</v>
+      </c>
+      <c r="C339">
+        <v>164.74</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B340">
+        <v>25</v>
+      </c>
+      <c r="C340">
+        <v>156.53</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B341">
+        <v>37</v>
+      </c>
+      <c r="C341">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B342">
+        <v>39</v>
+      </c>
+      <c r="C342">
+        <v>188.89</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B343">
+        <v>36</v>
+      </c>
+      <c r="C343">
+        <v>187.94</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B344">
+        <v>37</v>
+      </c>
+      <c r="C344">
+        <v>158.63</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B345">
+        <v>22</v>
+      </c>
+      <c r="C345">
+        <v>183.74</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B346">
+        <v>21</v>
+      </c>
+      <c r="C346">
+        <v>156.22999999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B347">
+        <v>21</v>
+      </c>
+      <c r="C347">
+        <v>193.24</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B348">
+        <v>39</v>
+      </c>
+      <c r="C348">
+        <v>180.25</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B349">
+        <v>40</v>
+      </c>
+      <c r="C349">
+        <v>184.62</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B350">
+        <v>40</v>
+      </c>
+      <c r="C350">
+        <v>199.38</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B351">
+        <v>33</v>
+      </c>
+      <c r="C351">
+        <v>181.61</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B352">
+        <v>34</v>
+      </c>
+      <c r="C352">
+        <v>160.04</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B353">
+        <v>30</v>
+      </c>
+      <c r="C353">
+        <v>195.95</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B354">
+        <v>21</v>
+      </c>
+      <c r="C354">
+        <v>167.6</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B355">
+        <v>36</v>
+      </c>
+      <c r="C355">
+        <v>172.18</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B356">
+        <v>40</v>
+      </c>
+      <c r="C356">
+        <v>194.53</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B357">
+        <v>27</v>
+      </c>
+      <c r="C357">
+        <v>165.23</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B358">
+        <v>32</v>
+      </c>
+      <c r="C358">
+        <v>185.42</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B359">
+        <v>22</v>
+      </c>
+      <c r="C359">
+        <v>193.72</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B360">
+        <v>30</v>
+      </c>
+      <c r="C360">
+        <v>185.02</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B361">
+        <v>23</v>
+      </c>
+      <c r="C361">
+        <v>170.63</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B362">
+        <v>39</v>
+      </c>
+      <c r="C362">
+        <v>188.25</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B363">
+        <v>32</v>
+      </c>
+      <c r="C363">
+        <v>177.78</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B364">
+        <v>40</v>
+      </c>
+      <c r="C364">
+        <v>191.09</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B365">
+        <v>31</v>
+      </c>
+      <c r="C365">
+        <v>180.28</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B366">
+        <v>33</v>
+      </c>
+      <c r="C366">
+        <v>165.75</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B367">
+        <v>31</v>
+      </c>
+      <c r="C367">
+        <v>151.05000000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B368">
+        <v>27</v>
+      </c>
+      <c r="C368">
+        <v>170.29</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B369">
+        <v>30</v>
+      </c>
+      <c r="C369">
+        <v>177.96</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B370">
+        <v>37</v>
+      </c>
+      <c r="C370">
+        <v>180.23</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B371">
+        <v>20</v>
+      </c>
+      <c r="C371">
+        <v>199.05</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B372">
+        <v>28</v>
+      </c>
+      <c r="C372">
+        <v>160.78</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B373">
+        <v>31</v>
+      </c>
+      <c r="C373">
+        <v>182.68</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B374">
+        <v>24</v>
+      </c>
+      <c r="C374">
+        <v>171.31</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B375">
+        <v>36</v>
+      </c>
+      <c r="C375">
+        <v>158.99</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B376">
+        <v>18</v>
+      </c>
+      <c r="C376">
+        <v>182.07</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B377">
+        <v>38</v>
+      </c>
+      <c r="C377">
+        <v>188.72</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B378">
+        <v>35</v>
+      </c>
+      <c r="C378">
+        <v>152.51</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B379">
+        <v>37</v>
+      </c>
+      <c r="C379">
+        <v>156.54</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B380">
+        <v>21</v>
+      </c>
+      <c r="C380">
+        <v>189.89</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B381">
+        <v>28</v>
+      </c>
+      <c r="C381">
+        <v>173.71</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B382">
+        <v>29</v>
+      </c>
+      <c r="C382">
+        <v>190.97</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B383">
+        <v>18</v>
+      </c>
+      <c r="C383">
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B384">
+        <v>22</v>
+      </c>
+      <c r="C384">
+        <v>189.01</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B385">
+        <v>40</v>
+      </c>
+      <c r="C385">
+        <v>190.91</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B386">
+        <v>26</v>
+      </c>
+      <c r="C386">
+        <v>158.41999999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B387">
+        <v>34</v>
+      </c>
+      <c r="C387">
+        <v>162.16999999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B388">
+        <v>22</v>
+      </c>
+      <c r="C388">
+        <v>151.22</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B389">
+        <v>20</v>
+      </c>
+      <c r="C389">
+        <v>191.97</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B390">
+        <v>39</v>
+      </c>
+      <c r="C390">
+        <v>198.6</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B391">
+        <v>36</v>
+      </c>
+      <c r="C391">
+        <v>195.17</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B392">
+        <v>21</v>
+      </c>
+      <c r="C392">
+        <v>169.81</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B393">
+        <v>21</v>
+      </c>
+      <c r="C393">
+        <v>197.81</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B394">
+        <v>35</v>
+      </c>
+      <c r="C394">
+        <v>151.33000000000001</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B395">
+        <v>22</v>
+      </c>
+      <c r="C395">
+        <v>170.92</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B396">
+        <v>33</v>
+      </c>
+      <c r="C396">
+        <v>183.32</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B397">
+        <v>37</v>
+      </c>
+      <c r="C397">
+        <v>191.47</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B398">
+        <v>31</v>
+      </c>
+      <c r="C398">
+        <v>159.01</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B399">
+        <v>25</v>
+      </c>
+      <c r="C399">
+        <v>160.93</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B400">
+        <v>18</v>
+      </c>
+      <c r="C400">
+        <v>171.93</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B401">
+        <v>38</v>
+      </c>
+      <c r="C401">
+        <v>170.71</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B402">
+        <v>39</v>
+      </c>
+      <c r="C402">
+        <v>182.44</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B403">
+        <v>40</v>
+      </c>
+      <c r="C403">
+        <v>187.26</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B404">
+        <v>40</v>
+      </c>
+      <c r="C404">
+        <v>197.63</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B405">
+        <v>29</v>
+      </c>
+      <c r="C405">
+        <v>175.16</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B406">
+        <v>22</v>
+      </c>
+      <c r="C406">
+        <v>159.15</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B407">
+        <v>37</v>
+      </c>
+      <c r="C407">
+        <v>150.44999999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B408">
+        <v>32</v>
+      </c>
+      <c r="C408">
+        <v>192.18</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B409">
+        <v>26</v>
+      </c>
+      <c r="C409">
+        <v>187.07</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B410">
+        <v>32</v>
+      </c>
+      <c r="C410">
+        <v>183.62</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B411">
+        <v>32</v>
+      </c>
+      <c r="C411">
+        <v>189.84</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B412">
+        <v>24</v>
+      </c>
+      <c r="C412">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B413">
+        <v>19</v>
+      </c>
+      <c r="C413">
+        <v>181.63</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B414">
+        <v>27</v>
+      </c>
+      <c r="C414">
+        <v>162.31</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B415">
+        <v>31</v>
+      </c>
+      <c r="C415">
+        <v>160.85</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B416">
+        <v>32</v>
+      </c>
+      <c r="C416">
+        <v>153.04</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B417">
+        <v>23</v>
+      </c>
+      <c r="C417">
+        <v>196.62</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B418">
+        <v>33</v>
+      </c>
+      <c r="C418">
+        <v>177.02</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B419">
+        <v>30</v>
+      </c>
+      <c r="C419">
+        <v>196.02</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B420">
+        <v>27</v>
+      </c>
+      <c r="C420">
+        <v>184.57</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B421">
+        <v>25</v>
+      </c>
+      <c r="C421">
+        <v>183.74</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B422">
+        <v>28</v>
+      </c>
+      <c r="C422">
+        <v>166.56</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B423">
+        <v>20</v>
+      </c>
+      <c r="C423">
+        <v>161.58000000000001</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B424">
+        <v>27</v>
+      </c>
+      <c r="C424">
+        <v>177.63</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B425">
+        <v>32</v>
+      </c>
+      <c r="C425">
+        <v>185.9</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B426">
+        <v>35</v>
+      </c>
+      <c r="C426">
+        <v>183.77</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B427">
+        <v>31</v>
+      </c>
+      <c r="C427">
+        <v>151.19999999999999</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B428">
+        <v>38</v>
+      </c>
+      <c r="C428">
+        <v>152.05000000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B429">
+        <v>18</v>
+      </c>
+      <c r="C429">
+        <v>160.46</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B430">
+        <v>18</v>
+      </c>
+      <c r="C430">
+        <v>165.21</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B431">
+        <v>21</v>
+      </c>
+      <c r="C431">
+        <v>150.87</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B432">
+        <v>25</v>
+      </c>
+      <c r="C432">
+        <v>167.67</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B433">
+        <v>36</v>
+      </c>
+      <c r="C433">
+        <v>172.77</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B434">
+        <v>34</v>
+      </c>
+      <c r="C434">
+        <v>156.54</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B435">
+        <v>36</v>
+      </c>
+      <c r="C435">
+        <v>166.77</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B436">
+        <v>39</v>
+      </c>
+      <c r="C436">
+        <v>184.3</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B437">
+        <v>30</v>
+      </c>
+      <c r="C437">
+        <v>192.9</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B438">
+        <v>39</v>
+      </c>
+      <c r="C438">
+        <v>160.57</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B439">
+        <v>31</v>
+      </c>
+      <c r="C439">
+        <v>152.04</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B440">
+        <v>22</v>
+      </c>
+      <c r="C440">
+        <v>188.65</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B441">
+        <v>39</v>
+      </c>
+      <c r="C441">
+        <v>185.22</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B442">
+        <v>32</v>
+      </c>
+      <c r="C442">
+        <v>169.01</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B443">
+        <v>18</v>
+      </c>
+      <c r="C443">
+        <v>172.13</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B444">
+        <v>21</v>
+      </c>
+      <c r="C444">
+        <v>160.33000000000001</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B445">
+        <v>36</v>
+      </c>
+      <c r="C445">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B446">
+        <v>23</v>
+      </c>
+      <c r="C446">
+        <v>176.81</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B447">
+        <v>25</v>
+      </c>
+      <c r="C447">
+        <v>166.84</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B448">
+        <v>24</v>
+      </c>
+      <c r="C448">
+        <v>179.72</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B449">
+        <v>37</v>
+      </c>
+      <c r="C449">
+        <v>163.81</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B450">
+        <v>35</v>
+      </c>
+      <c r="C450">
+        <v>189.48</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B451">
+        <v>30</v>
+      </c>
+      <c r="C451">
+        <v>191.7</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B452">
+        <v>24</v>
+      </c>
+      <c r="C452">
+        <v>181.89</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B453">
+        <v>20</v>
+      </c>
+      <c r="C453">
+        <v>167.89</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B454">
+        <v>29</v>
+      </c>
+      <c r="C454">
+        <v>185.69</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B455">
+        <v>39</v>
+      </c>
+      <c r="C455">
+        <v>158.66</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B456">
+        <v>19</v>
+      </c>
+      <c r="C456">
+        <v>162.83000000000001</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B457">
+        <v>30</v>
+      </c>
+      <c r="C457">
+        <v>158.52000000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B458">
+        <v>26</v>
+      </c>
+      <c r="C458">
+        <v>185.1</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B459">
+        <v>27</v>
+      </c>
+      <c r="C459">
+        <v>170.74</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B460">
+        <v>35</v>
+      </c>
+      <c r="C460">
+        <v>167.69</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B461">
+        <v>28</v>
+      </c>
+      <c r="C461">
+        <v>168.55</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B462">
+        <v>28</v>
+      </c>
+      <c r="C462">
+        <v>190.81</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B463">
+        <v>27</v>
+      </c>
+      <c r="C463">
+        <v>176.44</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B464">
+        <v>28</v>
+      </c>
+      <c r="C464">
+        <v>181.53</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B465">
+        <v>24</v>
+      </c>
+      <c r="C465">
+        <v>181.56</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B466">
+        <v>25</v>
+      </c>
+      <c r="C466">
+        <v>184.73</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B467">
+        <v>27</v>
+      </c>
+      <c r="C467">
+        <v>181.59</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B468">
+        <v>23</v>
+      </c>
+      <c r="C468">
+        <v>160.13999999999999</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B469">
+        <v>35</v>
+      </c>
+      <c r="C469">
+        <v>185.05</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B470">
+        <v>30</v>
+      </c>
+      <c r="C470">
+        <v>181.69</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B471">
+        <v>30</v>
+      </c>
+      <c r="C471">
+        <v>166.95</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B472">
+        <v>34</v>
+      </c>
+      <c r="C472">
+        <v>176.91</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B473">
+        <v>36</v>
+      </c>
+      <c r="C473">
+        <v>171.8</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B474">
+        <v>35</v>
+      </c>
+      <c r="C474">
+        <v>151.32</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B475">
+        <v>40</v>
+      </c>
+      <c r="C475">
+        <v>173.51</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B476">
+        <v>26</v>
+      </c>
+      <c r="C476">
+        <v>198.24</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B477">
+        <v>20</v>
+      </c>
+      <c r="C477">
+        <v>174.36</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B478">
+        <v>26</v>
+      </c>
+      <c r="C478">
+        <v>184.26</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B479">
+        <v>19</v>
+      </c>
+      <c r="C479">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B480">
+        <v>27</v>
+      </c>
+      <c r="C480">
+        <v>151.82</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B481">
+        <v>22</v>
+      </c>
+      <c r="C481">
+        <v>163.6</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B482">
+        <v>37</v>
+      </c>
+      <c r="C482">
+        <v>156.13999999999999</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B483">
+        <v>20</v>
+      </c>
+      <c r="C483">
+        <v>191.43</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B484">
+        <v>25</v>
+      </c>
+      <c r="C484">
+        <v>180.72</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B485">
+        <v>26</v>
+      </c>
+      <c r="C485">
+        <v>163.63</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B486">
+        <v>40</v>
+      </c>
+      <c r="C486">
+        <v>153.44999999999999</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B487">
+        <v>27</v>
+      </c>
+      <c r="C487">
+        <v>183.7</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B488">
+        <v>32</v>
+      </c>
+      <c r="C488">
+        <v>188.67</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B489">
+        <v>19</v>
+      </c>
+      <c r="C489">
+        <v>185.15</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B490">
+        <v>30</v>
+      </c>
+      <c r="C490">
+        <v>176.13</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B491">
+        <v>19</v>
+      </c>
+      <c r="C491">
+        <v>187.79</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B492">
+        <v>21</v>
+      </c>
+      <c r="C492">
+        <v>175.93</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B493">
+        <v>23</v>
+      </c>
+      <c r="C493">
+        <v>150.27000000000001</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B494">
+        <v>21</v>
+      </c>
+      <c r="C494">
+        <v>186.11</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B495">
+        <v>37</v>
+      </c>
+      <c r="C495">
+        <v>184.98</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B496">
+        <v>24</v>
+      </c>
+      <c r="C496">
+        <v>188.45</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B497">
+        <v>27</v>
+      </c>
+      <c r="C497">
+        <v>150.07</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B498">
+        <v>28</v>
+      </c>
+      <c r="C498">
+        <v>164.9</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B499">
+        <v>25</v>
+      </c>
+      <c r="C499">
+        <v>197.17</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B500">
+        <v>33</v>
+      </c>
+      <c r="C500">
+        <v>171.53</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B501">
+        <v>22</v>
+      </c>
+      <c r="C501">
+        <v>164.94</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B502">
+        <v>28</v>
+      </c>
+      <c r="C502">
+        <v>152.43</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B503">
+        <v>30</v>
+      </c>
+      <c r="C503">
+        <v>159.91</v>
       </c>
     </row>
   </sheetData>
